--- a/waterbudget from Historic for Maria.xlsx
+++ b/waterbudget from Historic for Maria.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="225" windowWidth="19155" windowHeight="7620" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="120" yWindow="285" windowWidth="19155" windowHeight="7560" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="RoysWaterBudget" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="81">
   <si>
     <t>Supply</t>
   </si>
@@ -128,12 +128,6 @@
     <t>Snowpack</t>
   </si>
   <si>
-    <t>Soil Moisture</t>
-  </si>
-  <si>
-    <t>Aquifers</t>
-  </si>
-  <si>
     <t>Outflows</t>
   </si>
   <si>
@@ -141,9 +135,6 @@
   </si>
   <si>
     <t>Environmental Flows</t>
-  </si>
-  <si>
-    <t>Outflow to Columbia</t>
   </si>
   <si>
     <t>All Vegetation (ET)</t>
@@ -164,58 +155,7 @@
     <t>Irrigation (water diversions or irrigation requests)</t>
   </si>
   <si>
-    <t>time periods:</t>
-  </si>
-  <si>
-    <t>Winter - October 1 - May 31</t>
-  </si>
-  <si>
-    <t>Summer - June 1 - Sept 30</t>
-  </si>
-  <si>
     <t>Calculations for Water Budget Diagram</t>
-  </si>
-  <si>
-    <t>Option 1:</t>
-  </si>
-  <si>
-    <t>Option 3: (we talked about this when we met -- four seasons based on reservoir schedule)</t>
-  </si>
-  <si>
-    <t>Option 2: (Maria's choice for first attempt)</t>
-  </si>
-  <si>
-    <t>June 1 - Sept 30</t>
-  </si>
-  <si>
-    <t>Oct 1 - Nov 15</t>
-  </si>
-  <si>
-    <t>Nov 16-Feb 15</t>
-  </si>
-  <si>
-    <t>Feb 16 - June 15</t>
-  </si>
-  <si>
-    <t>trying to choose time periods that make sense for:</t>
-  </si>
-  <si>
-    <t>precipitation seasons</t>
-  </si>
-  <si>
-    <t>reservoirs</t>
-  </si>
-  <si>
-    <t>planting dates</t>
-  </si>
-  <si>
-    <t>Option 4:</t>
-  </si>
-  <si>
-    <t>daily values, that could be run dynamically as a movie</t>
-  </si>
-  <si>
-    <t>Data Sources for Diagram</t>
   </si>
   <si>
     <t>CSV file name</t>
@@ -295,12 +235,42 @@
   <si>
     <t>Urban_Water_Total_Demand_Ref_Run0.csv, Daily_Urban_Water_Demand_Summary_Historic_Run0.csv</t>
   </si>
+  <si>
+    <t>Input</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Delta Storage</t>
+  </si>
+  <si>
+    <t>Ouput</t>
+  </si>
+  <si>
+    <t>Other Outflow to Columbia</t>
+  </si>
+  <si>
+    <t>Balance</t>
+  </si>
+  <si>
+    <t>TOTALS</t>
+  </si>
+  <si>
+    <t>Soil Moisture &amp; GW</t>
+  </si>
+  <si>
+    <t>Totals</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -331,6 +301,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -340,7 +317,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -348,12 +325,75 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -379,10 +419,53 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -815,11 +898,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="149972864"/>
-        <c:axId val="149974400"/>
+        <c:axId val="78804096"/>
+        <c:axId val="78805632"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="149972864"/>
+        <c:axId val="78804096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -828,7 +911,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149974400"/>
+        <c:crossAx val="78805632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -836,7 +919,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="149974400"/>
+        <c:axId val="78805632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -847,7 +930,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149972864"/>
+        <c:crossAx val="78804096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1289,11 +1372,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="150009344"/>
-        <c:axId val="150010880"/>
+        <c:axId val="80548608"/>
+        <c:axId val="80550144"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="150009344"/>
+        <c:axId val="80548608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1302,7 +1385,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="150010880"/>
+        <c:crossAx val="80550144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1310,7 +1393,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="150010880"/>
+        <c:axId val="80550144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1321,7 +1404,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="150009344"/>
+        <c:crossAx val="80548608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1584,11 +1667,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="150173184"/>
-        <c:axId val="150174720"/>
+        <c:axId val="80642816"/>
+        <c:axId val="80644352"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="150173184"/>
+        <c:axId val="80642816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1597,7 +1680,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="150174720"/>
+        <c:crossAx val="80644352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1605,7 +1688,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="150174720"/>
+        <c:axId val="80644352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1616,7 +1699,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="150173184"/>
+        <c:crossAx val="80642816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2369,10 +2452,10 @@
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -7553,3216 +7636,3536 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H706"/>
+  <dimension ref="A1:Q690"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43:D44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.5703125" style="5" customWidth="1"/>
-    <col min="2" max="4" width="20.140625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="95" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="47.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="65.140625" style="6" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="5"/>
+    <col min="2" max="2" width="7.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.85546875" style="5" customWidth="1"/>
+    <col min="14" max="14" width="95" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="47.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="65.140625" style="6" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B3" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="5">
+        <v>161.80000000000001</v>
+      </c>
+      <c r="C7" s="5">
+        <v>15.2</v>
+      </c>
+      <c r="F7" s="5">
+        <v>147</v>
+      </c>
+      <c r="I7" s="5">
+        <f>SUM(C7,F7)</f>
+        <v>162.19999999999999</v>
+      </c>
+      <c r="J7" s="5">
+        <f>SUM(D7,G7)</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="22">
+        <f>SUM(E7,H7)</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="5">
+        <f>I7-J7-K7</f>
+        <v>162.19999999999999</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K8" s="22"/>
+      <c r="N8" s="4"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K9" s="22"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="5">
+        <v>13.3</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0</v>
+      </c>
+      <c r="D10" s="5">
+        <v>5</v>
+      </c>
+      <c r="E10" s="5">
+        <f>C10-D10</f>
+        <v>-5</v>
+      </c>
+      <c r="F10" s="5">
+        <v>13.3</v>
+      </c>
+      <c r="G10" s="5">
+        <f>F10+E10</f>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="H10" s="5">
+        <f>F10-G10</f>
+        <v>5</v>
+      </c>
+      <c r="I10" s="5">
+        <f>SUM(C10,F10)</f>
+        <v>13.3</v>
+      </c>
+      <c r="J10" s="5">
+        <f>SUM(D10,G10)</f>
+        <v>13.3</v>
+      </c>
+      <c r="K10" s="22">
+        <f>SUM(E10,H10)</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="5">
+        <f>I10-J10-K10</f>
+        <v>0</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K11" s="22"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="6"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="20">
+        <v>6.3</v>
+      </c>
+      <c r="C12" s="20">
+        <v>11.1</v>
+      </c>
+      <c r="D12" s="20">
+        <v>12.9</v>
+      </c>
+      <c r="E12" s="20">
+        <f>C12-D12</f>
+        <v>-1.8000000000000007</v>
+      </c>
+      <c r="F12" s="20">
+        <v>35.4</v>
+      </c>
+      <c r="G12" s="20">
+        <v>33.6</v>
+      </c>
+      <c r="H12" s="20">
+        <f>F12-G12</f>
+        <v>1.7999999999999972</v>
+      </c>
+      <c r="I12" s="20">
+        <f>SUM(C12,F12)</f>
+        <v>46.5</v>
+      </c>
+      <c r="J12" s="20">
+        <f>SUM(D12,G12)</f>
+        <v>46.5</v>
+      </c>
+      <c r="K12" s="22">
+        <f>SUM(E12,H12)</f>
+        <v>-3.5527136788005009E-15</v>
+      </c>
+      <c r="L12" s="21">
+        <f>I12-J12-K12</f>
+        <v>3.5527136788005009E-15</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" s="20">
+        <f>F13-C13</f>
+        <v>47.771999999999991</v>
+      </c>
+      <c r="C13" s="20">
+        <f>SUM(C14:C15)</f>
+        <v>24.428000000000001</v>
+      </c>
+      <c r="D13" s="20">
+        <f>SUM(D14:D15)</f>
+        <v>52.195</v>
+      </c>
+      <c r="E13" s="20">
+        <f>C13-D13</f>
+        <v>-27.766999999999999</v>
+      </c>
+      <c r="F13" s="20">
+        <f>SUM(F14:F15)</f>
+        <v>72.199999999999989</v>
+      </c>
+      <c r="G13" s="20">
+        <f>SUM(G14:G15)</f>
+        <v>44.5</v>
+      </c>
+      <c r="H13" s="20">
+        <f>F13-G13</f>
+        <v>27.699999999999989</v>
+      </c>
+      <c r="I13" s="20">
+        <f>SUM(C13,F13)</f>
+        <v>96.627999999999986</v>
+      </c>
+      <c r="J13" s="20">
+        <f t="shared" ref="J13:J15" si="0">SUM(D13,G13)</f>
+        <v>96.694999999999993</v>
+      </c>
+      <c r="K13" s="22">
+        <f>SUM(E13,H13)</f>
+        <v>-6.7000000000010829E-2</v>
+      </c>
+      <c r="L13" s="21">
+        <f>I13-J13-K13</f>
+        <v>3.5527136788005009E-15</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="O13" s="6"/>
+      <c r="P13" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3" s="6" t="s">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="20">
+        <f t="shared" ref="B14:B15" si="1">F14-C14</f>
+        <v>27.338999999999999</v>
+      </c>
+      <c r="C14" s="20">
+        <v>10.448</v>
+      </c>
+      <c r="D14" s="20">
+        <v>28.266999999999999</v>
+      </c>
+      <c r="E14" s="20">
+        <f t="shared" ref="E14:E15" si="2">C14-D14</f>
+        <v>-17.818999999999999</v>
+      </c>
+      <c r="F14" s="20">
+        <v>37.786999999999999</v>
+      </c>
+      <c r="G14" s="20">
+        <f>F14-17.8</f>
+        <v>19.986999999999998</v>
+      </c>
+      <c r="H14" s="20">
+        <f t="shared" ref="H14:H15" si="3">F14-G14</f>
+        <v>17.8</v>
+      </c>
+      <c r="I14" s="20">
+        <f>SUM(C14,F14)</f>
+        <v>48.234999999999999</v>
+      </c>
+      <c r="J14" s="20">
+        <f t="shared" si="0"/>
+        <v>48.253999999999998</v>
+      </c>
+      <c r="K14" s="22">
+        <f>SUM(E14,H14)</f>
+        <v>-1.8999999999998352E-2</v>
+      </c>
+      <c r="L14" s="21">
+        <f>I14-J14-K14</f>
+        <v>0</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="O14" s="6"/>
+      <c r="P14" s="5"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="20">
+        <f t="shared" si="1"/>
+        <v>20.432999999999996</v>
+      </c>
+      <c r="C15" s="20">
+        <v>13.98</v>
+      </c>
+      <c r="D15" s="20">
+        <v>23.928000000000001</v>
+      </c>
+      <c r="E15" s="20">
+        <f t="shared" si="2"/>
+        <v>-9.9480000000000004</v>
+      </c>
+      <c r="F15" s="20">
+        <v>34.412999999999997</v>
+      </c>
+      <c r="G15" s="20">
+        <f>F15-9.9</f>
+        <v>24.512999999999998</v>
+      </c>
+      <c r="H15" s="20">
+        <f t="shared" si="3"/>
+        <v>9.8999999999999986</v>
+      </c>
+      <c r="I15" s="20">
+        <f>SUM(C15,F15)</f>
+        <v>48.393000000000001</v>
+      </c>
+      <c r="J15" s="20">
+        <f t="shared" si="0"/>
+        <v>48.441000000000003</v>
+      </c>
+      <c r="K15" s="22">
+        <f>SUM(E15,H15)</f>
+        <v>-4.8000000000001819E-2</v>
+      </c>
+      <c r="L15" s="21">
+        <f>I15-J15-K15</f>
+        <v>0</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O15" s="6"/>
+      <c r="P15" s="5"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K16" s="22"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K17" s="22"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="5">
+        <v>31.4</v>
+      </c>
+      <c r="D18" s="5">
+        <f>SUM(D19:D20)</f>
+        <v>14.600000000000001</v>
+      </c>
+      <c r="E18" s="20"/>
+      <c r="G18" s="5">
+        <f>SUM(G19:G20)</f>
+        <v>17.8</v>
+      </c>
+      <c r="H18" s="20"/>
+      <c r="J18" s="5">
+        <f>SUM(D18,G18)</f>
+        <v>32.400000000000006</v>
+      </c>
+      <c r="K18" s="22">
+        <f>SUM(E18,H18)</f>
+        <v>0</v>
+      </c>
+      <c r="L18" s="5">
+        <f>I18-J18-K18</f>
+        <v>-32.400000000000006</v>
+      </c>
+      <c r="N18" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" s="5">
+        <v>26.2</v>
+      </c>
+      <c r="D19" s="5">
+        <v>11.8</v>
+      </c>
+      <c r="E19" s="20"/>
+      <c r="G19" s="5">
+        <v>14.3</v>
+      </c>
+      <c r="J19" s="5">
+        <f>SUM(D19,G19)</f>
+        <v>26.1</v>
+      </c>
+      <c r="K19" s="22">
+        <f>SUM(E19,H19)</f>
+        <v>0</v>
+      </c>
+      <c r="L19" s="5">
+        <f>I19-J19-K19</f>
+        <v>-26.1</v>
+      </c>
+      <c r="N19" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="P19" s="6" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" s="5">
+        <v>6.2</v>
+      </c>
+      <c r="D20" s="5">
+        <v>2.8</v>
+      </c>
+      <c r="E20" s="20"/>
+      <c r="G20" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="J20" s="5">
+        <f>SUM(D20,G20)</f>
+        <v>6.3</v>
+      </c>
+      <c r="K20" s="22">
+        <f>SUM(E20,H20)</f>
+        <v>0</v>
+      </c>
+      <c r="L20" s="5">
+        <f>I20-J20-K20</f>
+        <v>-6.3</v>
+      </c>
+      <c r="N20" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="O20" s="6"/>
+      <c r="P20" s="6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" s="6" t="s">
+    <row r="21" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="5">
+        <v>1.4</v>
+      </c>
+      <c r="D21" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="G21" s="5">
+        <v>0.45</v>
+      </c>
+      <c r="I21" s="5">
+        <f>SUM(C21,F21)</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="5">
+        <f>SUM(D21,G21)</f>
+        <v>1.4</v>
+      </c>
+      <c r="K21" s="22">
+        <f>SUM(E21,H21)</f>
+        <v>0</v>
+      </c>
+      <c r="L21" s="5">
+        <f>I21-J21-K21</f>
+        <v>-1.4</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="O21"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="6"/>
+      <c r="K22" s="22"/>
+      <c r="N22" s="1"/>
+      <c r="O22"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="5">
+        <v>1.3</v>
+      </c>
+      <c r="C23" s="5">
+        <v>0.49</v>
+      </c>
+      <c r="D23" s="5">
+        <v>0.49</v>
+      </c>
+      <c r="E23" s="5">
+        <v>0</v>
+      </c>
+      <c r="F23" s="5">
+        <v>0.81</v>
+      </c>
+      <c r="G23" s="5">
+        <v>0.81</v>
+      </c>
+      <c r="H23" s="5">
+        <v>0</v>
+      </c>
+      <c r="I23" s="5">
+        <f>SUM(C23,F23)</f>
+        <v>1.3</v>
+      </c>
+      <c r="J23" s="5">
+        <f>SUM(D23,G23)</f>
+        <v>1.3</v>
+      </c>
+      <c r="K23" s="22">
+        <f>SUM(E23,H23)</f>
+        <v>0</v>
+      </c>
+      <c r="L23" s="5">
+        <f>I23-J23-K23</f>
+        <v>0</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="P23" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="5">
+        <v>14.8</v>
+      </c>
+      <c r="D24" s="5">
+        <v>6.7</v>
+      </c>
+      <c r="G24" s="5">
+        <v>8.1</v>
+      </c>
+      <c r="I24" s="5">
+        <f>SUM(C24,F24)</f>
+        <v>0</v>
+      </c>
+      <c r="J24" s="5">
+        <f>SUM(D24,G24)</f>
+        <v>14.8</v>
+      </c>
+      <c r="K24" s="22">
+        <f>SUM(E24,H24)</f>
+        <v>0</v>
+      </c>
+      <c r="L24" s="5">
+        <f>I24-J24-K24</f>
+        <v>-14.8</v>
+      </c>
+      <c r="N24" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="P24" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25" s="5">
+        <f>128.4-B24</f>
+        <v>113.60000000000001</v>
+      </c>
+      <c r="D25" s="5">
+        <f>21.9-D24</f>
+        <v>15.2</v>
+      </c>
+      <c r="G25" s="5">
+        <f>107.5-G24</f>
+        <v>99.4</v>
+      </c>
+      <c r="I25" s="5">
+        <f>SUM(C25,F25)</f>
+        <v>0</v>
+      </c>
+      <c r="J25" s="5">
+        <f>SUM(D25,G25)</f>
+        <v>114.60000000000001</v>
+      </c>
+      <c r="K25" s="22">
+        <f>SUM(E25,H25)</f>
+        <v>0</v>
+      </c>
+      <c r="L25" s="5">
+        <f>I25-J25-K25</f>
+        <v>-114.60000000000001</v>
+      </c>
+      <c r="N25" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B22" s="5">
-        <v>161.80000000000001</v>
-      </c>
-      <c r="C22" s="5">
-        <v>15.2</v>
-      </c>
-      <c r="D22" s="5">
-        <v>147</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E23" s="4"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B25" s="5">
-        <v>13.5</v>
-      </c>
-      <c r="C25" s="5">
-        <v>-5</v>
-      </c>
-      <c r="D25" s="5">
-        <v>13.3</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E26" s="4"/>
-      <c r="F26" s="6"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B27" s="5">
-        <v>6.6</v>
-      </c>
-      <c r="C27" s="5">
-        <v>-6.6</v>
-      </c>
-      <c r="D27" s="5">
-        <v>6.6</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B28" s="5">
-        <v>50.2</v>
-      </c>
-      <c r="C28" s="5">
-        <v>-21.7</v>
-      </c>
-      <c r="D28" s="5">
-        <v>33.1</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F28" s="6"/>
-      <c r="G28" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B29" s="5">
-        <v>40.4</v>
-      </c>
-      <c r="C29" s="5">
-        <v>-17.899999999999999</v>
-      </c>
-      <c r="D29" s="5">
-        <v>26.4</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="F29" s="6"/>
-      <c r="G29" s="5"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B30" s="5">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="C30" s="5">
-        <v>-3.8</v>
-      </c>
-      <c r="D30" s="5">
-        <v>6.8</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="F30" s="6"/>
-      <c r="G30" s="5"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F31" s="6"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B34" s="5">
-        <v>31.4</v>
-      </c>
-      <c r="C34" s="5">
-        <v>14.2</v>
-      </c>
-      <c r="D34" s="5">
-        <v>17.100000000000001</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B35" s="5">
-        <v>26.2</v>
-      </c>
-      <c r="C35" s="5">
-        <v>11.9</v>
-      </c>
-      <c r="D35" s="5">
-        <v>14.3</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B36" s="5">
-        <v>6.2</v>
-      </c>
-      <c r="C36" s="5">
-        <v>2.8</v>
-      </c>
-      <c r="D36" s="5">
-        <v>3.4</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B37" s="5">
-        <v>1.4</v>
-      </c>
-      <c r="C37" s="5">
-        <v>0.95</v>
-      </c>
-      <c r="D37" s="5">
-        <v>0.45</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F37"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="6"/>
-      <c r="E38" s="1"/>
-      <c r="F38"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39" s="5">
-        <v>1.3</v>
-      </c>
-      <c r="C39" s="5">
-        <v>0.49</v>
-      </c>
-      <c r="D39" s="5">
-        <v>0.81</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="G39" s="6" t="s">
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H26" s="12" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40" s="5">
-        <v>14.8</v>
-      </c>
-      <c r="C40" s="5">
-        <v>6.7</v>
-      </c>
-      <c r="D40" s="5">
-        <v>8.1</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G40" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B41" s="5">
-        <v>128.4</v>
-      </c>
-      <c r="C41" s="5">
-        <v>21.9</v>
-      </c>
-      <c r="D41" s="5">
-        <v>107.6</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="9"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F44" s="6"/>
-      <c r="H44" s="6"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="9"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F46" s="6"/>
-      <c r="H46" s="6"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="9"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F48" s="6"/>
-      <c r="H48" s="6"/>
-    </row>
-    <row r="49" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="9"/>
-    </row>
-    <row r="50" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F50" s="6"/>
-      <c r="H50" s="6"/>
-    </row>
-    <row r="51" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
-      <c r="H51" s="9"/>
-    </row>
-    <row r="52" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F52" s="6"/>
-      <c r="H52" s="6"/>
-    </row>
-    <row r="53" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F53" s="6"/>
-      <c r="H53" s="6"/>
-    </row>
-    <row r="54" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F54" s="6"/>
-      <c r="H54" s="6"/>
-    </row>
-    <row r="55" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F55" s="6"/>
-      <c r="H55" s="6"/>
-    </row>
-    <row r="56" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F56" s="6"/>
-      <c r="H56" s="6"/>
-    </row>
-    <row r="57" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F57" s="6"/>
-      <c r="H57" s="6"/>
-    </row>
-    <row r="58" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F58" s="6"/>
-      <c r="H58" s="6"/>
-    </row>
-    <row r="59" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F59" s="6"/>
-      <c r="H59" s="6"/>
-    </row>
-    <row r="60" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F60" s="6"/>
-      <c r="H60" s="6"/>
-    </row>
-    <row r="61" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F61" s="6"/>
-      <c r="H61" s="6"/>
-    </row>
-    <row r="62" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F62" s="6"/>
-      <c r="H62" s="6"/>
-    </row>
-    <row r="63" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F63" s="6"/>
-      <c r="H63" s="6"/>
-    </row>
-    <row r="64" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F64" s="6"/>
-      <c r="H64" s="6"/>
-    </row>
-    <row r="65" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F65" s="6"/>
-      <c r="H65" s="6"/>
-    </row>
-    <row r="66" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F66" s="6"/>
-      <c r="H66" s="6"/>
-    </row>
-    <row r="67" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F67" s="6"/>
-      <c r="H67" s="6"/>
-    </row>
-    <row r="68" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F68" s="6"/>
-      <c r="H68" s="6"/>
-    </row>
-    <row r="69" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F69" s="6"/>
-      <c r="H69" s="6"/>
-    </row>
-    <row r="70" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F70" s="6"/>
-      <c r="H70" s="6"/>
-    </row>
-    <row r="71" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F71" s="6"/>
-      <c r="H71" s="6"/>
-    </row>
-    <row r="72" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F72" s="6"/>
-      <c r="H72" s="6"/>
-    </row>
-    <row r="73" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F73" s="10"/>
-      <c r="G73" s="10"/>
-      <c r="H73" s="9"/>
-    </row>
-    <row r="74" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F74" s="6"/>
-      <c r="H74" s="6"/>
-    </row>
-    <row r="75" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F75" s="6"/>
-      <c r="H75" s="6"/>
-    </row>
-    <row r="76" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F76" s="6"/>
-      <c r="H76" s="6"/>
-    </row>
-    <row r="77" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F77" s="6"/>
-      <c r="H77" s="6"/>
-    </row>
-    <row r="78" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F78" s="6"/>
-      <c r="H78" s="6"/>
-    </row>
-    <row r="79" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F79" s="6"/>
-      <c r="H79" s="6"/>
-    </row>
-    <row r="80" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F80" s="6"/>
-      <c r="H80" s="6"/>
-    </row>
-    <row r="81" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F81" s="6"/>
-      <c r="H81" s="6"/>
-    </row>
-    <row r="82" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F82" s="6"/>
-      <c r="H82" s="6"/>
-    </row>
-    <row r="83" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F83" s="6"/>
-      <c r="H83" s="6"/>
-    </row>
-    <row r="84" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F84" s="6"/>
-      <c r="H84" s="6"/>
-    </row>
-    <row r="85" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F85" s="6"/>
-      <c r="H85" s="6"/>
-    </row>
-    <row r="86" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F86" s="6"/>
-      <c r="H86" s="6"/>
-    </row>
-    <row r="87" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F87" s="6"/>
-      <c r="H87" s="6"/>
-    </row>
-    <row r="88" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F88" s="6"/>
-      <c r="H88" s="6"/>
-    </row>
-    <row r="89" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F89" s="6"/>
-      <c r="H89" s="6"/>
-    </row>
-    <row r="90" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F90" s="6"/>
-      <c r="H90" s="6"/>
-    </row>
-    <row r="91" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F91" s="6"/>
-      <c r="H91" s="6"/>
-    </row>
-    <row r="92" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F92" s="6"/>
-      <c r="H92" s="6"/>
-    </row>
-    <row r="93" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F93" s="6"/>
-      <c r="H93" s="6"/>
-    </row>
-    <row r="94" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F94" s="6"/>
-      <c r="H94" s="6"/>
-    </row>
-    <row r="95" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F95" s="10"/>
-      <c r="G95" s="10"/>
-      <c r="H95" s="9"/>
-    </row>
-    <row r="96" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F96" s="6"/>
-      <c r="H96" s="6"/>
-    </row>
-    <row r="97" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F97" s="6"/>
-      <c r="H97" s="6"/>
-    </row>
-    <row r="98" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F98" s="6"/>
-      <c r="H98" s="6"/>
-    </row>
-    <row r="99" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F99" s="6"/>
-      <c r="H99" s="6"/>
-    </row>
-    <row r="100" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F100" s="6"/>
-      <c r="H100" s="6"/>
-    </row>
-    <row r="101" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F101" s="6"/>
-      <c r="H101" s="6"/>
-    </row>
-    <row r="102" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F102" s="6"/>
-      <c r="H102" s="6"/>
-    </row>
-    <row r="103" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F103" s="6"/>
-      <c r="H103" s="6"/>
-    </row>
-    <row r="104" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F104" s="6"/>
-      <c r="H104" s="6"/>
-    </row>
-    <row r="105" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F105" s="6"/>
-      <c r="H105" s="6"/>
-    </row>
-    <row r="106" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F106" s="6"/>
-      <c r="H106" s="6"/>
-    </row>
-    <row r="107" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F107" s="6"/>
-      <c r="H107" s="6"/>
-    </row>
-    <row r="108" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F108" s="6"/>
-      <c r="H108" s="6"/>
-    </row>
-    <row r="109" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F109" s="6"/>
-      <c r="H109" s="6"/>
-    </row>
-    <row r="110" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F110" s="6"/>
-      <c r="H110" s="6"/>
-    </row>
-    <row r="111" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F111" s="6"/>
-      <c r="H111" s="6"/>
-    </row>
-    <row r="112" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F112" s="6"/>
-      <c r="H112" s="6"/>
-    </row>
-    <row r="113" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F113" s="6"/>
-      <c r="H113" s="6"/>
-    </row>
-    <row r="114" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F114" s="6"/>
-      <c r="H114" s="6"/>
-    </row>
-    <row r="115" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F115" s="6"/>
-      <c r="H115" s="6"/>
-    </row>
-    <row r="116" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F116" s="6"/>
-      <c r="H116" s="6"/>
-    </row>
-    <row r="117" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F117" s="10"/>
-      <c r="G117" s="10"/>
-      <c r="H117" s="9"/>
-    </row>
-    <row r="118" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F118" s="6"/>
-      <c r="H118" s="6"/>
-    </row>
-    <row r="119" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F119" s="6"/>
-      <c r="H119" s="6"/>
-    </row>
-    <row r="120" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F120" s="6"/>
-      <c r="H120" s="6"/>
-    </row>
-    <row r="121" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F121" s="6"/>
-      <c r="H121" s="6"/>
-    </row>
-    <row r="122" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F122" s="6"/>
-      <c r="H122" s="6"/>
-    </row>
-    <row r="123" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F123" s="6"/>
-      <c r="H123" s="6"/>
-    </row>
-    <row r="124" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F124" s="6"/>
-      <c r="H124" s="6"/>
-    </row>
-    <row r="125" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F125" s="6"/>
-      <c r="H125" s="6"/>
-    </row>
-    <row r="126" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F126" s="6"/>
-      <c r="H126" s="6"/>
-    </row>
-    <row r="127" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F127" s="6"/>
-      <c r="H127" s="6"/>
-    </row>
-    <row r="128" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F128" s="6"/>
-      <c r="H128" s="6"/>
-    </row>
-    <row r="129" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F129" s="10"/>
-      <c r="G129" s="10"/>
-      <c r="H129" s="9"/>
-    </row>
-    <row r="130" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F130" s="6"/>
-      <c r="H130" s="6"/>
-    </row>
-    <row r="131" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F131" s="6"/>
-      <c r="H131" s="6"/>
-    </row>
-    <row r="132" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F132" s="6"/>
-      <c r="H132" s="6"/>
-    </row>
-    <row r="133" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F133" s="6"/>
-      <c r="H133" s="6"/>
-    </row>
-    <row r="134" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F134" s="6"/>
-      <c r="H134" s="6"/>
-    </row>
-    <row r="135" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F135" s="6"/>
-      <c r="H135" s="6"/>
-    </row>
-    <row r="136" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F136" s="6"/>
-      <c r="H136" s="6"/>
-    </row>
-    <row r="137" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F137" s="6"/>
-      <c r="H137" s="6"/>
-    </row>
-    <row r="138" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F138" s="6"/>
-      <c r="H138" s="6"/>
-    </row>
-    <row r="139" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F139" s="6"/>
-      <c r="H139" s="6"/>
-    </row>
-    <row r="140" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F140" s="6"/>
-      <c r="H140" s="6"/>
-    </row>
-    <row r="141" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F141" s="10"/>
-      <c r="G141" s="10"/>
-      <c r="H141" s="9"/>
-    </row>
-    <row r="142" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F142" s="6"/>
-      <c r="H142" s="6"/>
-    </row>
-    <row r="143" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F143" s="10"/>
-      <c r="G143" s="10"/>
-      <c r="H143" s="9"/>
-    </row>
-    <row r="144" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F144" s="6"/>
-      <c r="H144" s="6"/>
-    </row>
-    <row r="145" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F145" s="6"/>
-      <c r="H145" s="6"/>
-    </row>
-    <row r="146" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F146" s="6"/>
-      <c r="H146" s="6"/>
-    </row>
-    <row r="147" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F147" s="6"/>
-      <c r="H147" s="6"/>
-    </row>
-    <row r="148" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F148" s="6"/>
-      <c r="H148" s="6"/>
-    </row>
-    <row r="149" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F149" s="6"/>
-      <c r="H149" s="6"/>
-    </row>
-    <row r="150" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F150" s="6"/>
-      <c r="H150" s="6"/>
-    </row>
-    <row r="151" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F151" s="10"/>
-      <c r="G151" s="10"/>
-      <c r="H151" s="9"/>
-    </row>
-    <row r="152" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F152" s="6"/>
-      <c r="H152" s="6"/>
-    </row>
-    <row r="153" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F153" s="6"/>
-      <c r="H153" s="6"/>
-    </row>
-    <row r="154" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F154" s="6"/>
-      <c r="H154" s="6"/>
-    </row>
-    <row r="155" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F155" s="6"/>
-      <c r="H155" s="6"/>
-    </row>
-    <row r="156" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F156" s="6"/>
-      <c r="H156" s="6"/>
-    </row>
-    <row r="157" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F157" s="6"/>
-      <c r="H157" s="6"/>
-    </row>
-    <row r="158" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F158" s="6"/>
-      <c r="H158" s="6"/>
-    </row>
-    <row r="159" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F159" s="6"/>
-      <c r="H159" s="6"/>
-    </row>
-    <row r="160" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F160" s="6"/>
-      <c r="H160" s="6"/>
-    </row>
-    <row r="161" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F161" s="6"/>
-      <c r="H161" s="6"/>
-    </row>
-    <row r="162" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F162" s="6"/>
-      <c r="H162" s="6"/>
-    </row>
-    <row r="163" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F163" s="10"/>
-      <c r="G163" s="10"/>
-      <c r="H163" s="9"/>
-    </row>
-    <row r="164" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F164" s="6"/>
-      <c r="H164" s="6"/>
-    </row>
-    <row r="165" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F165" s="6"/>
-      <c r="H165" s="6"/>
-    </row>
-    <row r="166" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F166" s="6"/>
-      <c r="H166" s="6"/>
-    </row>
-    <row r="167" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F167" s="6"/>
-      <c r="H167" s="6"/>
-    </row>
-    <row r="168" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F168" s="6"/>
-      <c r="H168" s="6"/>
-    </row>
-    <row r="169" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F169" s="6"/>
-      <c r="H169" s="6"/>
-    </row>
-    <row r="170" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F170" s="6"/>
-      <c r="H170" s="6"/>
-    </row>
-    <row r="171" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F171" s="6"/>
-      <c r="H171" s="6"/>
-    </row>
-    <row r="172" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F172" s="6"/>
-      <c r="H172" s="6"/>
-    </row>
-    <row r="173" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F173" s="6"/>
-      <c r="H173" s="6"/>
-    </row>
-    <row r="174" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F174" s="6"/>
-      <c r="H174" s="6"/>
-    </row>
-    <row r="175" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F175" s="10"/>
-      <c r="G175" s="10"/>
-      <c r="H175" s="9"/>
-    </row>
-    <row r="176" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F176" s="6"/>
-      <c r="H176" s="6"/>
-    </row>
-    <row r="177" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F177" s="6"/>
-      <c r="H177" s="6"/>
-    </row>
-    <row r="178" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F178" s="6"/>
-      <c r="H178" s="6"/>
-    </row>
-    <row r="179" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F179" s="6"/>
-      <c r="H179" s="6"/>
-    </row>
-    <row r="180" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F180" s="6"/>
-      <c r="H180" s="6"/>
-    </row>
-    <row r="181" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F181" s="6"/>
-      <c r="H181" s="6"/>
-    </row>
-    <row r="182" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F182" s="6"/>
-      <c r="H182" s="6"/>
-    </row>
-    <row r="183" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F183" s="6"/>
-      <c r="H183" s="6"/>
-    </row>
-    <row r="184" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F184" s="6"/>
-      <c r="H184" s="6"/>
-    </row>
-    <row r="185" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F185" s="6"/>
-      <c r="H185" s="6"/>
-    </row>
-    <row r="186" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F186" s="6"/>
-      <c r="H186" s="6"/>
-    </row>
-    <row r="187" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F187" s="6"/>
-      <c r="H187" s="6"/>
-    </row>
-    <row r="188" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F188" s="10"/>
-      <c r="G188" s="10"/>
-      <c r="H188" s="9"/>
-    </row>
-    <row r="189" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F189" s="6"/>
-      <c r="H189" s="6"/>
-    </row>
-    <row r="190" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F190" s="6"/>
-      <c r="H190" s="6"/>
-    </row>
-    <row r="191" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F191" s="6"/>
-      <c r="H191" s="6"/>
-    </row>
-    <row r="192" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F192" s="6"/>
-      <c r="H192" s="6"/>
-    </row>
-    <row r="193" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F193" s="6"/>
-      <c r="H193" s="6"/>
-    </row>
-    <row r="194" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F194" s="6"/>
-      <c r="H194" s="6"/>
-    </row>
-    <row r="195" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F195" s="6"/>
-      <c r="H195" s="6"/>
-    </row>
-    <row r="196" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F196" s="6"/>
-      <c r="H196" s="6"/>
-    </row>
-    <row r="197" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F197" s="6"/>
-      <c r="H197" s="6"/>
-    </row>
-    <row r="198" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F198" s="6"/>
-      <c r="H198" s="6"/>
-    </row>
-    <row r="199" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F199" s="6"/>
-      <c r="H199" s="6"/>
-    </row>
-    <row r="200" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F200" s="10"/>
-      <c r="G200" s="10"/>
-      <c r="H200" s="9"/>
-    </row>
-    <row r="201" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F201" s="6"/>
-      <c r="H201" s="6"/>
-    </row>
-    <row r="202" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F202" s="6"/>
-      <c r="H202" s="6"/>
-    </row>
-    <row r="203" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F203" s="6"/>
-      <c r="H203" s="6"/>
-    </row>
-    <row r="204" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F204" s="6"/>
-      <c r="H204" s="6"/>
-    </row>
-    <row r="205" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F205" s="6"/>
-      <c r="H205" s="6"/>
-    </row>
-    <row r="206" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F206" s="6"/>
-      <c r="H206" s="6"/>
-    </row>
-    <row r="207" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F207" s="6"/>
-      <c r="H207" s="6"/>
-    </row>
-    <row r="208" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F208" s="6"/>
-      <c r="H208" s="6"/>
-    </row>
-    <row r="209" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F209" s="6"/>
-      <c r="H209" s="6"/>
-    </row>
-    <row r="210" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F210" s="6"/>
-      <c r="H210" s="6"/>
-    </row>
-    <row r="211" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F211" s="6"/>
-      <c r="H211" s="6"/>
-    </row>
-    <row r="212" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F212" s="10"/>
-      <c r="G212" s="10"/>
-      <c r="H212" s="9"/>
-    </row>
-    <row r="213" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F213" s="6"/>
-      <c r="H213" s="6"/>
-    </row>
-    <row r="214" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F214" s="6"/>
-      <c r="H214" s="6"/>
-    </row>
-    <row r="215" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F215" s="6"/>
-      <c r="H215" s="6"/>
-    </row>
-    <row r="216" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F216" s="6"/>
-      <c r="H216" s="6"/>
-    </row>
-    <row r="217" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F217" s="6"/>
-      <c r="H217" s="6"/>
-    </row>
-    <row r="218" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F218" s="6"/>
-      <c r="H218" s="6"/>
-    </row>
-    <row r="219" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F219" s="6"/>
-      <c r="H219" s="6"/>
-    </row>
-    <row r="220" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F220" s="6"/>
-      <c r="H220" s="6"/>
-    </row>
-    <row r="221" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F221" s="6"/>
-      <c r="H221" s="6"/>
-    </row>
-    <row r="222" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F222" s="6"/>
-      <c r="H222" s="6"/>
-    </row>
-    <row r="223" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F223" s="6"/>
-      <c r="H223" s="6"/>
-    </row>
-    <row r="224" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F224" s="10"/>
-      <c r="G224" s="10"/>
-      <c r="H224" s="9"/>
-    </row>
-    <row r="225" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F225" s="6"/>
-      <c r="H225" s="6"/>
-    </row>
-    <row r="226" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F226" s="6"/>
-      <c r="H226" s="6"/>
-    </row>
-    <row r="227" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F227" s="6"/>
-      <c r="H227" s="6"/>
-    </row>
-    <row r="228" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F228" s="6"/>
-      <c r="H228" s="6"/>
-    </row>
-    <row r="229" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F229" s="6"/>
-      <c r="H229" s="6"/>
-    </row>
-    <row r="230" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F230" s="6"/>
-      <c r="H230" s="6"/>
-    </row>
-    <row r="231" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F231" s="6"/>
-      <c r="H231" s="6"/>
-    </row>
-    <row r="232" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F232" s="6"/>
-      <c r="H232" s="6"/>
-    </row>
-    <row r="233" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F233" s="6"/>
-      <c r="H233" s="6"/>
-    </row>
-    <row r="234" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F234" s="6"/>
-      <c r="H234" s="6"/>
-    </row>
-    <row r="235" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F235" s="6"/>
-      <c r="H235" s="6"/>
-    </row>
-    <row r="236" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F236" s="10"/>
-      <c r="G236" s="10"/>
-      <c r="H236" s="9"/>
-    </row>
-    <row r="237" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F237" s="6"/>
-      <c r="H237" s="6"/>
-    </row>
-    <row r="238" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F238" s="6"/>
-      <c r="H238" s="6"/>
-    </row>
-    <row r="239" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F239" s="6"/>
-      <c r="H239" s="6"/>
-    </row>
-    <row r="240" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F240" s="6"/>
-      <c r="H240" s="6"/>
-    </row>
-    <row r="241" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F241" s="6"/>
-      <c r="H241" s="6"/>
-    </row>
-    <row r="242" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F242" s="6"/>
-      <c r="H242" s="6"/>
-    </row>
-    <row r="243" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F243" s="6"/>
-      <c r="H243" s="6"/>
-    </row>
-    <row r="244" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F244" s="6"/>
-      <c r="H244" s="6"/>
-    </row>
-    <row r="245" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F245" s="6"/>
-      <c r="H245" s="6"/>
-    </row>
-    <row r="246" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F246" s="6"/>
-      <c r="H246" s="6"/>
-    </row>
-    <row r="247" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F247" s="6"/>
-      <c r="H247" s="6"/>
-    </row>
-    <row r="248" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F248" s="10"/>
-      <c r="G248" s="10"/>
-      <c r="H248" s="9"/>
-    </row>
-    <row r="249" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F249" s="6"/>
-      <c r="H249" s="6"/>
-    </row>
-    <row r="250" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F250" s="6"/>
-      <c r="H250" s="6"/>
-    </row>
-    <row r="251" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F251" s="6"/>
-      <c r="H251" s="6"/>
-    </row>
-    <row r="252" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F252" s="6"/>
-      <c r="H252" s="6"/>
-    </row>
-    <row r="253" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F253" s="6"/>
-      <c r="H253" s="6"/>
-    </row>
-    <row r="254" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F254" s="6"/>
-      <c r="H254" s="6"/>
-    </row>
-    <row r="255" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F255" s="6"/>
-      <c r="H255" s="6"/>
-    </row>
-    <row r="256" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F256" s="6"/>
-      <c r="H256" s="6"/>
-    </row>
-    <row r="257" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F257" s="6"/>
-      <c r="H257" s="6"/>
-    </row>
-    <row r="258" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F258" s="6"/>
-      <c r="H258" s="6"/>
-    </row>
-    <row r="259" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F259" s="6"/>
-      <c r="H259" s="6"/>
-    </row>
-    <row r="260" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F260" s="10"/>
-      <c r="G260" s="10"/>
-      <c r="H260" s="9"/>
-    </row>
-    <row r="261" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F261" s="6"/>
-      <c r="H261" s="6"/>
-    </row>
-    <row r="262" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F262" s="6"/>
-      <c r="H262" s="6"/>
-    </row>
-    <row r="263" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F263" s="6"/>
-      <c r="H263" s="6"/>
-    </row>
-    <row r="264" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F264" s="6"/>
-      <c r="H264" s="6"/>
-    </row>
-    <row r="265" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F265" s="6"/>
-      <c r="H265" s="6"/>
-    </row>
-    <row r="266" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F266" s="6"/>
-      <c r="H266" s="6"/>
-    </row>
-    <row r="267" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F267" s="6"/>
-      <c r="H267" s="6"/>
-    </row>
-    <row r="268" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F268" s="6"/>
-      <c r="H268" s="6"/>
-    </row>
-    <row r="269" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F269" s="6"/>
-      <c r="H269" s="6"/>
-    </row>
-    <row r="270" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F270" s="6"/>
-      <c r="H270" s="6"/>
-    </row>
-    <row r="271" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F271" s="6"/>
-      <c r="H271" s="6"/>
-    </row>
-    <row r="272" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F272" s="6"/>
-      <c r="H272" s="6"/>
-    </row>
-    <row r="273" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F273" s="6"/>
-      <c r="H273" s="6"/>
-    </row>
-    <row r="274" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F274" s="6"/>
-      <c r="H274" s="6"/>
-    </row>
-    <row r="275" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F275" s="6"/>
-      <c r="H275" s="6"/>
-    </row>
-    <row r="276" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F276" s="10"/>
-      <c r="G276" s="10"/>
-      <c r="H276" s="9"/>
-    </row>
-    <row r="277" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F277" s="6"/>
-      <c r="H277" s="6"/>
-    </row>
-    <row r="278" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F278" s="6"/>
-      <c r="H278" s="6"/>
-    </row>
-    <row r="279" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F279" s="6"/>
-      <c r="H279" s="6"/>
-    </row>
-    <row r="280" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F280" s="6"/>
-      <c r="H280" s="6"/>
-    </row>
-    <row r="281" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F281" s="6"/>
-      <c r="H281" s="6"/>
-    </row>
-    <row r="282" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F282" s="6"/>
-      <c r="H282" s="6"/>
-    </row>
-    <row r="283" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F283" s="6"/>
-      <c r="H283" s="6"/>
-    </row>
-    <row r="284" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F284" s="6"/>
-      <c r="H284" s="6"/>
-    </row>
-    <row r="285" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F285" s="6"/>
-      <c r="H285" s="6"/>
-    </row>
-    <row r="286" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F286" s="6"/>
-      <c r="H286" s="6"/>
-    </row>
-    <row r="287" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F287" s="6"/>
-      <c r="H287" s="6"/>
-    </row>
-    <row r="288" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F288" s="10"/>
-      <c r="G288" s="10"/>
-      <c r="H288" s="9"/>
-    </row>
-    <row r="289" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F289" s="6"/>
-      <c r="H289" s="6"/>
-    </row>
-    <row r="290" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F290" s="6"/>
-      <c r="H290" s="6"/>
-    </row>
-    <row r="291" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F291" s="6"/>
-      <c r="H291" s="6"/>
-    </row>
-    <row r="292" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F292" s="6"/>
-      <c r="H292" s="6"/>
-    </row>
-    <row r="293" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F293" s="6"/>
-      <c r="H293" s="6"/>
-    </row>
-    <row r="294" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F294" s="6"/>
-      <c r="H294" s="6"/>
-    </row>
-    <row r="295" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F295" s="6"/>
-      <c r="H295" s="6"/>
-    </row>
-    <row r="296" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F296" s="6"/>
-      <c r="H296" s="6"/>
-    </row>
-    <row r="297" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F297" s="6"/>
-      <c r="H297" s="6"/>
-    </row>
-    <row r="298" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F298" s="6"/>
-      <c r="H298" s="6"/>
-    </row>
-    <row r="299" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F299" s="6"/>
-      <c r="H299" s="6"/>
-    </row>
-    <row r="300" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F300" s="10"/>
-      <c r="G300" s="10"/>
-      <c r="H300" s="9"/>
-    </row>
-    <row r="301" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F301" s="6"/>
-      <c r="H301" s="6"/>
-    </row>
-    <row r="302" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F302" s="6"/>
-      <c r="H302" s="6"/>
-    </row>
-    <row r="303" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F303" s="6"/>
-      <c r="H303" s="6"/>
-    </row>
-    <row r="304" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F304" s="6"/>
-      <c r="H304" s="6"/>
-    </row>
-    <row r="305" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F305" s="6"/>
-      <c r="H305" s="6"/>
-    </row>
-    <row r="306" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F306" s="6"/>
-      <c r="H306" s="6"/>
-    </row>
-    <row r="307" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F307" s="6"/>
-      <c r="H307" s="6"/>
-    </row>
-    <row r="308" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F308" s="6"/>
-      <c r="H308" s="6"/>
-    </row>
-    <row r="309" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F309" s="6"/>
-      <c r="H309" s="6"/>
-    </row>
-    <row r="310" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F310" s="6"/>
-      <c r="H310" s="6"/>
-    </row>
-    <row r="311" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F311" s="6"/>
-      <c r="H311" s="6"/>
-    </row>
-    <row r="312" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F312" s="10"/>
-      <c r="G312" s="10"/>
-      <c r="H312" s="9"/>
-    </row>
-    <row r="313" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F313" s="6"/>
-      <c r="H313" s="6"/>
-    </row>
-    <row r="314" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F314" s="6"/>
-      <c r="H314" s="6"/>
-    </row>
-    <row r="315" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F315" s="6"/>
-      <c r="H315" s="6"/>
-    </row>
-    <row r="316" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F316" s="6"/>
-      <c r="H316" s="6"/>
-    </row>
-    <row r="317" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F317" s="6"/>
-      <c r="H317" s="6"/>
-    </row>
-    <row r="318" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F318" s="6"/>
-      <c r="H318" s="6"/>
-    </row>
-    <row r="319" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F319" s="6"/>
-      <c r="H319" s="6"/>
-    </row>
-    <row r="320" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F320" s="6"/>
-      <c r="H320" s="6"/>
-    </row>
-    <row r="321" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F321" s="6"/>
-      <c r="H321" s="6"/>
-    </row>
-    <row r="322" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F322" s="6"/>
-      <c r="H322" s="6"/>
-    </row>
-    <row r="323" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F323" s="6"/>
-      <c r="H323" s="6"/>
-    </row>
-    <row r="324" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F324" s="10"/>
-      <c r="G324" s="10"/>
-      <c r="H324" s="9"/>
-    </row>
-    <row r="325" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F325" s="6"/>
-      <c r="H325" s="6"/>
-    </row>
-    <row r="326" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F326" s="6"/>
-      <c r="H326" s="6"/>
-    </row>
-    <row r="327" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F327" s="10"/>
-      <c r="G327" s="10"/>
-      <c r="H327" s="9"/>
-    </row>
-    <row r="328" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F328" s="6"/>
-      <c r="H328" s="6"/>
-    </row>
-    <row r="329" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F329" s="10"/>
-      <c r="G329" s="10"/>
-      <c r="H329" s="9"/>
-    </row>
-    <row r="330" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F330" s="6"/>
-      <c r="H330" s="6"/>
-    </row>
-    <row r="331" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F331" s="10"/>
-      <c r="G331" s="10"/>
-      <c r="H331" s="9"/>
-    </row>
-    <row r="332" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F332" s="6"/>
-      <c r="H332" s="6"/>
-    </row>
-    <row r="333" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F333" s="6"/>
-      <c r="H333" s="6"/>
-    </row>
-    <row r="334" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F334" s="6"/>
-      <c r="H334" s="6"/>
-    </row>
-    <row r="335" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F335" s="10"/>
-      <c r="G335" s="10"/>
-      <c r="H335" s="9"/>
-    </row>
-    <row r="336" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F336" s="6"/>
-      <c r="H336" s="6"/>
-    </row>
-    <row r="337" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F337" s="6"/>
-      <c r="H337" s="6"/>
-    </row>
-    <row r="338" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F338" s="6"/>
-      <c r="H338" s="6"/>
-    </row>
-    <row r="339" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F339" s="6"/>
-      <c r="H339" s="6"/>
-    </row>
-    <row r="340" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F340" s="10"/>
-      <c r="G340" s="10"/>
-      <c r="H340" s="9"/>
-    </row>
-    <row r="341" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F341" s="6"/>
-      <c r="H341" s="6"/>
-    </row>
-    <row r="342" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F342" s="10"/>
-      <c r="G342" s="10"/>
-      <c r="H342" s="9"/>
-    </row>
-    <row r="343" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F343" s="6"/>
-      <c r="H343" s="6"/>
-    </row>
-    <row r="344" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F344" s="10"/>
-      <c r="G344" s="10"/>
-      <c r="H344" s="9"/>
-    </row>
-    <row r="345" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F345" s="6"/>
-      <c r="H345" s="6"/>
-    </row>
-    <row r="346" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F346" s="10"/>
-      <c r="G346" s="10"/>
-      <c r="H346" s="9"/>
-    </row>
-    <row r="347" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F347" s="6"/>
-      <c r="H347" s="6"/>
-    </row>
-    <row r="348" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F348" s="10"/>
-      <c r="G348" s="10"/>
-      <c r="H348" s="9"/>
-    </row>
-    <row r="349" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F349" s="6"/>
-      <c r="H349" s="6"/>
-    </row>
-    <row r="350" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F350" s="6"/>
-      <c r="H350" s="6"/>
-    </row>
-    <row r="351" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F351" s="6"/>
-      <c r="H351" s="6"/>
-    </row>
-    <row r="352" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F352" s="6"/>
-      <c r="H352" s="6"/>
-    </row>
-    <row r="353" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F353" s="6"/>
-      <c r="H353" s="6"/>
-    </row>
-    <row r="354" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F354" s="6"/>
-      <c r="H354" s="6"/>
-    </row>
-    <row r="355" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F355" s="6"/>
-      <c r="H355" s="6"/>
-    </row>
-    <row r="356" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F356" s="6"/>
-      <c r="H356" s="6"/>
-    </row>
-    <row r="357" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F357" s="6"/>
-      <c r="H357" s="6"/>
-    </row>
-    <row r="358" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F358" s="6"/>
-      <c r="H358" s="6"/>
-    </row>
-    <row r="359" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F359" s="6"/>
-      <c r="H359" s="6"/>
-    </row>
-    <row r="360" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F360" s="6"/>
-      <c r="H360" s="6"/>
-    </row>
-    <row r="361" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F361" s="6"/>
-      <c r="H361" s="6"/>
-    </row>
-    <row r="362" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F362" s="6"/>
-      <c r="H362" s="6"/>
-    </row>
-    <row r="363" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F363" s="6"/>
-      <c r="H363" s="6"/>
-    </row>
-    <row r="364" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F364" s="6"/>
-      <c r="H364" s="6"/>
-    </row>
-    <row r="365" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F365" s="6"/>
-      <c r="H365" s="6"/>
-    </row>
-    <row r="366" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F366" s="6"/>
-      <c r="H366" s="6"/>
-    </row>
-    <row r="367" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F367" s="10"/>
-      <c r="G367" s="10"/>
-      <c r="H367" s="9"/>
-    </row>
-    <row r="368" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F368" s="6"/>
-      <c r="H368" s="6"/>
-    </row>
-    <row r="369" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F369" s="6"/>
-      <c r="H369" s="6"/>
-    </row>
-    <row r="370" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F370" s="6"/>
-      <c r="H370" s="6"/>
-    </row>
-    <row r="371" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F371" s="6"/>
-      <c r="H371" s="6"/>
-    </row>
-    <row r="372" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F372" s="6"/>
-      <c r="H372" s="6"/>
-    </row>
-    <row r="373" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F373" s="6"/>
-      <c r="H373" s="6"/>
-    </row>
-    <row r="374" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F374" s="6"/>
-      <c r="H374" s="6"/>
-    </row>
-    <row r="375" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F375" s="6"/>
-      <c r="H375" s="6"/>
-    </row>
-    <row r="376" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F376" s="6"/>
-      <c r="H376" s="6"/>
-    </row>
-    <row r="377" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F377" s="6"/>
-      <c r="H377" s="6"/>
-    </row>
-    <row r="378" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F378" s="6"/>
-      <c r="H378" s="6"/>
-    </row>
-    <row r="379" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F379" s="6"/>
-      <c r="H379" s="6"/>
-    </row>
-    <row r="380" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F380" s="6"/>
-      <c r="H380" s="6"/>
-    </row>
-    <row r="381" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F381" s="6"/>
-      <c r="H381" s="6"/>
-    </row>
-    <row r="382" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F382" s="6"/>
-      <c r="H382" s="6"/>
-    </row>
-    <row r="383" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F383" s="6"/>
-      <c r="H383" s="6"/>
-    </row>
-    <row r="384" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F384" s="6"/>
-      <c r="H384" s="6"/>
-    </row>
-    <row r="385" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F385" s="6"/>
-      <c r="H385" s="6"/>
-    </row>
-    <row r="386" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F386" s="10"/>
-      <c r="G386" s="10"/>
-      <c r="H386" s="9"/>
-    </row>
-    <row r="387" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F387" s="6"/>
-      <c r="H387" s="6"/>
-    </row>
-    <row r="388" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F388" s="6"/>
-      <c r="H388" s="6"/>
-    </row>
-    <row r="389" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F389" s="6"/>
-      <c r="H389" s="6"/>
-    </row>
-    <row r="390" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F390" s="6"/>
-      <c r="H390" s="6"/>
-    </row>
-    <row r="391" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F391" s="6"/>
-      <c r="H391" s="6"/>
-    </row>
-    <row r="392" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F392" s="6"/>
-      <c r="H392" s="6"/>
-    </row>
-    <row r="393" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F393" s="6"/>
-      <c r="H393" s="6"/>
-    </row>
-    <row r="394" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F394" s="6"/>
-      <c r="H394" s="6"/>
-    </row>
-    <row r="395" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F395" s="6"/>
-      <c r="H395" s="6"/>
-    </row>
-    <row r="396" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F396" s="6"/>
-      <c r="H396" s="6"/>
-    </row>
-    <row r="397" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F397" s="6"/>
-      <c r="H397" s="6"/>
-    </row>
-    <row r="398" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F398" s="6"/>
-      <c r="H398" s="6"/>
-    </row>
-    <row r="399" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F399" s="6"/>
-      <c r="H399" s="6"/>
-    </row>
-    <row r="400" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F400" s="6"/>
-      <c r="H400" s="6"/>
-    </row>
-    <row r="401" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F401" s="6"/>
-      <c r="H401" s="6"/>
-    </row>
-    <row r="402" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F402" s="6"/>
-      <c r="H402" s="6"/>
-    </row>
-    <row r="403" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F403" s="6"/>
-      <c r="H403" s="6"/>
-    </row>
-    <row r="404" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F404" s="6"/>
-      <c r="H404" s="6"/>
-    </row>
-    <row r="405" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F405" s="10"/>
-      <c r="G405" s="10"/>
-      <c r="H405" s="9"/>
-    </row>
-    <row r="406" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F406" s="6"/>
-      <c r="H406" s="6"/>
-    </row>
-    <row r="407" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F407" s="6"/>
-      <c r="H407" s="6"/>
-    </row>
-    <row r="408" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F408" s="6"/>
-      <c r="H408" s="6"/>
-    </row>
-    <row r="409" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F409" s="6"/>
-      <c r="H409" s="6"/>
-    </row>
-    <row r="410" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F410" s="6"/>
-      <c r="H410" s="6"/>
-    </row>
-    <row r="411" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F411" s="6"/>
-      <c r="H411" s="6"/>
-    </row>
-    <row r="412" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F412" s="6"/>
-      <c r="H412" s="6"/>
-    </row>
-    <row r="413" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F413" s="6"/>
-      <c r="H413" s="6"/>
-    </row>
-    <row r="414" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F414" s="6"/>
-      <c r="H414" s="6"/>
-    </row>
-    <row r="415" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F415" s="6"/>
-      <c r="H415" s="6"/>
-    </row>
-    <row r="416" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F416" s="6"/>
-      <c r="H416" s="6"/>
-    </row>
-    <row r="417" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F417" s="6"/>
-      <c r="H417" s="6"/>
-    </row>
-    <row r="418" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F418" s="6"/>
-      <c r="H418" s="6"/>
-    </row>
-    <row r="419" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F419" s="6"/>
-      <c r="H419" s="6"/>
-    </row>
-    <row r="420" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F420" s="6"/>
-      <c r="H420" s="6"/>
-    </row>
-    <row r="421" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F421" s="6"/>
-      <c r="H421" s="6"/>
-    </row>
-    <row r="422" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F422" s="6"/>
-      <c r="H422" s="6"/>
-    </row>
-    <row r="423" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F423" s="6"/>
-      <c r="H423" s="6"/>
-    </row>
-    <row r="424" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F424" s="10"/>
-      <c r="G424" s="10"/>
-      <c r="H424" s="9"/>
-    </row>
-    <row r="425" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F425" s="6"/>
-      <c r="H425" s="6"/>
-    </row>
-    <row r="426" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F426" s="6"/>
-      <c r="H426" s="6"/>
-    </row>
-    <row r="427" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F427" s="6"/>
-      <c r="H427" s="6"/>
-    </row>
-    <row r="428" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F428" s="6"/>
-      <c r="H428" s="6"/>
-    </row>
-    <row r="429" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F429" s="6"/>
-      <c r="H429" s="6"/>
-    </row>
-    <row r="430" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F430" s="6"/>
-      <c r="H430" s="6"/>
-    </row>
-    <row r="431" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F431" s="6"/>
-      <c r="H431" s="6"/>
-    </row>
-    <row r="432" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F432" s="6"/>
-      <c r="H432" s="6"/>
-    </row>
-    <row r="433" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F433" s="6"/>
-      <c r="H433" s="6"/>
-    </row>
-    <row r="434" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F434" s="6"/>
-      <c r="H434" s="6"/>
-    </row>
-    <row r="435" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F435" s="6"/>
-      <c r="H435" s="6"/>
-    </row>
-    <row r="436" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F436" s="6"/>
-      <c r="H436" s="6"/>
-    </row>
-    <row r="437" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F437" s="6"/>
-      <c r="H437" s="6"/>
-    </row>
-    <row r="438" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F438" s="6"/>
-      <c r="H438" s="6"/>
-    </row>
-    <row r="439" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F439" s="6"/>
-      <c r="H439" s="6"/>
-    </row>
-    <row r="440" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F440" s="6"/>
-      <c r="H440" s="6"/>
-    </row>
-    <row r="441" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F441" s="6"/>
-      <c r="H441" s="6"/>
-    </row>
-    <row r="442" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F442" s="6"/>
-      <c r="H442" s="6"/>
-    </row>
-    <row r="443" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F443" s="10"/>
-      <c r="G443" s="10"/>
-      <c r="H443" s="9"/>
-    </row>
-    <row r="444" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F444" s="6"/>
-      <c r="H444" s="6"/>
-    </row>
-    <row r="445" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F445" s="6"/>
-      <c r="H445" s="6"/>
-    </row>
-    <row r="446" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F446" s="6"/>
-      <c r="H446" s="6"/>
-    </row>
-    <row r="447" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F447" s="6"/>
-      <c r="H447" s="6"/>
-    </row>
-    <row r="448" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F448" s="6"/>
-      <c r="H448" s="6"/>
-    </row>
-    <row r="449" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F449" s="6"/>
-      <c r="H449" s="6"/>
-    </row>
-    <row r="450" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F450" s="6"/>
-      <c r="H450" s="6"/>
-    </row>
-    <row r="451" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F451" s="6"/>
-      <c r="H451" s="6"/>
-    </row>
-    <row r="452" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F452" s="6"/>
-      <c r="H452" s="6"/>
-    </row>
-    <row r="453" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F453" s="6"/>
-      <c r="H453" s="6"/>
-    </row>
-    <row r="454" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F454" s="6"/>
-      <c r="H454" s="6"/>
-    </row>
-    <row r="455" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F455" s="6"/>
-      <c r="H455" s="6"/>
-    </row>
-    <row r="456" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F456" s="6"/>
-      <c r="H456" s="6"/>
-    </row>
-    <row r="457" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F457" s="6"/>
-      <c r="H457" s="6"/>
-    </row>
-    <row r="458" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F458" s="6"/>
-      <c r="H458" s="6"/>
-    </row>
-    <row r="459" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F459" s="6"/>
-      <c r="H459" s="6"/>
-    </row>
-    <row r="460" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F460" s="6"/>
-      <c r="H460" s="6"/>
-    </row>
-    <row r="461" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F461" s="6"/>
-      <c r="H461" s="6"/>
-    </row>
-    <row r="462" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F462" s="10"/>
-      <c r="G462" s="10"/>
-      <c r="H462" s="9"/>
-    </row>
-    <row r="463" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F463" s="6"/>
-      <c r="H463" s="6"/>
-    </row>
-    <row r="464" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F464" s="6"/>
-      <c r="H464" s="6"/>
-    </row>
-    <row r="465" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F465" s="6"/>
-      <c r="H465" s="6"/>
-    </row>
-    <row r="466" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F466" s="6"/>
-      <c r="H466" s="6"/>
-    </row>
-    <row r="467" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F467" s="6"/>
-      <c r="H467" s="6"/>
-    </row>
-    <row r="468" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F468" s="6"/>
-      <c r="H468" s="6"/>
-    </row>
-    <row r="469" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F469" s="6"/>
-      <c r="H469" s="6"/>
-    </row>
-    <row r="470" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F470" s="6"/>
-      <c r="H470" s="6"/>
-    </row>
-    <row r="471" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F471" s="6"/>
-      <c r="H471" s="6"/>
-    </row>
-    <row r="472" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F472" s="6"/>
-      <c r="H472" s="6"/>
-    </row>
-    <row r="473" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F473" s="6"/>
-      <c r="H473" s="6"/>
-    </row>
-    <row r="474" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F474" s="6"/>
-      <c r="H474" s="6"/>
-    </row>
-    <row r="475" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F475" s="6"/>
-      <c r="H475" s="6"/>
-    </row>
-    <row r="476" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F476" s="6"/>
-      <c r="H476" s="6"/>
-    </row>
-    <row r="477" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F477" s="6"/>
-      <c r="H477" s="6"/>
-    </row>
-    <row r="478" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F478" s="6"/>
-      <c r="H478" s="6"/>
-    </row>
-    <row r="479" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F479" s="6"/>
-      <c r="H479" s="6"/>
-    </row>
-    <row r="480" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F480" s="6"/>
-      <c r="H480" s="6"/>
-    </row>
-    <row r="481" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F481" s="10"/>
-      <c r="G481" s="10"/>
-      <c r="H481" s="9"/>
-    </row>
-    <row r="482" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F482" s="6"/>
-      <c r="H482" s="6"/>
-    </row>
-    <row r="483" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F483" s="6"/>
-      <c r="H483" s="6"/>
-    </row>
-    <row r="484" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F484" s="6"/>
-      <c r="H484" s="6"/>
-    </row>
-    <row r="485" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F485" s="6"/>
-      <c r="H485" s="6"/>
-    </row>
-    <row r="486" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F486" s="6"/>
-      <c r="H486" s="6"/>
-    </row>
-    <row r="487" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F487" s="6"/>
-      <c r="H487" s="6"/>
-    </row>
-    <row r="488" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F488" s="6"/>
-      <c r="H488" s="6"/>
-    </row>
-    <row r="489" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F489" s="6"/>
-      <c r="H489" s="6"/>
-    </row>
-    <row r="490" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F490" s="6"/>
-      <c r="H490" s="6"/>
-    </row>
-    <row r="491" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F491" s="6"/>
-      <c r="H491" s="6"/>
-    </row>
-    <row r="492" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F492" s="6"/>
-      <c r="H492" s="6"/>
-    </row>
-    <row r="493" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F493" s="6"/>
-      <c r="H493" s="6"/>
-    </row>
-    <row r="494" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F494" s="6"/>
-      <c r="H494" s="6"/>
-    </row>
-    <row r="495" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F495" s="6"/>
-      <c r="H495" s="6"/>
-    </row>
-    <row r="496" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F496" s="6"/>
-      <c r="H496" s="6"/>
-    </row>
-    <row r="497" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F497" s="6"/>
-      <c r="H497" s="6"/>
-    </row>
-    <row r="498" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F498" s="6"/>
-      <c r="H498" s="6"/>
-    </row>
-    <row r="499" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F499" s="6"/>
-      <c r="H499" s="6"/>
-    </row>
-    <row r="500" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F500" s="10"/>
-      <c r="G500" s="10"/>
-      <c r="H500" s="9"/>
-    </row>
-    <row r="501" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F501" s="6"/>
-      <c r="H501" s="6"/>
-    </row>
-    <row r="502" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F502" s="6"/>
-      <c r="H502" s="6"/>
-    </row>
-    <row r="503" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F503" s="6"/>
-      <c r="H503" s="6"/>
-    </row>
-    <row r="504" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F504" s="6"/>
-      <c r="H504" s="6"/>
-    </row>
-    <row r="505" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F505" s="6"/>
-      <c r="H505" s="6"/>
-    </row>
-    <row r="506" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F506" s="6"/>
-      <c r="H506" s="6"/>
-    </row>
-    <row r="507" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F507" s="6"/>
-      <c r="H507" s="6"/>
-    </row>
-    <row r="508" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F508" s="6"/>
-      <c r="H508" s="6"/>
-    </row>
-    <row r="509" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F509" s="6"/>
-      <c r="H509" s="6"/>
-    </row>
-    <row r="510" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F510" s="6"/>
-      <c r="H510" s="6"/>
-    </row>
-    <row r="511" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F511" s="6"/>
-      <c r="H511" s="6"/>
-    </row>
-    <row r="512" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F512" s="6"/>
-      <c r="H512" s="6"/>
-    </row>
-    <row r="513" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F513" s="6"/>
-      <c r="H513" s="6"/>
-    </row>
-    <row r="514" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F514" s="6"/>
-      <c r="H514" s="6"/>
-    </row>
-    <row r="515" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F515" s="6"/>
-      <c r="H515" s="6"/>
-    </row>
-    <row r="516" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F516" s="6"/>
-      <c r="H516" s="6"/>
-    </row>
-    <row r="517" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F517" s="6"/>
-      <c r="H517" s="6"/>
-    </row>
-    <row r="518" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F518" s="6"/>
-      <c r="H518" s="6"/>
-    </row>
-    <row r="519" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F519" s="6"/>
-      <c r="H519" s="6"/>
-    </row>
-    <row r="520" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F520" s="6"/>
-      <c r="H520" s="6"/>
-    </row>
-    <row r="521" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F521" s="6"/>
-      <c r="H521" s="6"/>
-    </row>
-    <row r="522" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F522" s="10"/>
-      <c r="G522" s="10"/>
-      <c r="H522" s="9"/>
-    </row>
-    <row r="523" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F523" s="6"/>
-      <c r="H523" s="6"/>
-    </row>
-    <row r="524" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F524" s="6"/>
-      <c r="H524" s="6"/>
-    </row>
-    <row r="525" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F525" s="6"/>
-      <c r="H525" s="6"/>
-    </row>
-    <row r="526" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F526" s="6"/>
-      <c r="H526" s="6"/>
-    </row>
-    <row r="527" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F527" s="6"/>
-      <c r="H527" s="6"/>
-    </row>
-    <row r="528" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F528" s="6"/>
-      <c r="H528" s="6"/>
-    </row>
-    <row r="529" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F529" s="6"/>
-      <c r="H529" s="6"/>
-    </row>
-    <row r="530" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F530" s="6"/>
-      <c r="H530" s="6"/>
-    </row>
-    <row r="531" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F531" s="6"/>
-      <c r="H531" s="6"/>
-    </row>
-    <row r="532" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F532" s="6"/>
-      <c r="H532" s="6"/>
-    </row>
-    <row r="533" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F533" s="6"/>
-      <c r="H533" s="6"/>
-    </row>
-    <row r="534" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F534" s="6"/>
-      <c r="H534" s="6"/>
-    </row>
-    <row r="535" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F535" s="6"/>
-      <c r="H535" s="6"/>
-    </row>
-    <row r="536" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F536" s="6"/>
-      <c r="H536" s="6"/>
-    </row>
-    <row r="537" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F537" s="6"/>
-      <c r="H537" s="6"/>
-    </row>
-    <row r="538" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F538" s="6"/>
-      <c r="H538" s="6"/>
-    </row>
-    <row r="539" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F539" s="6"/>
-      <c r="H539" s="6"/>
-    </row>
-    <row r="540" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F540" s="6"/>
-      <c r="H540" s="6"/>
-    </row>
-    <row r="541" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F541" s="10"/>
-      <c r="G541" s="10"/>
-      <c r="H541" s="9"/>
-    </row>
-    <row r="542" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F542" s="6"/>
-      <c r="H542" s="6"/>
-    </row>
-    <row r="543" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F543" s="6"/>
-      <c r="H543" s="6"/>
-    </row>
-    <row r="544" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F544" s="6"/>
-      <c r="H544" s="6"/>
-    </row>
-    <row r="545" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F545" s="6"/>
-      <c r="H545" s="6"/>
-    </row>
-    <row r="546" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F546" s="6"/>
-      <c r="H546" s="6"/>
-    </row>
-    <row r="547" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F547" s="6"/>
-      <c r="H547" s="6"/>
-    </row>
-    <row r="548" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F548" s="6"/>
-      <c r="H548" s="6"/>
-    </row>
-    <row r="549" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F549" s="6"/>
-      <c r="H549" s="6"/>
-    </row>
-    <row r="550" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F550" s="6"/>
-      <c r="H550" s="6"/>
-    </row>
-    <row r="551" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F551" s="6"/>
-      <c r="H551" s="6"/>
-    </row>
-    <row r="552" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F552" s="6"/>
-      <c r="H552" s="6"/>
-    </row>
-    <row r="553" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F553" s="6"/>
-      <c r="H553" s="6"/>
-    </row>
-    <row r="554" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F554" s="6"/>
-      <c r="H554" s="6"/>
-    </row>
-    <row r="555" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F555" s="6"/>
-      <c r="H555" s="6"/>
-    </row>
-    <row r="556" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F556" s="6"/>
-      <c r="H556" s="6"/>
-    </row>
-    <row r="557" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F557" s="6"/>
-      <c r="H557" s="6"/>
-    </row>
-    <row r="558" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F558" s="6"/>
-      <c r="H558" s="6"/>
-    </row>
-    <row r="559" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F559" s="6"/>
-      <c r="H559" s="6"/>
-    </row>
-    <row r="560" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F560" s="10"/>
-      <c r="G560" s="10"/>
-      <c r="H560" s="9"/>
-    </row>
-    <row r="561" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F561" s="6"/>
-      <c r="H561" s="6"/>
-    </row>
-    <row r="562" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F562" s="6"/>
-      <c r="H562" s="6"/>
-    </row>
-    <row r="563" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F563" s="6"/>
-      <c r="H563" s="6"/>
-    </row>
-    <row r="564" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F564" s="6"/>
-      <c r="H564" s="6"/>
-    </row>
-    <row r="565" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F565" s="6"/>
-      <c r="H565" s="6"/>
-    </row>
-    <row r="566" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F566" s="6"/>
-      <c r="H566" s="6"/>
-    </row>
-    <row r="567" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F567" s="6"/>
-      <c r="H567" s="6"/>
-    </row>
-    <row r="568" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F568" s="6"/>
-      <c r="H568" s="6"/>
-    </row>
-    <row r="569" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F569" s="6"/>
-      <c r="H569" s="6"/>
-    </row>
-    <row r="570" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F570" s="6"/>
-      <c r="H570" s="6"/>
-    </row>
-    <row r="571" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F571" s="6"/>
-      <c r="H571" s="6"/>
-    </row>
-    <row r="572" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F572" s="6"/>
-      <c r="H572" s="6"/>
-    </row>
-    <row r="573" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F573" s="6"/>
-      <c r="H573" s="6"/>
-    </row>
-    <row r="574" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F574" s="6"/>
-      <c r="H574" s="6"/>
-    </row>
-    <row r="575" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F575" s="6"/>
-      <c r="H575" s="6"/>
-    </row>
-    <row r="576" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F576" s="6"/>
-      <c r="H576" s="6"/>
-    </row>
-    <row r="577" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F577" s="6"/>
-      <c r="H577" s="6"/>
-    </row>
-    <row r="578" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F578" s="6"/>
-      <c r="H578" s="6"/>
-    </row>
-    <row r="579" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F579" s="10"/>
-      <c r="G579" s="10"/>
-      <c r="H579" s="9"/>
-    </row>
-    <row r="580" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F580" s="6"/>
-      <c r="H580" s="6"/>
-    </row>
-    <row r="581" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F581" s="6"/>
-      <c r="H581" s="6"/>
-    </row>
-    <row r="582" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F582" s="6"/>
-      <c r="H582" s="6"/>
-    </row>
-    <row r="583" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F583" s="6"/>
-      <c r="H583" s="6"/>
-    </row>
-    <row r="584" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F584" s="6"/>
-      <c r="H584" s="6"/>
-    </row>
-    <row r="585" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F585" s="6"/>
-      <c r="H585" s="6"/>
-    </row>
-    <row r="586" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F586" s="6"/>
-      <c r="H586" s="6"/>
-    </row>
-    <row r="587" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F587" s="6"/>
-      <c r="H587" s="6"/>
-    </row>
-    <row r="588" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F588" s="6"/>
-      <c r="H588" s="6"/>
-    </row>
-    <row r="589" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F589" s="6"/>
-      <c r="H589" s="6"/>
-    </row>
-    <row r="590" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F590" s="6"/>
-      <c r="H590" s="6"/>
-    </row>
-    <row r="591" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F591" s="6"/>
-      <c r="H591" s="6"/>
-    </row>
-    <row r="592" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F592" s="6"/>
-      <c r="H592" s="6"/>
-    </row>
-    <row r="593" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F593" s="6"/>
-      <c r="H593" s="6"/>
-    </row>
-    <row r="594" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F594" s="6"/>
-      <c r="H594" s="6"/>
-    </row>
-    <row r="595" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F595" s="6"/>
-      <c r="H595" s="6"/>
-    </row>
-    <row r="596" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F596" s="6"/>
-      <c r="H596" s="6"/>
-    </row>
-    <row r="597" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F597" s="6"/>
-      <c r="H597" s="6"/>
-    </row>
-    <row r="598" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F598" s="10"/>
-      <c r="G598" s="10"/>
-      <c r="H598" s="9"/>
-    </row>
-    <row r="599" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F599" s="6"/>
-      <c r="H599" s="6"/>
-    </row>
-    <row r="600" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F600" s="6"/>
-      <c r="H600" s="6"/>
-    </row>
-    <row r="601" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F601" s="6"/>
-      <c r="H601" s="6"/>
-    </row>
-    <row r="602" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F602" s="6"/>
-      <c r="H602" s="6"/>
-    </row>
-    <row r="603" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F603" s="6"/>
-      <c r="H603" s="6"/>
-    </row>
-    <row r="604" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F604" s="6"/>
-      <c r="H604" s="6"/>
-    </row>
-    <row r="605" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F605" s="6"/>
-      <c r="H605" s="6"/>
-    </row>
-    <row r="606" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F606" s="6"/>
-      <c r="H606" s="6"/>
-    </row>
-    <row r="607" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F607" s="10"/>
-      <c r="G607" s="10"/>
-      <c r="H607" s="9"/>
-    </row>
-    <row r="608" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F608" s="6"/>
-      <c r="H608" s="6"/>
-    </row>
-    <row r="609" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F609" s="10"/>
-      <c r="G609" s="10"/>
-      <c r="H609" s="9"/>
-    </row>
-    <row r="610" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F610" s="6"/>
-      <c r="H610" s="6"/>
-    </row>
-    <row r="611" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F611" s="6"/>
-      <c r="H611" s="6"/>
-    </row>
-    <row r="612" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F612" s="10"/>
-      <c r="G612" s="10"/>
-      <c r="H612" s="9"/>
-    </row>
-    <row r="613" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F613" s="6"/>
-      <c r="H613" s="6"/>
-    </row>
-    <row r="614" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F614" s="10"/>
-      <c r="G614" s="10"/>
-      <c r="H614" s="9"/>
-    </row>
-    <row r="615" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F615" s="6"/>
-      <c r="H615" s="6"/>
-    </row>
-    <row r="616" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F616" s="6"/>
-      <c r="H616" s="6"/>
-    </row>
-    <row r="617" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F617" s="6"/>
-      <c r="H617" s="6"/>
-    </row>
-    <row r="618" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F618" s="6"/>
-      <c r="H618" s="6"/>
-    </row>
-    <row r="619" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F619" s="6"/>
-      <c r="H619" s="6"/>
-    </row>
-    <row r="620" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F620" s="6"/>
-      <c r="H620" s="6"/>
-    </row>
-    <row r="621" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F621" s="6"/>
-      <c r="H621" s="6"/>
-    </row>
-    <row r="622" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F622" s="6"/>
-      <c r="H622" s="6"/>
-    </row>
-    <row r="623" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F623" s="6"/>
-      <c r="H623" s="6"/>
-    </row>
-    <row r="624" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F624" s="6"/>
-      <c r="H624" s="6"/>
-    </row>
-    <row r="625" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F625" s="6"/>
-      <c r="H625" s="6"/>
-    </row>
-    <row r="626" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F626" s="6"/>
-      <c r="H626" s="6"/>
-    </row>
-    <row r="627" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F627" s="6"/>
-      <c r="H627" s="6"/>
-    </row>
-    <row r="628" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F628" s="6"/>
-      <c r="H628" s="6"/>
-    </row>
-    <row r="629" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F629" s="6"/>
-      <c r="H629" s="6"/>
-    </row>
-    <row r="630" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F630" s="6"/>
-      <c r="H630" s="6"/>
-    </row>
-    <row r="631" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F631" s="6"/>
-      <c r="H631" s="6"/>
-    </row>
-    <row r="632" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F632" s="6"/>
-      <c r="H632" s="6"/>
-    </row>
-    <row r="633" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F633" s="6"/>
-      <c r="H633" s="6"/>
-    </row>
-    <row r="634" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F634" s="10"/>
-      <c r="G634" s="10"/>
-      <c r="H634" s="9"/>
-    </row>
-    <row r="635" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F635" s="6"/>
-      <c r="H635" s="6"/>
-    </row>
-    <row r="636" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F636" s="6"/>
-      <c r="H636" s="6"/>
-    </row>
-    <row r="637" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F637" s="6"/>
-      <c r="H637" s="6"/>
-    </row>
-    <row r="638" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F638" s="6"/>
-      <c r="H638" s="6"/>
-    </row>
-    <row r="639" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F639" s="6"/>
-      <c r="H639" s="6"/>
-    </row>
-    <row r="640" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F640" s="6"/>
-      <c r="H640" s="6"/>
-    </row>
-    <row r="641" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F641" s="6"/>
-      <c r="H641" s="6"/>
-    </row>
-    <row r="642" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F642" s="6"/>
-      <c r="H642" s="6"/>
-    </row>
-    <row r="643" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F643" s="6"/>
-      <c r="H643" s="6"/>
-    </row>
-    <row r="644" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F644" s="10"/>
-      <c r="G644" s="10"/>
-      <c r="H644" s="9"/>
-    </row>
-    <row r="645" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F645" s="6"/>
-      <c r="H645" s="6"/>
-    </row>
-    <row r="646" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F646" s="6"/>
-      <c r="H646" s="6"/>
-    </row>
-    <row r="647" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F647" s="6"/>
-      <c r="H647" s="6"/>
-    </row>
-    <row r="648" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F648" s="6"/>
-      <c r="H648" s="6"/>
-    </row>
-    <row r="649" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F649" s="6"/>
-      <c r="H649" s="6"/>
-    </row>
-    <row r="650" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F650" s="6"/>
-      <c r="H650" s="6"/>
-    </row>
-    <row r="651" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F651" s="6"/>
-      <c r="H651" s="6"/>
-    </row>
-    <row r="652" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F652" s="6"/>
-      <c r="H652" s="6"/>
-    </row>
-    <row r="653" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F653" s="6"/>
-      <c r="H653" s="6"/>
-    </row>
-    <row r="654" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F654" s="6"/>
-      <c r="H654" s="6"/>
-    </row>
-    <row r="655" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F655" s="6"/>
-      <c r="H655" s="6"/>
-    </row>
-    <row r="656" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F656" s="6"/>
-      <c r="H656" s="6"/>
-    </row>
-    <row r="657" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F657" s="6"/>
-      <c r="H657" s="6"/>
-    </row>
-    <row r="658" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F658" s="6"/>
-      <c r="H658" s="6"/>
-    </row>
-    <row r="659" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F659" s="6"/>
-      <c r="H659" s="6"/>
-    </row>
-    <row r="660" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F660" s="10"/>
-      <c r="G660" s="10"/>
-      <c r="H660" s="9"/>
-    </row>
-    <row r="661" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F661" s="6"/>
-      <c r="H661" s="6"/>
-    </row>
-    <row r="662" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F662" s="6"/>
-      <c r="H662" s="6"/>
-    </row>
-    <row r="663" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F663" s="6"/>
-      <c r="H663" s="6"/>
-    </row>
-    <row r="664" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F664" s="6"/>
-      <c r="H664" s="6"/>
-    </row>
-    <row r="665" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F665" s="6"/>
-      <c r="H665" s="6"/>
-    </row>
-    <row r="666" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F666" s="10"/>
-      <c r="G666" s="10"/>
-      <c r="H666" s="9"/>
-    </row>
-    <row r="667" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F667" s="6"/>
-      <c r="H667" s="6"/>
-    </row>
-    <row r="668" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F668" s="10"/>
-      <c r="G668" s="10"/>
-      <c r="H668" s="9"/>
-    </row>
-    <row r="669" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F669" s="6"/>
-      <c r="H669" s="6"/>
-    </row>
-    <row r="670" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F670" s="10"/>
-      <c r="G670" s="10"/>
-      <c r="H670" s="9"/>
-    </row>
-    <row r="671" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F671" s="6"/>
-      <c r="H671" s="6"/>
-    </row>
-    <row r="672" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F672" s="10"/>
-      <c r="G672" s="10"/>
-      <c r="H672" s="9"/>
-    </row>
-    <row r="673" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F673" s="6"/>
-      <c r="H673" s="6"/>
-    </row>
-    <row r="674" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F674" s="10"/>
-      <c r="G674" s="10"/>
-      <c r="H674" s="9"/>
-    </row>
-    <row r="675" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F675" s="6"/>
-      <c r="H675" s="6"/>
-    </row>
-    <row r="676" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F676" s="10"/>
-      <c r="G676" s="10"/>
-      <c r="H676" s="9"/>
-    </row>
-    <row r="677" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F677" s="6"/>
-      <c r="H677" s="6"/>
-    </row>
-    <row r="678" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F678" s="10"/>
-      <c r="G678" s="10"/>
-      <c r="H678" s="9"/>
-    </row>
-    <row r="679" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F679" s="6"/>
-      <c r="H679" s="6"/>
-    </row>
-    <row r="680" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F680" s="10"/>
-      <c r="G680" s="10"/>
-      <c r="H680" s="9"/>
-    </row>
-    <row r="681" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F681" s="6"/>
-      <c r="H681" s="6"/>
-    </row>
-    <row r="682" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F682" s="10"/>
-      <c r="G682" s="10"/>
-      <c r="H682" s="9"/>
-    </row>
-    <row r="683" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F683" s="6"/>
-      <c r="H683" s="6"/>
-    </row>
-    <row r="684" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F684" s="10"/>
-      <c r="G684" s="10"/>
-      <c r="H684" s="9"/>
-    </row>
-    <row r="685" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F685" s="6"/>
-      <c r="H685" s="6"/>
-    </row>
-    <row r="686" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F686" s="10"/>
-      <c r="G686" s="10"/>
-      <c r="H686" s="9"/>
-    </row>
-    <row r="687" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F687" s="6"/>
-      <c r="H687" s="6"/>
-    </row>
-    <row r="688" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F688" s="10"/>
-      <c r="G688" s="10"/>
-      <c r="H688" s="9"/>
-    </row>
-    <row r="689" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F689" s="6"/>
-      <c r="H689" s="6"/>
-    </row>
-    <row r="690" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F690" s="10"/>
-      <c r="G690" s="10"/>
-      <c r="H690" s="9"/>
-    </row>
-    <row r="691" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F691" s="6"/>
-      <c r="H691" s="6"/>
-    </row>
-    <row r="692" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F692" s="10"/>
-      <c r="G692" s="10"/>
-      <c r="H692" s="9"/>
-    </row>
-    <row r="693" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F693" s="6"/>
-      <c r="H693" s="6"/>
-    </row>
-    <row r="694" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F694" s="10"/>
-      <c r="G694" s="10"/>
-      <c r="H694" s="9"/>
-    </row>
-    <row r="695" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F695" s="6"/>
-      <c r="H695" s="6"/>
-    </row>
-    <row r="696" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F696" s="6"/>
-      <c r="H696" s="6"/>
-    </row>
-    <row r="697" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F697" s="6"/>
-      <c r="H697" s="6"/>
-    </row>
-    <row r="698" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F698" s="6"/>
-      <c r="H698" s="6"/>
-    </row>
-    <row r="699" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F699" s="6"/>
-      <c r="H699" s="6"/>
-    </row>
-    <row r="700" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F700" s="6"/>
-      <c r="H700" s="6"/>
-    </row>
-    <row r="701" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F701" s="6"/>
-      <c r="H701" s="6"/>
-    </row>
-    <row r="702" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F702" s="10"/>
-      <c r="G702" s="10"/>
-      <c r="H702" s="9"/>
-    </row>
-    <row r="703" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F703" s="6"/>
-      <c r="H703" s="6"/>
-    </row>
-    <row r="704" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F704" s="10"/>
-      <c r="G704" s="10"/>
-      <c r="H704" s="9"/>
-    </row>
-    <row r="705" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F705" s="6"/>
-      <c r="H705" s="6"/>
-    </row>
-    <row r="706" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F706" s="6"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="14">
+        <f>SUM(L7,L10,L12,L13,L18,L21,L23,L24,L25)</f>
+        <v>-1.0000000000000284</v>
+      </c>
+      <c r="M26" s="18"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H27" s="15"/>
+      <c r="I27" s="16">
+        <f>SUM(I23:I25,I21,I18,I7)</f>
+        <v>163.5</v>
+      </c>
+      <c r="J27" s="16">
+        <f>SUM(J23:J25,J21,J18,J7)</f>
+        <v>164.50000000000003</v>
+      </c>
+      <c r="K27" s="24">
+        <f>SUM(K7,K10,K12,K13,K18,K21,K23,K24,K25)</f>
+        <v>-6.7000000000014381E-2</v>
+      </c>
+      <c r="L27" s="17">
+        <f>I27-J27-K27</f>
+        <v>-0.93300000000001404</v>
+      </c>
+      <c r="M27" s="18"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="9"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O28" s="6"/>
+      <c r="Q28" s="6"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E29" s="5">
+        <f>4.319+1.968</f>
+        <v>6.2869999999999999</v>
+      </c>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="9"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O30" s="6"/>
+      <c r="Q30" s="6"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="9"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O32" s="6"/>
+      <c r="Q32" s="6"/>
+    </row>
+    <row r="33" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O33" s="11"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="9"/>
+    </row>
+    <row r="34" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O34" s="6"/>
+      <c r="Q34" s="6"/>
+    </row>
+    <row r="35" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O35" s="11"/>
+      <c r="P35" s="11"/>
+      <c r="Q35" s="9"/>
+    </row>
+    <row r="36" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O36" s="6"/>
+      <c r="Q36" s="6"/>
+    </row>
+    <row r="37" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O37" s="6"/>
+      <c r="Q37" s="6"/>
+    </row>
+    <row r="38" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O38" s="6"/>
+      <c r="Q38" s="6"/>
+    </row>
+    <row r="39" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O39" s="6"/>
+      <c r="Q39" s="6"/>
+    </row>
+    <row r="40" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O40" s="6"/>
+      <c r="Q40" s="6"/>
+    </row>
+    <row r="41" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O41" s="6"/>
+      <c r="Q41" s="6"/>
+    </row>
+    <row r="42" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O42" s="6"/>
+      <c r="Q42" s="6"/>
+    </row>
+    <row r="43" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O43" s="6"/>
+      <c r="Q43" s="6"/>
+    </row>
+    <row r="44" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O44" s="6"/>
+      <c r="Q44" s="6"/>
+    </row>
+    <row r="45" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O45" s="6"/>
+      <c r="Q45" s="6"/>
+    </row>
+    <row r="46" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O46" s="6"/>
+      <c r="Q46" s="6"/>
+    </row>
+    <row r="47" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O47" s="6"/>
+      <c r="Q47" s="6"/>
+    </row>
+    <row r="48" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O48" s="6"/>
+      <c r="Q48" s="6"/>
+    </row>
+    <row r="49" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O49" s="6"/>
+      <c r="Q49" s="6"/>
+    </row>
+    <row r="50" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O50" s="6"/>
+      <c r="Q50" s="6"/>
+    </row>
+    <row r="51" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O51" s="6"/>
+      <c r="Q51" s="6"/>
+    </row>
+    <row r="52" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O52" s="6"/>
+      <c r="Q52" s="6"/>
+    </row>
+    <row r="53" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O53" s="6"/>
+      <c r="Q53" s="6"/>
+    </row>
+    <row r="54" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O54" s="6"/>
+      <c r="Q54" s="6"/>
+    </row>
+    <row r="55" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O55" s="6"/>
+      <c r="Q55" s="6"/>
+    </row>
+    <row r="56" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O56" s="6"/>
+      <c r="Q56" s="6"/>
+    </row>
+    <row r="57" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O57" s="11"/>
+      <c r="P57" s="11"/>
+      <c r="Q57" s="9"/>
+    </row>
+    <row r="58" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O58" s="6"/>
+      <c r="Q58" s="6"/>
+    </row>
+    <row r="59" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O59" s="6"/>
+      <c r="Q59" s="6"/>
+    </row>
+    <row r="60" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O60" s="6"/>
+      <c r="Q60" s="6"/>
+    </row>
+    <row r="61" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O61" s="6"/>
+      <c r="Q61" s="6"/>
+    </row>
+    <row r="62" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O62" s="6"/>
+      <c r="Q62" s="6"/>
+    </row>
+    <row r="63" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O63" s="6"/>
+      <c r="Q63" s="6"/>
+    </row>
+    <row r="64" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O64" s="6"/>
+      <c r="Q64" s="6"/>
+    </row>
+    <row r="65" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O65" s="6"/>
+      <c r="Q65" s="6"/>
+    </row>
+    <row r="66" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O66" s="6"/>
+      <c r="Q66" s="6"/>
+    </row>
+    <row r="67" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O67" s="6"/>
+      <c r="Q67" s="6"/>
+    </row>
+    <row r="68" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O68" s="6"/>
+      <c r="Q68" s="6"/>
+    </row>
+    <row r="69" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O69" s="6"/>
+      <c r="Q69" s="6"/>
+    </row>
+    <row r="70" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O70" s="6"/>
+      <c r="Q70" s="6"/>
+    </row>
+    <row r="71" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O71" s="6"/>
+      <c r="Q71" s="6"/>
+    </row>
+    <row r="72" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O72" s="6"/>
+      <c r="Q72" s="6"/>
+    </row>
+    <row r="73" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O73" s="6"/>
+      <c r="Q73" s="6"/>
+    </row>
+    <row r="74" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O74" s="6"/>
+      <c r="Q74" s="6"/>
+    </row>
+    <row r="75" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O75" s="6"/>
+      <c r="Q75" s="6"/>
+    </row>
+    <row r="76" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O76" s="6"/>
+      <c r="Q76" s="6"/>
+    </row>
+    <row r="77" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O77" s="6"/>
+      <c r="Q77" s="6"/>
+    </row>
+    <row r="78" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O78" s="6"/>
+      <c r="Q78" s="6"/>
+    </row>
+    <row r="79" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O79" s="11"/>
+      <c r="P79" s="11"/>
+      <c r="Q79" s="9"/>
+    </row>
+    <row r="80" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O80" s="6"/>
+      <c r="Q80" s="6"/>
+    </row>
+    <row r="81" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O81" s="6"/>
+      <c r="Q81" s="6"/>
+    </row>
+    <row r="82" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O82" s="6"/>
+      <c r="Q82" s="6"/>
+    </row>
+    <row r="83" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O83" s="6"/>
+      <c r="Q83" s="6"/>
+    </row>
+    <row r="84" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O84" s="6"/>
+      <c r="Q84" s="6"/>
+    </row>
+    <row r="85" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O85" s="6"/>
+      <c r="Q85" s="6"/>
+    </row>
+    <row r="86" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O86" s="6"/>
+      <c r="Q86" s="6"/>
+    </row>
+    <row r="87" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O87" s="6"/>
+      <c r="Q87" s="6"/>
+    </row>
+    <row r="88" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O88" s="6"/>
+      <c r="Q88" s="6"/>
+    </row>
+    <row r="89" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O89" s="6"/>
+      <c r="Q89" s="6"/>
+    </row>
+    <row r="90" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O90" s="6"/>
+      <c r="Q90" s="6"/>
+    </row>
+    <row r="91" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O91" s="6"/>
+      <c r="Q91" s="6"/>
+    </row>
+    <row r="92" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O92" s="6"/>
+      <c r="Q92" s="6"/>
+    </row>
+    <row r="93" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O93" s="6"/>
+      <c r="Q93" s="6"/>
+    </row>
+    <row r="94" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O94" s="6"/>
+      <c r="Q94" s="6"/>
+    </row>
+    <row r="95" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O95" s="6"/>
+      <c r="Q95" s="6"/>
+    </row>
+    <row r="96" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O96" s="6"/>
+      <c r="Q96" s="6"/>
+    </row>
+    <row r="97" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O97" s="6"/>
+      <c r="Q97" s="6"/>
+    </row>
+    <row r="98" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O98" s="6"/>
+      <c r="Q98" s="6"/>
+    </row>
+    <row r="99" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O99" s="6"/>
+      <c r="Q99" s="6"/>
+    </row>
+    <row r="100" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O100" s="6"/>
+      <c r="Q100" s="6"/>
+    </row>
+    <row r="101" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O101" s="11"/>
+      <c r="P101" s="11"/>
+      <c r="Q101" s="9"/>
+    </row>
+    <row r="102" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O102" s="6"/>
+      <c r="Q102" s="6"/>
+    </row>
+    <row r="103" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O103" s="6"/>
+      <c r="Q103" s="6"/>
+    </row>
+    <row r="104" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O104" s="6"/>
+      <c r="Q104" s="6"/>
+    </row>
+    <row r="105" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O105" s="6"/>
+      <c r="Q105" s="6"/>
+    </row>
+    <row r="106" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O106" s="6"/>
+      <c r="Q106" s="6"/>
+    </row>
+    <row r="107" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O107" s="6"/>
+      <c r="Q107" s="6"/>
+    </row>
+    <row r="108" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O108" s="6"/>
+      <c r="Q108" s="6"/>
+    </row>
+    <row r="109" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O109" s="6"/>
+      <c r="Q109" s="6"/>
+    </row>
+    <row r="110" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O110" s="6"/>
+      <c r="Q110" s="6"/>
+    </row>
+    <row r="111" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O111" s="6"/>
+      <c r="Q111" s="6"/>
+    </row>
+    <row r="112" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O112" s="6"/>
+      <c r="Q112" s="6"/>
+    </row>
+    <row r="113" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O113" s="11"/>
+      <c r="P113" s="11"/>
+      <c r="Q113" s="9"/>
+    </row>
+    <row r="114" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O114" s="6"/>
+      <c r="Q114" s="6"/>
+    </row>
+    <row r="115" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O115" s="6"/>
+      <c r="Q115" s="6"/>
+    </row>
+    <row r="116" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O116" s="6"/>
+      <c r="Q116" s="6"/>
+    </row>
+    <row r="117" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O117" s="6"/>
+      <c r="Q117" s="6"/>
+    </row>
+    <row r="118" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O118" s="6"/>
+      <c r="Q118" s="6"/>
+    </row>
+    <row r="119" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O119" s="6"/>
+      <c r="Q119" s="6"/>
+    </row>
+    <row r="120" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O120" s="6"/>
+      <c r="Q120" s="6"/>
+    </row>
+    <row r="121" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O121" s="6"/>
+      <c r="Q121" s="6"/>
+    </row>
+    <row r="122" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O122" s="6"/>
+      <c r="Q122" s="6"/>
+    </row>
+    <row r="123" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O123" s="6"/>
+      <c r="Q123" s="6"/>
+    </row>
+    <row r="124" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O124" s="6"/>
+      <c r="Q124" s="6"/>
+    </row>
+    <row r="125" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O125" s="11"/>
+      <c r="P125" s="11"/>
+      <c r="Q125" s="9"/>
+    </row>
+    <row r="126" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O126" s="6"/>
+      <c r="Q126" s="6"/>
+    </row>
+    <row r="127" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O127" s="11"/>
+      <c r="P127" s="11"/>
+      <c r="Q127" s="9"/>
+    </row>
+    <row r="128" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O128" s="6"/>
+      <c r="Q128" s="6"/>
+    </row>
+    <row r="129" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O129" s="6"/>
+      <c r="Q129" s="6"/>
+    </row>
+    <row r="130" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O130" s="6"/>
+      <c r="Q130" s="6"/>
+    </row>
+    <row r="131" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O131" s="6"/>
+      <c r="Q131" s="6"/>
+    </row>
+    <row r="132" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O132" s="6"/>
+      <c r="Q132" s="6"/>
+    </row>
+    <row r="133" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O133" s="6"/>
+      <c r="Q133" s="6"/>
+    </row>
+    <row r="134" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O134" s="6"/>
+      <c r="Q134" s="6"/>
+    </row>
+    <row r="135" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O135" s="11"/>
+      <c r="P135" s="11"/>
+      <c r="Q135" s="9"/>
+    </row>
+    <row r="136" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O136" s="6"/>
+      <c r="Q136" s="6"/>
+    </row>
+    <row r="137" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O137" s="6"/>
+      <c r="Q137" s="6"/>
+    </row>
+    <row r="138" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O138" s="6"/>
+      <c r="Q138" s="6"/>
+    </row>
+    <row r="139" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O139" s="6"/>
+      <c r="Q139" s="6"/>
+    </row>
+    <row r="140" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O140" s="6"/>
+      <c r="Q140" s="6"/>
+    </row>
+    <row r="141" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O141" s="6"/>
+      <c r="Q141" s="6"/>
+    </row>
+    <row r="142" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O142" s="6"/>
+      <c r="Q142" s="6"/>
+    </row>
+    <row r="143" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O143" s="6"/>
+      <c r="Q143" s="6"/>
+    </row>
+    <row r="144" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O144" s="6"/>
+      <c r="Q144" s="6"/>
+    </row>
+    <row r="145" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O145" s="6"/>
+      <c r="Q145" s="6"/>
+    </row>
+    <row r="146" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O146" s="6"/>
+      <c r="Q146" s="6"/>
+    </row>
+    <row r="147" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O147" s="11"/>
+      <c r="P147" s="11"/>
+      <c r="Q147" s="9"/>
+    </row>
+    <row r="148" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O148" s="6"/>
+      <c r="Q148" s="6"/>
+    </row>
+    <row r="149" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O149" s="6"/>
+      <c r="Q149" s="6"/>
+    </row>
+    <row r="150" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O150" s="6"/>
+      <c r="Q150" s="6"/>
+    </row>
+    <row r="151" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O151" s="6"/>
+      <c r="Q151" s="6"/>
+    </row>
+    <row r="152" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O152" s="6"/>
+      <c r="Q152" s="6"/>
+    </row>
+    <row r="153" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O153" s="6"/>
+      <c r="Q153" s="6"/>
+    </row>
+    <row r="154" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O154" s="6"/>
+      <c r="Q154" s="6"/>
+    </row>
+    <row r="155" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O155" s="6"/>
+      <c r="Q155" s="6"/>
+    </row>
+    <row r="156" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O156" s="6"/>
+      <c r="Q156" s="6"/>
+    </row>
+    <row r="157" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O157" s="6"/>
+      <c r="Q157" s="6"/>
+    </row>
+    <row r="158" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O158" s="6"/>
+      <c r="Q158" s="6"/>
+    </row>
+    <row r="159" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O159" s="11"/>
+      <c r="P159" s="11"/>
+      <c r="Q159" s="9"/>
+    </row>
+    <row r="160" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O160" s="6"/>
+      <c r="Q160" s="6"/>
+    </row>
+    <row r="161" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O161" s="6"/>
+      <c r="Q161" s="6"/>
+    </row>
+    <row r="162" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O162" s="6"/>
+      <c r="Q162" s="6"/>
+    </row>
+    <row r="163" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O163" s="6"/>
+      <c r="Q163" s="6"/>
+    </row>
+    <row r="164" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O164" s="6"/>
+      <c r="Q164" s="6"/>
+    </row>
+    <row r="165" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O165" s="6"/>
+      <c r="Q165" s="6"/>
+    </row>
+    <row r="166" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O166" s="6"/>
+      <c r="Q166" s="6"/>
+    </row>
+    <row r="167" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O167" s="6"/>
+      <c r="Q167" s="6"/>
+    </row>
+    <row r="168" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O168" s="6"/>
+      <c r="Q168" s="6"/>
+    </row>
+    <row r="169" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O169" s="6"/>
+      <c r="Q169" s="6"/>
+    </row>
+    <row r="170" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O170" s="6"/>
+      <c r="Q170" s="6"/>
+    </row>
+    <row r="171" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O171" s="6"/>
+      <c r="Q171" s="6"/>
+    </row>
+    <row r="172" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O172" s="11"/>
+      <c r="P172" s="11"/>
+      <c r="Q172" s="9"/>
+    </row>
+    <row r="173" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O173" s="6"/>
+      <c r="Q173" s="6"/>
+    </row>
+    <row r="174" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O174" s="6"/>
+      <c r="Q174" s="6"/>
+    </row>
+    <row r="175" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O175" s="6"/>
+      <c r="Q175" s="6"/>
+    </row>
+    <row r="176" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O176" s="6"/>
+      <c r="Q176" s="6"/>
+    </row>
+    <row r="177" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O177" s="6"/>
+      <c r="Q177" s="6"/>
+    </row>
+    <row r="178" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O178" s="6"/>
+      <c r="Q178" s="6"/>
+    </row>
+    <row r="179" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O179" s="6"/>
+      <c r="Q179" s="6"/>
+    </row>
+    <row r="180" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O180" s="6"/>
+      <c r="Q180" s="6"/>
+    </row>
+    <row r="181" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O181" s="6"/>
+      <c r="Q181" s="6"/>
+    </row>
+    <row r="182" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O182" s="6"/>
+      <c r="Q182" s="6"/>
+    </row>
+    <row r="183" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O183" s="6"/>
+      <c r="Q183" s="6"/>
+    </row>
+    <row r="184" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O184" s="11"/>
+      <c r="P184" s="11"/>
+      <c r="Q184" s="9"/>
+    </row>
+    <row r="185" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O185" s="6"/>
+      <c r="Q185" s="6"/>
+    </row>
+    <row r="186" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O186" s="6"/>
+      <c r="Q186" s="6"/>
+    </row>
+    <row r="187" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O187" s="6"/>
+      <c r="Q187" s="6"/>
+    </row>
+    <row r="188" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O188" s="6"/>
+      <c r="Q188" s="6"/>
+    </row>
+    <row r="189" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O189" s="6"/>
+      <c r="Q189" s="6"/>
+    </row>
+    <row r="190" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O190" s="6"/>
+      <c r="Q190" s="6"/>
+    </row>
+    <row r="191" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O191" s="6"/>
+      <c r="Q191" s="6"/>
+    </row>
+    <row r="192" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O192" s="6"/>
+      <c r="Q192" s="6"/>
+    </row>
+    <row r="193" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O193" s="6"/>
+      <c r="Q193" s="6"/>
+    </row>
+    <row r="194" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O194" s="6"/>
+      <c r="Q194" s="6"/>
+    </row>
+    <row r="195" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O195" s="6"/>
+      <c r="Q195" s="6"/>
+    </row>
+    <row r="196" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O196" s="11"/>
+      <c r="P196" s="11"/>
+      <c r="Q196" s="9"/>
+    </row>
+    <row r="197" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O197" s="6"/>
+      <c r="Q197" s="6"/>
+    </row>
+    <row r="198" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O198" s="6"/>
+      <c r="Q198" s="6"/>
+    </row>
+    <row r="199" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O199" s="6"/>
+      <c r="Q199" s="6"/>
+    </row>
+    <row r="200" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O200" s="6"/>
+      <c r="Q200" s="6"/>
+    </row>
+    <row r="201" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O201" s="6"/>
+      <c r="Q201" s="6"/>
+    </row>
+    <row r="202" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O202" s="6"/>
+      <c r="Q202" s="6"/>
+    </row>
+    <row r="203" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O203" s="6"/>
+      <c r="Q203" s="6"/>
+    </row>
+    <row r="204" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O204" s="6"/>
+      <c r="Q204" s="6"/>
+    </row>
+    <row r="205" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O205" s="6"/>
+      <c r="Q205" s="6"/>
+    </row>
+    <row r="206" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O206" s="6"/>
+      <c r="Q206" s="6"/>
+    </row>
+    <row r="207" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O207" s="6"/>
+      <c r="Q207" s="6"/>
+    </row>
+    <row r="208" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O208" s="11"/>
+      <c r="P208" s="11"/>
+      <c r="Q208" s="9"/>
+    </row>
+    <row r="209" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O209" s="6"/>
+      <c r="Q209" s="6"/>
+    </row>
+    <row r="210" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O210" s="6"/>
+      <c r="Q210" s="6"/>
+    </row>
+    <row r="211" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O211" s="6"/>
+      <c r="Q211" s="6"/>
+    </row>
+    <row r="212" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O212" s="6"/>
+      <c r="Q212" s="6"/>
+    </row>
+    <row r="213" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O213" s="6"/>
+      <c r="Q213" s="6"/>
+    </row>
+    <row r="214" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O214" s="6"/>
+      <c r="Q214" s="6"/>
+    </row>
+    <row r="215" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O215" s="6"/>
+      <c r="Q215" s="6"/>
+    </row>
+    <row r="216" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O216" s="6"/>
+      <c r="Q216" s="6"/>
+    </row>
+    <row r="217" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O217" s="6"/>
+      <c r="Q217" s="6"/>
+    </row>
+    <row r="218" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O218" s="6"/>
+      <c r="Q218" s="6"/>
+    </row>
+    <row r="219" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O219" s="6"/>
+      <c r="Q219" s="6"/>
+    </row>
+    <row r="220" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O220" s="11"/>
+      <c r="P220" s="11"/>
+      <c r="Q220" s="9"/>
+    </row>
+    <row r="221" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O221" s="6"/>
+      <c r="Q221" s="6"/>
+    </row>
+    <row r="222" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O222" s="6"/>
+      <c r="Q222" s="6"/>
+    </row>
+    <row r="223" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O223" s="6"/>
+      <c r="Q223" s="6"/>
+    </row>
+    <row r="224" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O224" s="6"/>
+      <c r="Q224" s="6"/>
+    </row>
+    <row r="225" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O225" s="6"/>
+      <c r="Q225" s="6"/>
+    </row>
+    <row r="226" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O226" s="6"/>
+      <c r="Q226" s="6"/>
+    </row>
+    <row r="227" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O227" s="6"/>
+      <c r="Q227" s="6"/>
+    </row>
+    <row r="228" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O228" s="6"/>
+      <c r="Q228" s="6"/>
+    </row>
+    <row r="229" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O229" s="6"/>
+      <c r="Q229" s="6"/>
+    </row>
+    <row r="230" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O230" s="6"/>
+      <c r="Q230" s="6"/>
+    </row>
+    <row r="231" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O231" s="6"/>
+      <c r="Q231" s="6"/>
+    </row>
+    <row r="232" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O232" s="11"/>
+      <c r="P232" s="11"/>
+      <c r="Q232" s="9"/>
+    </row>
+    <row r="233" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O233" s="6"/>
+      <c r="Q233" s="6"/>
+    </row>
+    <row r="234" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O234" s="6"/>
+      <c r="Q234" s="6"/>
+    </row>
+    <row r="235" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O235" s="6"/>
+      <c r="Q235" s="6"/>
+    </row>
+    <row r="236" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O236" s="6"/>
+      <c r="Q236" s="6"/>
+    </row>
+    <row r="237" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O237" s="6"/>
+      <c r="Q237" s="6"/>
+    </row>
+    <row r="238" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O238" s="6"/>
+      <c r="Q238" s="6"/>
+    </row>
+    <row r="239" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O239" s="6"/>
+      <c r="Q239" s="6"/>
+    </row>
+    <row r="240" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O240" s="6"/>
+      <c r="Q240" s="6"/>
+    </row>
+    <row r="241" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O241" s="6"/>
+      <c r="Q241" s="6"/>
+    </row>
+    <row r="242" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O242" s="6"/>
+      <c r="Q242" s="6"/>
+    </row>
+    <row r="243" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O243" s="6"/>
+      <c r="Q243" s="6"/>
+    </row>
+    <row r="244" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O244" s="11"/>
+      <c r="P244" s="11"/>
+      <c r="Q244" s="9"/>
+    </row>
+    <row r="245" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O245" s="6"/>
+      <c r="Q245" s="6"/>
+    </row>
+    <row r="246" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O246" s="6"/>
+      <c r="Q246" s="6"/>
+    </row>
+    <row r="247" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O247" s="6"/>
+      <c r="Q247" s="6"/>
+    </row>
+    <row r="248" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O248" s="6"/>
+      <c r="Q248" s="6"/>
+    </row>
+    <row r="249" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O249" s="6"/>
+      <c r="Q249" s="6"/>
+    </row>
+    <row r="250" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O250" s="6"/>
+      <c r="Q250" s="6"/>
+    </row>
+    <row r="251" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O251" s="6"/>
+      <c r="Q251" s="6"/>
+    </row>
+    <row r="252" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O252" s="6"/>
+      <c r="Q252" s="6"/>
+    </row>
+    <row r="253" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O253" s="6"/>
+      <c r="Q253" s="6"/>
+    </row>
+    <row r="254" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O254" s="6"/>
+      <c r="Q254" s="6"/>
+    </row>
+    <row r="255" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O255" s="6"/>
+      <c r="Q255" s="6"/>
+    </row>
+    <row r="256" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O256" s="6"/>
+      <c r="Q256" s="6"/>
+    </row>
+    <row r="257" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O257" s="6"/>
+      <c r="Q257" s="6"/>
+    </row>
+    <row r="258" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O258" s="6"/>
+      <c r="Q258" s="6"/>
+    </row>
+    <row r="259" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O259" s="6"/>
+      <c r="Q259" s="6"/>
+    </row>
+    <row r="260" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O260" s="11"/>
+      <c r="P260" s="11"/>
+      <c r="Q260" s="9"/>
+    </row>
+    <row r="261" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O261" s="6"/>
+      <c r="Q261" s="6"/>
+    </row>
+    <row r="262" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O262" s="6"/>
+      <c r="Q262" s="6"/>
+    </row>
+    <row r="263" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O263" s="6"/>
+      <c r="Q263" s="6"/>
+    </row>
+    <row r="264" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O264" s="6"/>
+      <c r="Q264" s="6"/>
+    </row>
+    <row r="265" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O265" s="6"/>
+      <c r="Q265" s="6"/>
+    </row>
+    <row r="266" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O266" s="6"/>
+      <c r="Q266" s="6"/>
+    </row>
+    <row r="267" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O267" s="6"/>
+      <c r="Q267" s="6"/>
+    </row>
+    <row r="268" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O268" s="6"/>
+      <c r="Q268" s="6"/>
+    </row>
+    <row r="269" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O269" s="6"/>
+      <c r="Q269" s="6"/>
+    </row>
+    <row r="270" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O270" s="6"/>
+      <c r="Q270" s="6"/>
+    </row>
+    <row r="271" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O271" s="6"/>
+      <c r="Q271" s="6"/>
+    </row>
+    <row r="272" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O272" s="11"/>
+      <c r="P272" s="11"/>
+      <c r="Q272" s="9"/>
+    </row>
+    <row r="273" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O273" s="6"/>
+      <c r="Q273" s="6"/>
+    </row>
+    <row r="274" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O274" s="6"/>
+      <c r="Q274" s="6"/>
+    </row>
+    <row r="275" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O275" s="6"/>
+      <c r="Q275" s="6"/>
+    </row>
+    <row r="276" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O276" s="6"/>
+      <c r="Q276" s="6"/>
+    </row>
+    <row r="277" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O277" s="6"/>
+      <c r="Q277" s="6"/>
+    </row>
+    <row r="278" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O278" s="6"/>
+      <c r="Q278" s="6"/>
+    </row>
+    <row r="279" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O279" s="6"/>
+      <c r="Q279" s="6"/>
+    </row>
+    <row r="280" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O280" s="6"/>
+      <c r="Q280" s="6"/>
+    </row>
+    <row r="281" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O281" s="6"/>
+      <c r="Q281" s="6"/>
+    </row>
+    <row r="282" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O282" s="6"/>
+      <c r="Q282" s="6"/>
+    </row>
+    <row r="283" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O283" s="6"/>
+      <c r="Q283" s="6"/>
+    </row>
+    <row r="284" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O284" s="11"/>
+      <c r="P284" s="11"/>
+      <c r="Q284" s="9"/>
+    </row>
+    <row r="285" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O285" s="6"/>
+      <c r="Q285" s="6"/>
+    </row>
+    <row r="286" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O286" s="6"/>
+      <c r="Q286" s="6"/>
+    </row>
+    <row r="287" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O287" s="6"/>
+      <c r="Q287" s="6"/>
+    </row>
+    <row r="288" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O288" s="6"/>
+      <c r="Q288" s="6"/>
+    </row>
+    <row r="289" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O289" s="6"/>
+      <c r="Q289" s="6"/>
+    </row>
+    <row r="290" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O290" s="6"/>
+      <c r="Q290" s="6"/>
+    </row>
+    <row r="291" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O291" s="6"/>
+      <c r="Q291" s="6"/>
+    </row>
+    <row r="292" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O292" s="6"/>
+      <c r="Q292" s="6"/>
+    </row>
+    <row r="293" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O293" s="6"/>
+      <c r="Q293" s="6"/>
+    </row>
+    <row r="294" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O294" s="6"/>
+      <c r="Q294" s="6"/>
+    </row>
+    <row r="295" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O295" s="6"/>
+      <c r="Q295" s="6"/>
+    </row>
+    <row r="296" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O296" s="11"/>
+      <c r="P296" s="11"/>
+      <c r="Q296" s="9"/>
+    </row>
+    <row r="297" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O297" s="6"/>
+      <c r="Q297" s="6"/>
+    </row>
+    <row r="298" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O298" s="6"/>
+      <c r="Q298" s="6"/>
+    </row>
+    <row r="299" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O299" s="6"/>
+      <c r="Q299" s="6"/>
+    </row>
+    <row r="300" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O300" s="6"/>
+      <c r="Q300" s="6"/>
+    </row>
+    <row r="301" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O301" s="6"/>
+      <c r="Q301" s="6"/>
+    </row>
+    <row r="302" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O302" s="6"/>
+      <c r="Q302" s="6"/>
+    </row>
+    <row r="303" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O303" s="6"/>
+      <c r="Q303" s="6"/>
+    </row>
+    <row r="304" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O304" s="6"/>
+      <c r="Q304" s="6"/>
+    </row>
+    <row r="305" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O305" s="6"/>
+      <c r="Q305" s="6"/>
+    </row>
+    <row r="306" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O306" s="6"/>
+      <c r="Q306" s="6"/>
+    </row>
+    <row r="307" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O307" s="6"/>
+      <c r="Q307" s="6"/>
+    </row>
+    <row r="308" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O308" s="11"/>
+      <c r="P308" s="11"/>
+      <c r="Q308" s="9"/>
+    </row>
+    <row r="309" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O309" s="6"/>
+      <c r="Q309" s="6"/>
+    </row>
+    <row r="310" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O310" s="6"/>
+      <c r="Q310" s="6"/>
+    </row>
+    <row r="311" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O311" s="11"/>
+      <c r="P311" s="11"/>
+      <c r="Q311" s="9"/>
+    </row>
+    <row r="312" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O312" s="6"/>
+      <c r="Q312" s="6"/>
+    </row>
+    <row r="313" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O313" s="11"/>
+      <c r="P313" s="11"/>
+      <c r="Q313" s="9"/>
+    </row>
+    <row r="314" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O314" s="6"/>
+      <c r="Q314" s="6"/>
+    </row>
+    <row r="315" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O315" s="11"/>
+      <c r="P315" s="11"/>
+      <c r="Q315" s="9"/>
+    </row>
+    <row r="316" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O316" s="6"/>
+      <c r="Q316" s="6"/>
+    </row>
+    <row r="317" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O317" s="6"/>
+      <c r="Q317" s="6"/>
+    </row>
+    <row r="318" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O318" s="6"/>
+      <c r="Q318" s="6"/>
+    </row>
+    <row r="319" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O319" s="11"/>
+      <c r="P319" s="11"/>
+      <c r="Q319" s="9"/>
+    </row>
+    <row r="320" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O320" s="6"/>
+      <c r="Q320" s="6"/>
+    </row>
+    <row r="321" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O321" s="6"/>
+      <c r="Q321" s="6"/>
+    </row>
+    <row r="322" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O322" s="6"/>
+      <c r="Q322" s="6"/>
+    </row>
+    <row r="323" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O323" s="6"/>
+      <c r="Q323" s="6"/>
+    </row>
+    <row r="324" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O324" s="11"/>
+      <c r="P324" s="11"/>
+      <c r="Q324" s="9"/>
+    </row>
+    <row r="325" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O325" s="6"/>
+      <c r="Q325" s="6"/>
+    </row>
+    <row r="326" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O326" s="11"/>
+      <c r="P326" s="11"/>
+      <c r="Q326" s="9"/>
+    </row>
+    <row r="327" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O327" s="6"/>
+      <c r="Q327" s="6"/>
+    </row>
+    <row r="328" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O328" s="11"/>
+      <c r="P328" s="11"/>
+      <c r="Q328" s="9"/>
+    </row>
+    <row r="329" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O329" s="6"/>
+      <c r="Q329" s="6"/>
+    </row>
+    <row r="330" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O330" s="11"/>
+      <c r="P330" s="11"/>
+      <c r="Q330" s="9"/>
+    </row>
+    <row r="331" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O331" s="6"/>
+      <c r="Q331" s="6"/>
+    </row>
+    <row r="332" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O332" s="11"/>
+      <c r="P332" s="11"/>
+      <c r="Q332" s="9"/>
+    </row>
+    <row r="333" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O333" s="6"/>
+      <c r="Q333" s="6"/>
+    </row>
+    <row r="334" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O334" s="6"/>
+      <c r="Q334" s="6"/>
+    </row>
+    <row r="335" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O335" s="6"/>
+      <c r="Q335" s="6"/>
+    </row>
+    <row r="336" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O336" s="6"/>
+      <c r="Q336" s="6"/>
+    </row>
+    <row r="337" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O337" s="6"/>
+      <c r="Q337" s="6"/>
+    </row>
+    <row r="338" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O338" s="6"/>
+      <c r="Q338" s="6"/>
+    </row>
+    <row r="339" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O339" s="6"/>
+      <c r="Q339" s="6"/>
+    </row>
+    <row r="340" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O340" s="6"/>
+      <c r="Q340" s="6"/>
+    </row>
+    <row r="341" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O341" s="6"/>
+      <c r="Q341" s="6"/>
+    </row>
+    <row r="342" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O342" s="6"/>
+      <c r="Q342" s="6"/>
+    </row>
+    <row r="343" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O343" s="6"/>
+      <c r="Q343" s="6"/>
+    </row>
+    <row r="344" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O344" s="6"/>
+      <c r="Q344" s="6"/>
+    </row>
+    <row r="345" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O345" s="6"/>
+      <c r="Q345" s="6"/>
+    </row>
+    <row r="346" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O346" s="6"/>
+      <c r="Q346" s="6"/>
+    </row>
+    <row r="347" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O347" s="6"/>
+      <c r="Q347" s="6"/>
+    </row>
+    <row r="348" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O348" s="6"/>
+      <c r="Q348" s="6"/>
+    </row>
+    <row r="349" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O349" s="6"/>
+      <c r="Q349" s="6"/>
+    </row>
+    <row r="350" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O350" s="6"/>
+      <c r="Q350" s="6"/>
+    </row>
+    <row r="351" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O351" s="11"/>
+      <c r="P351" s="11"/>
+      <c r="Q351" s="9"/>
+    </row>
+    <row r="352" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O352" s="6"/>
+      <c r="Q352" s="6"/>
+    </row>
+    <row r="353" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O353" s="6"/>
+      <c r="Q353" s="6"/>
+    </row>
+    <row r="354" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O354" s="6"/>
+      <c r="Q354" s="6"/>
+    </row>
+    <row r="355" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O355" s="6"/>
+      <c r="Q355" s="6"/>
+    </row>
+    <row r="356" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O356" s="6"/>
+      <c r="Q356" s="6"/>
+    </row>
+    <row r="357" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O357" s="6"/>
+      <c r="Q357" s="6"/>
+    </row>
+    <row r="358" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O358" s="6"/>
+      <c r="Q358" s="6"/>
+    </row>
+    <row r="359" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O359" s="6"/>
+      <c r="Q359" s="6"/>
+    </row>
+    <row r="360" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O360" s="6"/>
+      <c r="Q360" s="6"/>
+    </row>
+    <row r="361" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O361" s="6"/>
+      <c r="Q361" s="6"/>
+    </row>
+    <row r="362" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O362" s="6"/>
+      <c r="Q362" s="6"/>
+    </row>
+    <row r="363" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O363" s="6"/>
+      <c r="Q363" s="6"/>
+    </row>
+    <row r="364" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O364" s="6"/>
+      <c r="Q364" s="6"/>
+    </row>
+    <row r="365" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O365" s="6"/>
+      <c r="Q365" s="6"/>
+    </row>
+    <row r="366" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O366" s="6"/>
+      <c r="Q366" s="6"/>
+    </row>
+    <row r="367" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O367" s="6"/>
+      <c r="Q367" s="6"/>
+    </row>
+    <row r="368" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O368" s="6"/>
+      <c r="Q368" s="6"/>
+    </row>
+    <row r="369" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O369" s="6"/>
+      <c r="Q369" s="6"/>
+    </row>
+    <row r="370" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O370" s="11"/>
+      <c r="P370" s="11"/>
+      <c r="Q370" s="9"/>
+    </row>
+    <row r="371" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O371" s="6"/>
+      <c r="Q371" s="6"/>
+    </row>
+    <row r="372" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O372" s="6"/>
+      <c r="Q372" s="6"/>
+    </row>
+    <row r="373" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O373" s="6"/>
+      <c r="Q373" s="6"/>
+    </row>
+    <row r="374" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O374" s="6"/>
+      <c r="Q374" s="6"/>
+    </row>
+    <row r="375" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O375" s="6"/>
+      <c r="Q375" s="6"/>
+    </row>
+    <row r="376" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O376" s="6"/>
+      <c r="Q376" s="6"/>
+    </row>
+    <row r="377" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O377" s="6"/>
+      <c r="Q377" s="6"/>
+    </row>
+    <row r="378" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O378" s="6"/>
+      <c r="Q378" s="6"/>
+    </row>
+    <row r="379" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O379" s="6"/>
+      <c r="Q379" s="6"/>
+    </row>
+    <row r="380" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O380" s="6"/>
+      <c r="Q380" s="6"/>
+    </row>
+    <row r="381" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O381" s="6"/>
+      <c r="Q381" s="6"/>
+    </row>
+    <row r="382" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O382" s="6"/>
+      <c r="Q382" s="6"/>
+    </row>
+    <row r="383" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O383" s="6"/>
+      <c r="Q383" s="6"/>
+    </row>
+    <row r="384" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O384" s="6"/>
+      <c r="Q384" s="6"/>
+    </row>
+    <row r="385" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O385" s="6"/>
+      <c r="Q385" s="6"/>
+    </row>
+    <row r="386" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O386" s="6"/>
+      <c r="Q386" s="6"/>
+    </row>
+    <row r="387" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O387" s="6"/>
+      <c r="Q387" s="6"/>
+    </row>
+    <row r="388" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O388" s="6"/>
+      <c r="Q388" s="6"/>
+    </row>
+    <row r="389" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O389" s="11"/>
+      <c r="P389" s="11"/>
+      <c r="Q389" s="9"/>
+    </row>
+    <row r="390" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O390" s="6"/>
+      <c r="Q390" s="6"/>
+    </row>
+    <row r="391" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O391" s="6"/>
+      <c r="Q391" s="6"/>
+    </row>
+    <row r="392" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O392" s="6"/>
+      <c r="Q392" s="6"/>
+    </row>
+    <row r="393" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O393" s="6"/>
+      <c r="Q393" s="6"/>
+    </row>
+    <row r="394" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O394" s="6"/>
+      <c r="Q394" s="6"/>
+    </row>
+    <row r="395" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O395" s="6"/>
+      <c r="Q395" s="6"/>
+    </row>
+    <row r="396" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O396" s="6"/>
+      <c r="Q396" s="6"/>
+    </row>
+    <row r="397" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O397" s="6"/>
+      <c r="Q397" s="6"/>
+    </row>
+    <row r="398" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O398" s="6"/>
+      <c r="Q398" s="6"/>
+    </row>
+    <row r="399" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O399" s="6"/>
+      <c r="Q399" s="6"/>
+    </row>
+    <row r="400" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O400" s="6"/>
+      <c r="Q400" s="6"/>
+    </row>
+    <row r="401" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O401" s="6"/>
+      <c r="Q401" s="6"/>
+    </row>
+    <row r="402" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O402" s="6"/>
+      <c r="Q402" s="6"/>
+    </row>
+    <row r="403" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O403" s="6"/>
+      <c r="Q403" s="6"/>
+    </row>
+    <row r="404" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O404" s="6"/>
+      <c r="Q404" s="6"/>
+    </row>
+    <row r="405" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O405" s="6"/>
+      <c r="Q405" s="6"/>
+    </row>
+    <row r="406" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O406" s="6"/>
+      <c r="Q406" s="6"/>
+    </row>
+    <row r="407" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O407" s="6"/>
+      <c r="Q407" s="6"/>
+    </row>
+    <row r="408" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O408" s="11"/>
+      <c r="P408" s="11"/>
+      <c r="Q408" s="9"/>
+    </row>
+    <row r="409" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O409" s="6"/>
+      <c r="Q409" s="6"/>
+    </row>
+    <row r="410" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O410" s="6"/>
+      <c r="Q410" s="6"/>
+    </row>
+    <row r="411" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O411" s="6"/>
+      <c r="Q411" s="6"/>
+    </row>
+    <row r="412" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O412" s="6"/>
+      <c r="Q412" s="6"/>
+    </row>
+    <row r="413" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O413" s="6"/>
+      <c r="Q413" s="6"/>
+    </row>
+    <row r="414" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O414" s="6"/>
+      <c r="Q414" s="6"/>
+    </row>
+    <row r="415" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O415" s="6"/>
+      <c r="Q415" s="6"/>
+    </row>
+    <row r="416" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O416" s="6"/>
+      <c r="Q416" s="6"/>
+    </row>
+    <row r="417" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O417" s="6"/>
+      <c r="Q417" s="6"/>
+    </row>
+    <row r="418" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O418" s="6"/>
+      <c r="Q418" s="6"/>
+    </row>
+    <row r="419" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O419" s="6"/>
+      <c r="Q419" s="6"/>
+    </row>
+    <row r="420" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O420" s="6"/>
+      <c r="Q420" s="6"/>
+    </row>
+    <row r="421" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O421" s="6"/>
+      <c r="Q421" s="6"/>
+    </row>
+    <row r="422" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O422" s="6"/>
+      <c r="Q422" s="6"/>
+    </row>
+    <row r="423" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O423" s="6"/>
+      <c r="Q423" s="6"/>
+    </row>
+    <row r="424" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O424" s="6"/>
+      <c r="Q424" s="6"/>
+    </row>
+    <row r="425" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O425" s="6"/>
+      <c r="Q425" s="6"/>
+    </row>
+    <row r="426" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O426" s="6"/>
+      <c r="Q426" s="6"/>
+    </row>
+    <row r="427" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O427" s="11"/>
+      <c r="P427" s="11"/>
+      <c r="Q427" s="9"/>
+    </row>
+    <row r="428" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O428" s="6"/>
+      <c r="Q428" s="6"/>
+    </row>
+    <row r="429" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O429" s="6"/>
+      <c r="Q429" s="6"/>
+    </row>
+    <row r="430" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O430" s="6"/>
+      <c r="Q430" s="6"/>
+    </row>
+    <row r="431" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O431" s="6"/>
+      <c r="Q431" s="6"/>
+    </row>
+    <row r="432" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O432" s="6"/>
+      <c r="Q432" s="6"/>
+    </row>
+    <row r="433" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O433" s="6"/>
+      <c r="Q433" s="6"/>
+    </row>
+    <row r="434" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O434" s="6"/>
+      <c r="Q434" s="6"/>
+    </row>
+    <row r="435" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O435" s="6"/>
+      <c r="Q435" s="6"/>
+    </row>
+    <row r="436" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O436" s="6"/>
+      <c r="Q436" s="6"/>
+    </row>
+    <row r="437" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O437" s="6"/>
+      <c r="Q437" s="6"/>
+    </row>
+    <row r="438" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O438" s="6"/>
+      <c r="Q438" s="6"/>
+    </row>
+    <row r="439" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O439" s="6"/>
+      <c r="Q439" s="6"/>
+    </row>
+    <row r="440" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O440" s="6"/>
+      <c r="Q440" s="6"/>
+    </row>
+    <row r="441" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O441" s="6"/>
+      <c r="Q441" s="6"/>
+    </row>
+    <row r="442" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O442" s="6"/>
+      <c r="Q442" s="6"/>
+    </row>
+    <row r="443" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O443" s="6"/>
+      <c r="Q443" s="6"/>
+    </row>
+    <row r="444" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O444" s="6"/>
+      <c r="Q444" s="6"/>
+    </row>
+    <row r="445" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O445" s="6"/>
+      <c r="Q445" s="6"/>
+    </row>
+    <row r="446" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O446" s="11"/>
+      <c r="P446" s="11"/>
+      <c r="Q446" s="9"/>
+    </row>
+    <row r="447" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O447" s="6"/>
+      <c r="Q447" s="6"/>
+    </row>
+    <row r="448" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O448" s="6"/>
+      <c r="Q448" s="6"/>
+    </row>
+    <row r="449" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O449" s="6"/>
+      <c r="Q449" s="6"/>
+    </row>
+    <row r="450" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O450" s="6"/>
+      <c r="Q450" s="6"/>
+    </row>
+    <row r="451" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O451" s="6"/>
+      <c r="Q451" s="6"/>
+    </row>
+    <row r="452" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O452" s="6"/>
+      <c r="Q452" s="6"/>
+    </row>
+    <row r="453" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O453" s="6"/>
+      <c r="Q453" s="6"/>
+    </row>
+    <row r="454" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O454" s="6"/>
+      <c r="Q454" s="6"/>
+    </row>
+    <row r="455" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O455" s="6"/>
+      <c r="Q455" s="6"/>
+    </row>
+    <row r="456" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O456" s="6"/>
+      <c r="Q456" s="6"/>
+    </row>
+    <row r="457" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O457" s="6"/>
+      <c r="Q457" s="6"/>
+    </row>
+    <row r="458" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O458" s="6"/>
+      <c r="Q458" s="6"/>
+    </row>
+    <row r="459" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O459" s="6"/>
+      <c r="Q459" s="6"/>
+    </row>
+    <row r="460" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O460" s="6"/>
+      <c r="Q460" s="6"/>
+    </row>
+    <row r="461" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O461" s="6"/>
+      <c r="Q461" s="6"/>
+    </row>
+    <row r="462" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O462" s="6"/>
+      <c r="Q462" s="6"/>
+    </row>
+    <row r="463" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O463" s="6"/>
+      <c r="Q463" s="6"/>
+    </row>
+    <row r="464" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O464" s="6"/>
+      <c r="Q464" s="6"/>
+    </row>
+    <row r="465" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O465" s="11"/>
+      <c r="P465" s="11"/>
+      <c r="Q465" s="9"/>
+    </row>
+    <row r="466" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O466" s="6"/>
+      <c r="Q466" s="6"/>
+    </row>
+    <row r="467" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O467" s="6"/>
+      <c r="Q467" s="6"/>
+    </row>
+    <row r="468" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O468" s="6"/>
+      <c r="Q468" s="6"/>
+    </row>
+    <row r="469" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O469" s="6"/>
+      <c r="Q469" s="6"/>
+    </row>
+    <row r="470" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O470" s="6"/>
+      <c r="Q470" s="6"/>
+    </row>
+    <row r="471" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O471" s="6"/>
+      <c r="Q471" s="6"/>
+    </row>
+    <row r="472" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O472" s="6"/>
+      <c r="Q472" s="6"/>
+    </row>
+    <row r="473" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O473" s="6"/>
+      <c r="Q473" s="6"/>
+    </row>
+    <row r="474" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O474" s="6"/>
+      <c r="Q474" s="6"/>
+    </row>
+    <row r="475" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O475" s="6"/>
+      <c r="Q475" s="6"/>
+    </row>
+    <row r="476" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O476" s="6"/>
+      <c r="Q476" s="6"/>
+    </row>
+    <row r="477" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O477" s="6"/>
+      <c r="Q477" s="6"/>
+    </row>
+    <row r="478" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O478" s="6"/>
+      <c r="Q478" s="6"/>
+    </row>
+    <row r="479" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O479" s="6"/>
+      <c r="Q479" s="6"/>
+    </row>
+    <row r="480" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O480" s="6"/>
+      <c r="Q480" s="6"/>
+    </row>
+    <row r="481" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O481" s="6"/>
+      <c r="Q481" s="6"/>
+    </row>
+    <row r="482" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O482" s="6"/>
+      <c r="Q482" s="6"/>
+    </row>
+    <row r="483" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O483" s="6"/>
+      <c r="Q483" s="6"/>
+    </row>
+    <row r="484" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O484" s="11"/>
+      <c r="P484" s="11"/>
+      <c r="Q484" s="9"/>
+    </row>
+    <row r="485" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O485" s="6"/>
+      <c r="Q485" s="6"/>
+    </row>
+    <row r="486" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O486" s="6"/>
+      <c r="Q486" s="6"/>
+    </row>
+    <row r="487" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O487" s="6"/>
+      <c r="Q487" s="6"/>
+    </row>
+    <row r="488" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O488" s="6"/>
+      <c r="Q488" s="6"/>
+    </row>
+    <row r="489" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O489" s="6"/>
+      <c r="Q489" s="6"/>
+    </row>
+    <row r="490" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O490" s="6"/>
+      <c r="Q490" s="6"/>
+    </row>
+    <row r="491" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O491" s="6"/>
+      <c r="Q491" s="6"/>
+    </row>
+    <row r="492" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O492" s="6"/>
+      <c r="Q492" s="6"/>
+    </row>
+    <row r="493" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O493" s="6"/>
+      <c r="Q493" s="6"/>
+    </row>
+    <row r="494" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O494" s="6"/>
+      <c r="Q494" s="6"/>
+    </row>
+    <row r="495" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O495" s="6"/>
+      <c r="Q495" s="6"/>
+    </row>
+    <row r="496" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O496" s="6"/>
+      <c r="Q496" s="6"/>
+    </row>
+    <row r="497" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O497" s="6"/>
+      <c r="Q497" s="6"/>
+    </row>
+    <row r="498" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O498" s="6"/>
+      <c r="Q498" s="6"/>
+    </row>
+    <row r="499" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O499" s="6"/>
+      <c r="Q499" s="6"/>
+    </row>
+    <row r="500" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O500" s="6"/>
+      <c r="Q500" s="6"/>
+    </row>
+    <row r="501" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O501" s="6"/>
+      <c r="Q501" s="6"/>
+    </row>
+    <row r="502" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O502" s="6"/>
+      <c r="Q502" s="6"/>
+    </row>
+    <row r="503" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O503" s="6"/>
+      <c r="Q503" s="6"/>
+    </row>
+    <row r="504" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O504" s="6"/>
+      <c r="Q504" s="6"/>
+    </row>
+    <row r="505" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O505" s="6"/>
+      <c r="Q505" s="6"/>
+    </row>
+    <row r="506" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O506" s="11"/>
+      <c r="P506" s="11"/>
+      <c r="Q506" s="9"/>
+    </row>
+    <row r="507" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O507" s="6"/>
+      <c r="Q507" s="6"/>
+    </row>
+    <row r="508" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O508" s="6"/>
+      <c r="Q508" s="6"/>
+    </row>
+    <row r="509" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O509" s="6"/>
+      <c r="Q509" s="6"/>
+    </row>
+    <row r="510" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O510" s="6"/>
+      <c r="Q510" s="6"/>
+    </row>
+    <row r="511" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O511" s="6"/>
+      <c r="Q511" s="6"/>
+    </row>
+    <row r="512" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O512" s="6"/>
+      <c r="Q512" s="6"/>
+    </row>
+    <row r="513" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O513" s="6"/>
+      <c r="Q513" s="6"/>
+    </row>
+    <row r="514" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O514" s="6"/>
+      <c r="Q514" s="6"/>
+    </row>
+    <row r="515" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O515" s="6"/>
+      <c r="Q515" s="6"/>
+    </row>
+    <row r="516" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O516" s="6"/>
+      <c r="Q516" s="6"/>
+    </row>
+    <row r="517" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O517" s="6"/>
+      <c r="Q517" s="6"/>
+    </row>
+    <row r="518" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O518" s="6"/>
+      <c r="Q518" s="6"/>
+    </row>
+    <row r="519" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O519" s="6"/>
+      <c r="Q519" s="6"/>
+    </row>
+    <row r="520" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O520" s="6"/>
+      <c r="Q520" s="6"/>
+    </row>
+    <row r="521" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O521" s="6"/>
+      <c r="Q521" s="6"/>
+    </row>
+    <row r="522" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O522" s="6"/>
+      <c r="Q522" s="6"/>
+    </row>
+    <row r="523" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O523" s="6"/>
+      <c r="Q523" s="6"/>
+    </row>
+    <row r="524" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O524" s="6"/>
+      <c r="Q524" s="6"/>
+    </row>
+    <row r="525" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O525" s="11"/>
+      <c r="P525" s="11"/>
+      <c r="Q525" s="9"/>
+    </row>
+    <row r="526" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O526" s="6"/>
+      <c r="Q526" s="6"/>
+    </row>
+    <row r="527" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O527" s="6"/>
+      <c r="Q527" s="6"/>
+    </row>
+    <row r="528" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O528" s="6"/>
+      <c r="Q528" s="6"/>
+    </row>
+    <row r="529" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O529" s="6"/>
+      <c r="Q529" s="6"/>
+    </row>
+    <row r="530" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O530" s="6"/>
+      <c r="Q530" s="6"/>
+    </row>
+    <row r="531" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O531" s="6"/>
+      <c r="Q531" s="6"/>
+    </row>
+    <row r="532" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O532" s="6"/>
+      <c r="Q532" s="6"/>
+    </row>
+    <row r="533" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O533" s="6"/>
+      <c r="Q533" s="6"/>
+    </row>
+    <row r="534" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O534" s="6"/>
+      <c r="Q534" s="6"/>
+    </row>
+    <row r="535" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O535" s="6"/>
+      <c r="Q535" s="6"/>
+    </row>
+    <row r="536" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O536" s="6"/>
+      <c r="Q536" s="6"/>
+    </row>
+    <row r="537" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O537" s="6"/>
+      <c r="Q537" s="6"/>
+    </row>
+    <row r="538" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O538" s="6"/>
+      <c r="Q538" s="6"/>
+    </row>
+    <row r="539" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O539" s="6"/>
+      <c r="Q539" s="6"/>
+    </row>
+    <row r="540" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O540" s="6"/>
+      <c r="Q540" s="6"/>
+    </row>
+    <row r="541" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O541" s="6"/>
+      <c r="Q541" s="6"/>
+    </row>
+    <row r="542" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O542" s="6"/>
+      <c r="Q542" s="6"/>
+    </row>
+    <row r="543" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O543" s="6"/>
+      <c r="Q543" s="6"/>
+    </row>
+    <row r="544" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O544" s="11"/>
+      <c r="P544" s="11"/>
+      <c r="Q544" s="9"/>
+    </row>
+    <row r="545" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O545" s="6"/>
+      <c r="Q545" s="6"/>
+    </row>
+    <row r="546" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O546" s="6"/>
+      <c r="Q546" s="6"/>
+    </row>
+    <row r="547" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O547" s="6"/>
+      <c r="Q547" s="6"/>
+    </row>
+    <row r="548" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O548" s="6"/>
+      <c r="Q548" s="6"/>
+    </row>
+    <row r="549" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O549" s="6"/>
+      <c r="Q549" s="6"/>
+    </row>
+    <row r="550" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O550" s="6"/>
+      <c r="Q550" s="6"/>
+    </row>
+    <row r="551" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O551" s="6"/>
+      <c r="Q551" s="6"/>
+    </row>
+    <row r="552" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O552" s="6"/>
+      <c r="Q552" s="6"/>
+    </row>
+    <row r="553" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O553" s="6"/>
+      <c r="Q553" s="6"/>
+    </row>
+    <row r="554" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O554" s="6"/>
+      <c r="Q554" s="6"/>
+    </row>
+    <row r="555" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O555" s="6"/>
+      <c r="Q555" s="6"/>
+    </row>
+    <row r="556" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O556" s="6"/>
+      <c r="Q556" s="6"/>
+    </row>
+    <row r="557" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O557" s="6"/>
+      <c r="Q557" s="6"/>
+    </row>
+    <row r="558" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O558" s="6"/>
+      <c r="Q558" s="6"/>
+    </row>
+    <row r="559" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O559" s="6"/>
+      <c r="Q559" s="6"/>
+    </row>
+    <row r="560" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O560" s="6"/>
+      <c r="Q560" s="6"/>
+    </row>
+    <row r="561" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O561" s="6"/>
+      <c r="Q561" s="6"/>
+    </row>
+    <row r="562" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O562" s="6"/>
+      <c r="Q562" s="6"/>
+    </row>
+    <row r="563" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O563" s="11"/>
+      <c r="P563" s="11"/>
+      <c r="Q563" s="9"/>
+    </row>
+    <row r="564" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O564" s="6"/>
+      <c r="Q564" s="6"/>
+    </row>
+    <row r="565" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O565" s="6"/>
+      <c r="Q565" s="6"/>
+    </row>
+    <row r="566" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O566" s="6"/>
+      <c r="Q566" s="6"/>
+    </row>
+    <row r="567" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O567" s="6"/>
+      <c r="Q567" s="6"/>
+    </row>
+    <row r="568" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O568" s="6"/>
+      <c r="Q568" s="6"/>
+    </row>
+    <row r="569" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O569" s="6"/>
+      <c r="Q569" s="6"/>
+    </row>
+    <row r="570" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O570" s="6"/>
+      <c r="Q570" s="6"/>
+    </row>
+    <row r="571" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O571" s="6"/>
+      <c r="Q571" s="6"/>
+    </row>
+    <row r="572" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O572" s="6"/>
+      <c r="Q572" s="6"/>
+    </row>
+    <row r="573" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O573" s="6"/>
+      <c r="Q573" s="6"/>
+    </row>
+    <row r="574" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O574" s="6"/>
+      <c r="Q574" s="6"/>
+    </row>
+    <row r="575" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O575" s="6"/>
+      <c r="Q575" s="6"/>
+    </row>
+    <row r="576" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O576" s="6"/>
+      <c r="Q576" s="6"/>
+    </row>
+    <row r="577" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O577" s="6"/>
+      <c r="Q577" s="6"/>
+    </row>
+    <row r="578" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O578" s="6"/>
+      <c r="Q578" s="6"/>
+    </row>
+    <row r="579" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O579" s="6"/>
+      <c r="Q579" s="6"/>
+    </row>
+    <row r="580" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O580" s="6"/>
+      <c r="Q580" s="6"/>
+    </row>
+    <row r="581" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O581" s="6"/>
+      <c r="Q581" s="6"/>
+    </row>
+    <row r="582" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O582" s="11"/>
+      <c r="P582" s="11"/>
+      <c r="Q582" s="9"/>
+    </row>
+    <row r="583" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O583" s="6"/>
+      <c r="Q583" s="6"/>
+    </row>
+    <row r="584" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O584" s="6"/>
+      <c r="Q584" s="6"/>
+    </row>
+    <row r="585" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O585" s="6"/>
+      <c r="Q585" s="6"/>
+    </row>
+    <row r="586" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O586" s="6"/>
+      <c r="Q586" s="6"/>
+    </row>
+    <row r="587" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O587" s="6"/>
+      <c r="Q587" s="6"/>
+    </row>
+    <row r="588" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O588" s="6"/>
+      <c r="Q588" s="6"/>
+    </row>
+    <row r="589" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O589" s="6"/>
+      <c r="Q589" s="6"/>
+    </row>
+    <row r="590" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O590" s="6"/>
+      <c r="Q590" s="6"/>
+    </row>
+    <row r="591" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O591" s="11"/>
+      <c r="P591" s="11"/>
+      <c r="Q591" s="9"/>
+    </row>
+    <row r="592" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O592" s="6"/>
+      <c r="Q592" s="6"/>
+    </row>
+    <row r="593" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O593" s="11"/>
+      <c r="P593" s="11"/>
+      <c r="Q593" s="9"/>
+    </row>
+    <row r="594" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O594" s="6"/>
+      <c r="Q594" s="6"/>
+    </row>
+    <row r="595" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O595" s="6"/>
+      <c r="Q595" s="6"/>
+    </row>
+    <row r="596" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O596" s="11"/>
+      <c r="P596" s="11"/>
+      <c r="Q596" s="9"/>
+    </row>
+    <row r="597" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O597" s="6"/>
+      <c r="Q597" s="6"/>
+    </row>
+    <row r="598" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O598" s="11"/>
+      <c r="P598" s="11"/>
+      <c r="Q598" s="9"/>
+    </row>
+    <row r="599" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O599" s="6"/>
+      <c r="Q599" s="6"/>
+    </row>
+    <row r="600" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O600" s="6"/>
+      <c r="Q600" s="6"/>
+    </row>
+    <row r="601" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O601" s="6"/>
+      <c r="Q601" s="6"/>
+    </row>
+    <row r="602" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O602" s="6"/>
+      <c r="Q602" s="6"/>
+    </row>
+    <row r="603" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O603" s="6"/>
+      <c r="Q603" s="6"/>
+    </row>
+    <row r="604" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O604" s="6"/>
+      <c r="Q604" s="6"/>
+    </row>
+    <row r="605" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O605" s="6"/>
+      <c r="Q605" s="6"/>
+    </row>
+    <row r="606" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O606" s="6"/>
+      <c r="Q606" s="6"/>
+    </row>
+    <row r="607" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O607" s="6"/>
+      <c r="Q607" s="6"/>
+    </row>
+    <row r="608" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O608" s="6"/>
+      <c r="Q608" s="6"/>
+    </row>
+    <row r="609" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O609" s="6"/>
+      <c r="Q609" s="6"/>
+    </row>
+    <row r="610" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O610" s="6"/>
+      <c r="Q610" s="6"/>
+    </row>
+    <row r="611" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O611" s="6"/>
+      <c r="Q611" s="6"/>
+    </row>
+    <row r="612" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O612" s="6"/>
+      <c r="Q612" s="6"/>
+    </row>
+    <row r="613" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O613" s="6"/>
+      <c r="Q613" s="6"/>
+    </row>
+    <row r="614" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O614" s="6"/>
+      <c r="Q614" s="6"/>
+    </row>
+    <row r="615" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O615" s="6"/>
+      <c r="Q615" s="6"/>
+    </row>
+    <row r="616" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O616" s="6"/>
+      <c r="Q616" s="6"/>
+    </row>
+    <row r="617" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O617" s="6"/>
+      <c r="Q617" s="6"/>
+    </row>
+    <row r="618" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O618" s="11"/>
+      <c r="P618" s="11"/>
+      <c r="Q618" s="9"/>
+    </row>
+    <row r="619" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O619" s="6"/>
+      <c r="Q619" s="6"/>
+    </row>
+    <row r="620" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O620" s="6"/>
+      <c r="Q620" s="6"/>
+    </row>
+    <row r="621" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O621" s="6"/>
+      <c r="Q621" s="6"/>
+    </row>
+    <row r="622" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O622" s="6"/>
+      <c r="Q622" s="6"/>
+    </row>
+    <row r="623" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O623" s="6"/>
+      <c r="Q623" s="6"/>
+    </row>
+    <row r="624" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O624" s="6"/>
+      <c r="Q624" s="6"/>
+    </row>
+    <row r="625" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O625" s="6"/>
+      <c r="Q625" s="6"/>
+    </row>
+    <row r="626" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O626" s="6"/>
+      <c r="Q626" s="6"/>
+    </row>
+    <row r="627" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O627" s="6"/>
+      <c r="Q627" s="6"/>
+    </row>
+    <row r="628" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O628" s="11"/>
+      <c r="P628" s="11"/>
+      <c r="Q628" s="9"/>
+    </row>
+    <row r="629" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O629" s="6"/>
+      <c r="Q629" s="6"/>
+    </row>
+    <row r="630" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O630" s="6"/>
+      <c r="Q630" s="6"/>
+    </row>
+    <row r="631" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O631" s="6"/>
+      <c r="Q631" s="6"/>
+    </row>
+    <row r="632" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O632" s="6"/>
+      <c r="Q632" s="6"/>
+    </row>
+    <row r="633" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O633" s="6"/>
+      <c r="Q633" s="6"/>
+    </row>
+    <row r="634" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O634" s="6"/>
+      <c r="Q634" s="6"/>
+    </row>
+    <row r="635" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O635" s="6"/>
+      <c r="Q635" s="6"/>
+    </row>
+    <row r="636" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O636" s="6"/>
+      <c r="Q636" s="6"/>
+    </row>
+    <row r="637" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O637" s="6"/>
+      <c r="Q637" s="6"/>
+    </row>
+    <row r="638" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O638" s="6"/>
+      <c r="Q638" s="6"/>
+    </row>
+    <row r="639" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O639" s="6"/>
+      <c r="Q639" s="6"/>
+    </row>
+    <row r="640" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O640" s="6"/>
+      <c r="Q640" s="6"/>
+    </row>
+    <row r="641" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O641" s="6"/>
+      <c r="Q641" s="6"/>
+    </row>
+    <row r="642" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O642" s="6"/>
+      <c r="Q642" s="6"/>
+    </row>
+    <row r="643" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O643" s="6"/>
+      <c r="Q643" s="6"/>
+    </row>
+    <row r="644" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O644" s="11"/>
+      <c r="P644" s="11"/>
+      <c r="Q644" s="9"/>
+    </row>
+    <row r="645" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O645" s="6"/>
+      <c r="Q645" s="6"/>
+    </row>
+    <row r="646" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O646" s="6"/>
+      <c r="Q646" s="6"/>
+    </row>
+    <row r="647" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O647" s="6"/>
+      <c r="Q647" s="6"/>
+    </row>
+    <row r="648" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O648" s="6"/>
+      <c r="Q648" s="6"/>
+    </row>
+    <row r="649" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O649" s="6"/>
+      <c r="Q649" s="6"/>
+    </row>
+    <row r="650" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O650" s="11"/>
+      <c r="P650" s="11"/>
+      <c r="Q650" s="9"/>
+    </row>
+    <row r="651" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O651" s="6"/>
+      <c r="Q651" s="6"/>
+    </row>
+    <row r="652" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O652" s="11"/>
+      <c r="P652" s="11"/>
+      <c r="Q652" s="9"/>
+    </row>
+    <row r="653" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O653" s="6"/>
+      <c r="Q653" s="6"/>
+    </row>
+    <row r="654" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O654" s="11"/>
+      <c r="P654" s="11"/>
+      <c r="Q654" s="9"/>
+    </row>
+    <row r="655" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O655" s="6"/>
+      <c r="Q655" s="6"/>
+    </row>
+    <row r="656" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O656" s="11"/>
+      <c r="P656" s="11"/>
+      <c r="Q656" s="9"/>
+    </row>
+    <row r="657" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O657" s="6"/>
+      <c r="Q657" s="6"/>
+    </row>
+    <row r="658" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O658" s="11"/>
+      <c r="P658" s="11"/>
+      <c r="Q658" s="9"/>
+    </row>
+    <row r="659" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O659" s="6"/>
+      <c r="Q659" s="6"/>
+    </row>
+    <row r="660" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O660" s="11"/>
+      <c r="P660" s="11"/>
+      <c r="Q660" s="9"/>
+    </row>
+    <row r="661" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O661" s="6"/>
+      <c r="Q661" s="6"/>
+    </row>
+    <row r="662" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O662" s="11"/>
+      <c r="P662" s="11"/>
+      <c r="Q662" s="9"/>
+    </row>
+    <row r="663" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O663" s="6"/>
+      <c r="Q663" s="6"/>
+    </row>
+    <row r="664" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O664" s="11"/>
+      <c r="P664" s="11"/>
+      <c r="Q664" s="9"/>
+    </row>
+    <row r="665" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O665" s="6"/>
+      <c r="Q665" s="6"/>
+    </row>
+    <row r="666" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O666" s="11"/>
+      <c r="P666" s="11"/>
+      <c r="Q666" s="9"/>
+    </row>
+    <row r="667" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O667" s="6"/>
+      <c r="Q667" s="6"/>
+    </row>
+    <row r="668" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O668" s="11"/>
+      <c r="P668" s="11"/>
+      <c r="Q668" s="9"/>
+    </row>
+    <row r="669" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O669" s="6"/>
+      <c r="Q669" s="6"/>
+    </row>
+    <row r="670" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O670" s="11"/>
+      <c r="P670" s="11"/>
+      <c r="Q670" s="9"/>
+    </row>
+    <row r="671" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O671" s="6"/>
+      <c r="Q671" s="6"/>
+    </row>
+    <row r="672" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O672" s="11"/>
+      <c r="P672" s="11"/>
+      <c r="Q672" s="9"/>
+    </row>
+    <row r="673" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O673" s="6"/>
+      <c r="Q673" s="6"/>
+    </row>
+    <row r="674" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O674" s="11"/>
+      <c r="P674" s="11"/>
+      <c r="Q674" s="9"/>
+    </row>
+    <row r="675" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O675" s="6"/>
+      <c r="Q675" s="6"/>
+    </row>
+    <row r="676" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O676" s="11"/>
+      <c r="P676" s="11"/>
+      <c r="Q676" s="9"/>
+    </row>
+    <row r="677" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O677" s="6"/>
+      <c r="Q677" s="6"/>
+    </row>
+    <row r="678" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O678" s="11"/>
+      <c r="P678" s="11"/>
+      <c r="Q678" s="9"/>
+    </row>
+    <row r="679" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O679" s="6"/>
+      <c r="Q679" s="6"/>
+    </row>
+    <row r="680" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O680" s="6"/>
+      <c r="Q680" s="6"/>
+    </row>
+    <row r="681" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O681" s="6"/>
+      <c r="Q681" s="6"/>
+    </row>
+    <row r="682" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O682" s="6"/>
+      <c r="Q682" s="6"/>
+    </row>
+    <row r="683" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O683" s="6"/>
+      <c r="Q683" s="6"/>
+    </row>
+    <row r="684" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O684" s="6"/>
+      <c r="Q684" s="6"/>
+    </row>
+    <row r="685" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O685" s="6"/>
+      <c r="Q685" s="6"/>
+    </row>
+    <row r="686" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O686" s="11"/>
+      <c r="P686" s="11"/>
+      <c r="Q686" s="9"/>
+    </row>
+    <row r="687" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O687" s="6"/>
+      <c r="Q687" s="6"/>
+    </row>
+    <row r="688" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O688" s="11"/>
+      <c r="P688" s="11"/>
+      <c r="Q688" s="9"/>
+    </row>
+    <row r="689" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O689" s="6"/>
+      <c r="Q689" s="6"/>
+    </row>
+    <row r="690" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O690" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="72">
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="F200:G200"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="F73:G73"/>
-    <mergeCell ref="F95:G95"/>
-    <mergeCell ref="F117:G117"/>
-    <mergeCell ref="F129:G129"/>
-    <mergeCell ref="F141:G141"/>
-    <mergeCell ref="F143:G143"/>
-    <mergeCell ref="F151:G151"/>
-    <mergeCell ref="F163:G163"/>
-    <mergeCell ref="F175:G175"/>
-    <mergeCell ref="F188:G188"/>
-    <mergeCell ref="F329:G329"/>
-    <mergeCell ref="F212:G212"/>
-    <mergeCell ref="F224:G224"/>
-    <mergeCell ref="F236:G236"/>
-    <mergeCell ref="F248:G248"/>
-    <mergeCell ref="F260:G260"/>
-    <mergeCell ref="F276:G276"/>
-    <mergeCell ref="F288:G288"/>
-    <mergeCell ref="F300:G300"/>
-    <mergeCell ref="F312:G312"/>
-    <mergeCell ref="F324:G324"/>
-    <mergeCell ref="F327:G327"/>
-    <mergeCell ref="F443:G443"/>
-    <mergeCell ref="F331:G331"/>
-    <mergeCell ref="F335:G335"/>
-    <mergeCell ref="F340:G340"/>
-    <mergeCell ref="F342:G342"/>
-    <mergeCell ref="F344:G344"/>
-    <mergeCell ref="F346:G346"/>
-    <mergeCell ref="F348:G348"/>
-    <mergeCell ref="F367:G367"/>
-    <mergeCell ref="F386:G386"/>
-    <mergeCell ref="F405:G405"/>
-    <mergeCell ref="F424:G424"/>
-    <mergeCell ref="F614:G614"/>
-    <mergeCell ref="F462:G462"/>
-    <mergeCell ref="F481:G481"/>
-    <mergeCell ref="F500:G500"/>
-    <mergeCell ref="F522:G522"/>
-    <mergeCell ref="F541:G541"/>
-    <mergeCell ref="F560:G560"/>
-    <mergeCell ref="F579:G579"/>
-    <mergeCell ref="F598:G598"/>
-    <mergeCell ref="F607:G607"/>
-    <mergeCell ref="F609:G609"/>
-    <mergeCell ref="F612:G612"/>
-    <mergeCell ref="F682:G682"/>
-    <mergeCell ref="F634:G634"/>
-    <mergeCell ref="F644:G644"/>
-    <mergeCell ref="F660:G660"/>
-    <mergeCell ref="F666:G666"/>
-    <mergeCell ref="F668:G668"/>
-    <mergeCell ref="F670:G670"/>
-    <mergeCell ref="F672:G672"/>
-    <mergeCell ref="F674:G674"/>
-    <mergeCell ref="F676:G676"/>
-    <mergeCell ref="F678:G678"/>
-    <mergeCell ref="F680:G680"/>
-    <mergeCell ref="F702:G702"/>
-    <mergeCell ref="F704:G704"/>
-    <mergeCell ref="F684:G684"/>
-    <mergeCell ref="F686:G686"/>
-    <mergeCell ref="F688:G688"/>
-    <mergeCell ref="F690:G690"/>
-    <mergeCell ref="F692:G692"/>
-    <mergeCell ref="F694:G694"/>
+  <mergeCells count="76">
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="O686:P686"/>
+    <mergeCell ref="O688:P688"/>
+    <mergeCell ref="O668:P668"/>
+    <mergeCell ref="O670:P670"/>
+    <mergeCell ref="O672:P672"/>
+    <mergeCell ref="O674:P674"/>
+    <mergeCell ref="O676:P676"/>
+    <mergeCell ref="O678:P678"/>
+    <mergeCell ref="O666:P666"/>
+    <mergeCell ref="O618:P618"/>
+    <mergeCell ref="O628:P628"/>
+    <mergeCell ref="O644:P644"/>
+    <mergeCell ref="O650:P650"/>
+    <mergeCell ref="O652:P652"/>
+    <mergeCell ref="O654:P654"/>
+    <mergeCell ref="O656:P656"/>
+    <mergeCell ref="O658:P658"/>
+    <mergeCell ref="O660:P660"/>
+    <mergeCell ref="O662:P662"/>
+    <mergeCell ref="O664:P664"/>
+    <mergeCell ref="O598:P598"/>
+    <mergeCell ref="O446:P446"/>
+    <mergeCell ref="O465:P465"/>
+    <mergeCell ref="O484:P484"/>
+    <mergeCell ref="O506:P506"/>
+    <mergeCell ref="O525:P525"/>
+    <mergeCell ref="O544:P544"/>
+    <mergeCell ref="O563:P563"/>
+    <mergeCell ref="O582:P582"/>
+    <mergeCell ref="O591:P591"/>
+    <mergeCell ref="O593:P593"/>
+    <mergeCell ref="O596:P596"/>
+    <mergeCell ref="O427:P427"/>
+    <mergeCell ref="O315:P315"/>
+    <mergeCell ref="O319:P319"/>
+    <mergeCell ref="O324:P324"/>
+    <mergeCell ref="O326:P326"/>
+    <mergeCell ref="O328:P328"/>
+    <mergeCell ref="O330:P330"/>
+    <mergeCell ref="O332:P332"/>
+    <mergeCell ref="O351:P351"/>
+    <mergeCell ref="O370:P370"/>
+    <mergeCell ref="O389:P389"/>
+    <mergeCell ref="O408:P408"/>
+    <mergeCell ref="O313:P313"/>
+    <mergeCell ref="O196:P196"/>
+    <mergeCell ref="O208:P208"/>
+    <mergeCell ref="O220:P220"/>
+    <mergeCell ref="O232:P232"/>
+    <mergeCell ref="O244:P244"/>
+    <mergeCell ref="O260:P260"/>
+    <mergeCell ref="O272:P272"/>
+    <mergeCell ref="O284:P284"/>
+    <mergeCell ref="O296:P296"/>
+    <mergeCell ref="O308:P308"/>
+    <mergeCell ref="O311:P311"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="O184:P184"/>
+    <mergeCell ref="O35:P35"/>
+    <mergeCell ref="O57:P57"/>
+    <mergeCell ref="O79:P79"/>
+    <mergeCell ref="O101:P101"/>
+    <mergeCell ref="O113:P113"/>
+    <mergeCell ref="O125:P125"/>
+    <mergeCell ref="O127:P127"/>
+    <mergeCell ref="O135:P135"/>
+    <mergeCell ref="O147:P147"/>
+    <mergeCell ref="O159:P159"/>
+    <mergeCell ref="O172:P172"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/waterbudget from Historic for Maria.xlsx
+++ b/waterbudget from Historic for Maria.xlsx
@@ -419,20 +419,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -442,9 +433,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -460,6 +448,18 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -898,11 +898,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="78804096"/>
-        <c:axId val="78805632"/>
+        <c:axId val="87785856"/>
+        <c:axId val="87787392"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="78804096"/>
+        <c:axId val="87785856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -911,7 +911,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78805632"/>
+        <c:crossAx val="87787392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -919,7 +919,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78805632"/>
+        <c:axId val="87787392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -930,7 +930,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78804096"/>
+        <c:crossAx val="87785856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1372,11 +1372,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="80548608"/>
-        <c:axId val="80550144"/>
+        <c:axId val="67256320"/>
+        <c:axId val="67257856"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="80548608"/>
+        <c:axId val="67256320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1385,7 +1385,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80550144"/>
+        <c:crossAx val="67257856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1393,7 +1393,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="80550144"/>
+        <c:axId val="67257856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1404,7 +1404,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80548608"/>
+        <c:crossAx val="67256320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1667,11 +1667,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="80642816"/>
-        <c:axId val="80644352"/>
+        <c:axId val="87840256"/>
+        <c:axId val="87841792"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="80642816"/>
+        <c:axId val="87840256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1680,7 +1680,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80644352"/>
+        <c:crossAx val="87841792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1688,7 +1688,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="80644352"/>
+        <c:axId val="87841792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1699,7 +1699,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80642816"/>
+        <c:crossAx val="87840256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7639,10 +7639,10 @@
   <dimension ref="A1:Q690"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="H14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="E13" sqref="E13"/>
+      <selection pane="bottomRight" activeCell="H30" sqref="H30:H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7694,21 +7694,21 @@
       <c r="B5" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19" t="s">
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19" t="s">
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4" t="s">
@@ -7777,7 +7777,7 @@
         <f>SUM(D7,G7)</f>
         <v>0</v>
       </c>
-      <c r="K7" s="22">
+      <c r="K7" s="18">
         <f>SUM(E7,H7)</f>
         <v>0</v>
       </c>
@@ -7790,14 +7790,14 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="K8" s="22"/>
+      <c r="K8" s="18"/>
       <c r="N8" s="4"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="K9" s="22"/>
+      <c r="K9" s="18"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
@@ -7835,7 +7835,7 @@
         <f>SUM(D10,G10)</f>
         <v>13.3</v>
       </c>
-      <c r="K10" s="22">
+      <c r="K10" s="18">
         <f>SUM(E10,H10)</f>
         <v>0</v>
       </c>
@@ -7848,7 +7848,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="K11" s="22"/>
+      <c r="K11" s="18"/>
       <c r="N11" s="4"/>
       <c r="O11" s="6"/>
     </row>
@@ -7856,42 +7856,42 @@
       <c r="A12" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="20">
+      <c r="B12" s="16">
         <v>6.3</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="16">
         <v>11.1</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="16">
         <v>12.9</v>
       </c>
-      <c r="E12" s="20">
+      <c r="E12" s="16">
         <f>C12-D12</f>
         <v>-1.8000000000000007</v>
       </c>
-      <c r="F12" s="20">
+      <c r="F12" s="16">
         <v>35.4</v>
       </c>
-      <c r="G12" s="20">
+      <c r="G12" s="16">
         <v>33.6</v>
       </c>
-      <c r="H12" s="20">
+      <c r="H12" s="16">
         <f>F12-G12</f>
         <v>1.7999999999999972</v>
       </c>
-      <c r="I12" s="20">
+      <c r="I12" s="16">
         <f>SUM(C12,F12)</f>
         <v>46.5</v>
       </c>
-      <c r="J12" s="20">
+      <c r="J12" s="16">
         <f>SUM(D12,G12)</f>
         <v>46.5</v>
       </c>
-      <c r="K12" s="22">
+      <c r="K12" s="18">
         <f>SUM(E12,H12)</f>
         <v>-3.5527136788005009E-15</v>
       </c>
-      <c r="L12" s="21">
+      <c r="L12" s="17">
         <f>I12-J12-K12</f>
         <v>3.5527136788005009E-15</v>
       </c>
@@ -7903,47 +7903,47 @@
       <c r="A13" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B13" s="20">
+      <c r="B13" s="16">
         <f>F13-C13</f>
         <v>47.771999999999991</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="16">
         <f>SUM(C14:C15)</f>
         <v>24.428000000000001</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D13" s="16">
         <f>SUM(D14:D15)</f>
         <v>52.195</v>
       </c>
-      <c r="E13" s="20">
+      <c r="E13" s="16">
         <f>C13-D13</f>
         <v>-27.766999999999999</v>
       </c>
-      <c r="F13" s="20">
+      <c r="F13" s="16">
         <f>SUM(F14:F15)</f>
         <v>72.199999999999989</v>
       </c>
-      <c r="G13" s="20">
+      <c r="G13" s="16">
         <f>SUM(G14:G15)</f>
         <v>44.5</v>
       </c>
-      <c r="H13" s="20">
+      <c r="H13" s="16">
         <f>F13-G13</f>
         <v>27.699999999999989</v>
       </c>
-      <c r="I13" s="20">
+      <c r="I13" s="16">
         <f>SUM(C13,F13)</f>
         <v>96.627999999999986</v>
       </c>
-      <c r="J13" s="20">
+      <c r="J13" s="16">
         <f t="shared" ref="J13:J15" si="0">SUM(D13,G13)</f>
         <v>96.694999999999993</v>
       </c>
-      <c r="K13" s="22">
+      <c r="K13" s="18">
         <f>SUM(E13,H13)</f>
         <v>-6.7000000000010829E-2</v>
       </c>
-      <c r="L13" s="21">
+      <c r="L13" s="17">
         <f>I13-J13-K13</f>
         <v>3.5527136788005009E-15</v>
       </c>
@@ -7959,44 +7959,44 @@
       <c r="A14" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B14" s="20">
+      <c r="B14" s="16">
         <f t="shared" ref="B14:B15" si="1">F14-C14</f>
         <v>27.338999999999999</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C14" s="16">
         <v>10.448</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D14" s="16">
         <v>28.266999999999999</v>
       </c>
-      <c r="E14" s="20">
+      <c r="E14" s="16">
         <f t="shared" ref="E14:E15" si="2">C14-D14</f>
         <v>-17.818999999999999</v>
       </c>
-      <c r="F14" s="20">
+      <c r="F14" s="16">
         <v>37.786999999999999</v>
       </c>
-      <c r="G14" s="20">
+      <c r="G14" s="16">
         <f>F14-17.8</f>
         <v>19.986999999999998</v>
       </c>
-      <c r="H14" s="20">
+      <c r="H14" s="16">
         <f t="shared" ref="H14:H15" si="3">F14-G14</f>
         <v>17.8</v>
       </c>
-      <c r="I14" s="20">
+      <c r="I14" s="16">
         <f>SUM(C14,F14)</f>
         <v>48.234999999999999</v>
       </c>
-      <c r="J14" s="20">
+      <c r="J14" s="16">
         <f t="shared" si="0"/>
         <v>48.253999999999998</v>
       </c>
-      <c r="K14" s="22">
+      <c r="K14" s="18">
         <f>SUM(E14,H14)</f>
         <v>-1.8999999999998352E-2</v>
       </c>
-      <c r="L14" s="21">
+      <c r="L14" s="17">
         <f>I14-J14-K14</f>
         <v>0</v>
       </c>
@@ -8010,44 +8010,44 @@
       <c r="A15" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B15" s="20">
+      <c r="B15" s="16">
         <f t="shared" si="1"/>
         <v>20.432999999999996</v>
       </c>
-      <c r="C15" s="20">
+      <c r="C15" s="16">
         <v>13.98</v>
       </c>
-      <c r="D15" s="20">
+      <c r="D15" s="16">
         <v>23.928000000000001</v>
       </c>
-      <c r="E15" s="20">
+      <c r="E15" s="16">
         <f t="shared" si="2"/>
         <v>-9.9480000000000004</v>
       </c>
-      <c r="F15" s="20">
+      <c r="F15" s="16">
         <v>34.412999999999997</v>
       </c>
-      <c r="G15" s="20">
+      <c r="G15" s="16">
         <f>F15-9.9</f>
         <v>24.512999999999998</v>
       </c>
-      <c r="H15" s="20">
+      <c r="H15" s="16">
         <f t="shared" si="3"/>
         <v>9.8999999999999986</v>
       </c>
-      <c r="I15" s="20">
+      <c r="I15" s="16">
         <f>SUM(C15,F15)</f>
         <v>48.393000000000001</v>
       </c>
-      <c r="J15" s="20">
+      <c r="J15" s="16">
         <f t="shared" si="0"/>
         <v>48.441000000000003</v>
       </c>
-      <c r="K15" s="22">
+      <c r="K15" s="18">
         <f>SUM(E15,H15)</f>
         <v>-4.8000000000001819E-2</v>
       </c>
-      <c r="L15" s="21">
+      <c r="L15" s="17">
         <f>I15-J15-K15</f>
         <v>0</v>
       </c>
@@ -8058,13 +8058,13 @@
       <c r="P15" s="5"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="K16" s="22"/>
+      <c r="K16" s="18"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="K17" s="22"/>
+      <c r="K17" s="18"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
@@ -8077,18 +8077,18 @@
         <f>SUM(D19:D20)</f>
         <v>14.600000000000001</v>
       </c>
-      <c r="E18" s="20"/>
+      <c r="E18" s="16"/>
       <c r="G18" s="5">
         <f>SUM(G19:G20)</f>
         <v>17.8</v>
       </c>
-      <c r="H18" s="20"/>
+      <c r="H18" s="16"/>
       <c r="J18" s="5">
-        <f>SUM(D18,G18)</f>
+        <f t="shared" ref="J18:K21" si="4">SUM(D18,G18)</f>
         <v>32.400000000000006</v>
       </c>
-      <c r="K18" s="22">
-        <f>SUM(E18,H18)</f>
+      <c r="K18" s="18">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L18" s="5">
@@ -8109,16 +8109,16 @@
       <c r="D19" s="5">
         <v>11.8</v>
       </c>
-      <c r="E19" s="20"/>
+      <c r="E19" s="16"/>
       <c r="G19" s="5">
         <v>14.3</v>
       </c>
       <c r="J19" s="5">
-        <f>SUM(D19,G19)</f>
+        <f t="shared" si="4"/>
         <v>26.1</v>
       </c>
-      <c r="K19" s="22">
-        <f>SUM(E19,H19)</f>
+      <c r="K19" s="18">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L19" s="5">
@@ -8142,16 +8142,16 @@
       <c r="D20" s="5">
         <v>2.8</v>
       </c>
-      <c r="E20" s="20"/>
+      <c r="E20" s="16"/>
       <c r="G20" s="5">
         <v>3.5</v>
       </c>
       <c r="J20" s="5">
-        <f>SUM(D20,G20)</f>
+        <f t="shared" si="4"/>
         <v>6.3</v>
       </c>
-      <c r="K20" s="22">
-        <f>SUM(E20,H20)</f>
+      <c r="K20" s="18">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L20" s="5">
@@ -8184,11 +8184,11 @@
         <v>0</v>
       </c>
       <c r="J21" s="5">
-        <f>SUM(D21,G21)</f>
+        <f t="shared" si="4"/>
         <v>1.4</v>
       </c>
-      <c r="K21" s="22">
-        <f>SUM(E21,H21)</f>
+      <c r="K21" s="18">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L21" s="5">
@@ -8202,7 +8202,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
-      <c r="K22" s="22"/>
+      <c r="K22" s="18"/>
       <c r="N22" s="1"/>
       <c r="O22"/>
     </row>
@@ -8232,15 +8232,15 @@
         <v>0</v>
       </c>
       <c r="I23" s="5">
-        <f>SUM(C23,F23)</f>
+        <f t="shared" ref="I23:K25" si="5">SUM(C23,F23)</f>
         <v>1.3</v>
       </c>
       <c r="J23" s="5">
-        <f>SUM(D23,G23)</f>
+        <f t="shared" si="5"/>
         <v>1.3</v>
       </c>
-      <c r="K23" s="22">
-        <f>SUM(E23,H23)</f>
+      <c r="K23" s="18">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L23" s="5">
@@ -8268,15 +8268,15 @@
         <v>8.1</v>
       </c>
       <c r="I24" s="5">
-        <f>SUM(C24,F24)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J24" s="5">
-        <f>SUM(D24,G24)</f>
+        <f t="shared" si="5"/>
         <v>14.8</v>
       </c>
-      <c r="K24" s="22">
-        <f>SUM(E24,H24)</f>
+      <c r="K24" s="18">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L24" s="5">
@@ -8307,15 +8307,15 @@
         <v>99.4</v>
       </c>
       <c r="I25" s="5">
-        <f>SUM(C25,F25)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J25" s="5">
-        <f>SUM(D25,G25)</f>
+        <f t="shared" si="5"/>
         <v>114.60000000000001</v>
       </c>
-      <c r="K25" s="22">
-        <f>SUM(E25,H25)</f>
+      <c r="K25" s="18">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L25" s="5">
@@ -8327,39 +8327,39 @@
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="H26" s="12" t="s">
+      <c r="H26" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="14">
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="12">
         <f>SUM(L7,L10,L12,L13,L18,L21,L23,L24,L25)</f>
         <v>-1.0000000000000284</v>
       </c>
-      <c r="M26" s="18"/>
+      <c r="M26" s="15"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="H27" s="15"/>
-      <c r="I27" s="16">
+      <c r="H27" s="22"/>
+      <c r="I27" s="13">
         <f>SUM(I23:I25,I21,I18,I7)</f>
         <v>163.5</v>
       </c>
-      <c r="J27" s="16">
+      <c r="J27" s="13">
         <f>SUM(J23:J25,J21,J18,J7)</f>
         <v>164.50000000000003</v>
       </c>
-      <c r="K27" s="24">
+      <c r="K27" s="20">
         <f>SUM(K7,K10,K12,K13,K18,K21,K23,K24,K25)</f>
         <v>-6.7000000000014381E-2</v>
       </c>
-      <c r="L27" s="17">
+      <c r="L27" s="14">
         <f>I27-J27-K27</f>
         <v>-0.93300000000001404</v>
       </c>
-      <c r="M27" s="18"/>
-      <c r="O27" s="11"/>
-      <c r="P27" s="11"/>
+      <c r="M27" s="15"/>
+      <c r="O27" s="24"/>
+      <c r="P27" s="24"/>
       <c r="Q27" s="9"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
@@ -8371,8 +8371,8 @@
         <f>4.319+1.968</f>
         <v>6.2869999999999999</v>
       </c>
-      <c r="O29" s="11"/>
-      <c r="P29" s="11"/>
+      <c r="O29" s="24"/>
+      <c r="P29" s="24"/>
       <c r="Q29" s="9"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
@@ -8380,77 +8380,81 @@
       <c r="Q30" s="6"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="O31" s="11"/>
-      <c r="P31" s="11"/>
+      <c r="O31" s="24"/>
+      <c r="P31" s="24"/>
       <c r="Q31" s="9"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="O32" s="6"/>
       <c r="Q32" s="6"/>
     </row>
-    <row r="33" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O33" s="11"/>
-      <c r="P33" s="11"/>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O33" s="24"/>
+      <c r="P33" s="24"/>
       <c r="Q33" s="9"/>
     </row>
-    <row r="34" spans="15:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="O34" s="6"/>
       <c r="Q34" s="6"/>
     </row>
-    <row r="35" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O35" s="11"/>
-      <c r="P35" s="11"/>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O35" s="24"/>
+      <c r="P35" s="24"/>
       <c r="Q35" s="9"/>
     </row>
-    <row r="36" spans="15:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36" s="5">
+        <f>6.7+15.2+15-15-5-1.8</f>
+        <v>15.099999999999998</v>
+      </c>
       <c r="O36" s="6"/>
       <c r="Q36" s="6"/>
     </row>
-    <row r="37" spans="15:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="O37" s="6"/>
       <c r="Q37" s="6"/>
     </row>
-    <row r="38" spans="15:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="O38" s="6"/>
       <c r="Q38" s="6"/>
     </row>
-    <row r="39" spans="15:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="O39" s="6"/>
       <c r="Q39" s="6"/>
     </row>
-    <row r="40" spans="15:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="O40" s="6"/>
       <c r="Q40" s="6"/>
     </row>
-    <row r="41" spans="15:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="O41" s="6"/>
       <c r="Q41" s="6"/>
     </row>
-    <row r="42" spans="15:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="O42" s="6"/>
       <c r="Q42" s="6"/>
     </row>
-    <row r="43" spans="15:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="O43" s="6"/>
       <c r="Q43" s="6"/>
     </row>
-    <row r="44" spans="15:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="O44" s="6"/>
       <c r="Q44" s="6"/>
     </row>
-    <row r="45" spans="15:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="O45" s="6"/>
       <c r="Q45" s="6"/>
     </row>
-    <row r="46" spans="15:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="O46" s="6"/>
       <c r="Q46" s="6"/>
     </row>
-    <row r="47" spans="15:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="O47" s="6"/>
       <c r="Q47" s="6"/>
     </row>
-    <row r="48" spans="15:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="O48" s="6"/>
       <c r="Q48" s="6"/>
     </row>
@@ -8487,8 +8491,8 @@
       <c r="Q56" s="6"/>
     </row>
     <row r="57" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O57" s="11"/>
-      <c r="P57" s="11"/>
+      <c r="O57" s="24"/>
+      <c r="P57" s="24"/>
       <c r="Q57" s="9"/>
     </row>
     <row r="58" spans="15:17" x14ac:dyDescent="0.25">
@@ -8576,8 +8580,8 @@
       <c r="Q78" s="6"/>
     </row>
     <row r="79" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O79" s="11"/>
-      <c r="P79" s="11"/>
+      <c r="O79" s="24"/>
+      <c r="P79" s="24"/>
       <c r="Q79" s="9"/>
     </row>
     <row r="80" spans="15:17" x14ac:dyDescent="0.25">
@@ -8665,8 +8669,8 @@
       <c r="Q100" s="6"/>
     </row>
     <row r="101" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O101" s="11"/>
-      <c r="P101" s="11"/>
+      <c r="O101" s="24"/>
+      <c r="P101" s="24"/>
       <c r="Q101" s="9"/>
     </row>
     <row r="102" spans="15:17" x14ac:dyDescent="0.25">
@@ -8714,8 +8718,8 @@
       <c r="Q112" s="6"/>
     </row>
     <row r="113" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O113" s="11"/>
-      <c r="P113" s="11"/>
+      <c r="O113" s="24"/>
+      <c r="P113" s="24"/>
       <c r="Q113" s="9"/>
     </row>
     <row r="114" spans="15:17" x14ac:dyDescent="0.25">
@@ -8763,8 +8767,8 @@
       <c r="Q124" s="6"/>
     </row>
     <row r="125" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O125" s="11"/>
-      <c r="P125" s="11"/>
+      <c r="O125" s="24"/>
+      <c r="P125" s="24"/>
       <c r="Q125" s="9"/>
     </row>
     <row r="126" spans="15:17" x14ac:dyDescent="0.25">
@@ -8772,8 +8776,8 @@
       <c r="Q126" s="6"/>
     </row>
     <row r="127" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O127" s="11"/>
-      <c r="P127" s="11"/>
+      <c r="O127" s="24"/>
+      <c r="P127" s="24"/>
       <c r="Q127" s="9"/>
     </row>
     <row r="128" spans="15:17" x14ac:dyDescent="0.25">
@@ -8805,8 +8809,8 @@
       <c r="Q134" s="6"/>
     </row>
     <row r="135" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O135" s="11"/>
-      <c r="P135" s="11"/>
+      <c r="O135" s="24"/>
+      <c r="P135" s="24"/>
       <c r="Q135" s="9"/>
     </row>
     <row r="136" spans="15:17" x14ac:dyDescent="0.25">
@@ -8854,8 +8858,8 @@
       <c r="Q146" s="6"/>
     </row>
     <row r="147" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O147" s="11"/>
-      <c r="P147" s="11"/>
+      <c r="O147" s="24"/>
+      <c r="P147" s="24"/>
       <c r="Q147" s="9"/>
     </row>
     <row r="148" spans="15:17" x14ac:dyDescent="0.25">
@@ -8903,8 +8907,8 @@
       <c r="Q158" s="6"/>
     </row>
     <row r="159" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O159" s="11"/>
-      <c r="P159" s="11"/>
+      <c r="O159" s="24"/>
+      <c r="P159" s="24"/>
       <c r="Q159" s="9"/>
     </row>
     <row r="160" spans="15:17" x14ac:dyDescent="0.25">
@@ -8956,8 +8960,8 @@
       <c r="Q171" s="6"/>
     </row>
     <row r="172" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O172" s="11"/>
-      <c r="P172" s="11"/>
+      <c r="O172" s="24"/>
+      <c r="P172" s="24"/>
       <c r="Q172" s="9"/>
     </row>
     <row r="173" spans="15:17" x14ac:dyDescent="0.25">
@@ -9005,8 +9009,8 @@
       <c r="Q183" s="6"/>
     </row>
     <row r="184" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O184" s="11"/>
-      <c r="P184" s="11"/>
+      <c r="O184" s="24"/>
+      <c r="P184" s="24"/>
       <c r="Q184" s="9"/>
     </row>
     <row r="185" spans="15:17" x14ac:dyDescent="0.25">
@@ -9054,8 +9058,8 @@
       <c r="Q195" s="6"/>
     </row>
     <row r="196" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O196" s="11"/>
-      <c r="P196" s="11"/>
+      <c r="O196" s="24"/>
+      <c r="P196" s="24"/>
       <c r="Q196" s="9"/>
     </row>
     <row r="197" spans="15:17" x14ac:dyDescent="0.25">
@@ -9103,8 +9107,8 @@
       <c r="Q207" s="6"/>
     </row>
     <row r="208" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O208" s="11"/>
-      <c r="P208" s="11"/>
+      <c r="O208" s="24"/>
+      <c r="P208" s="24"/>
       <c r="Q208" s="9"/>
     </row>
     <row r="209" spans="15:17" x14ac:dyDescent="0.25">
@@ -9152,8 +9156,8 @@
       <c r="Q219" s="6"/>
     </row>
     <row r="220" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O220" s="11"/>
-      <c r="P220" s="11"/>
+      <c r="O220" s="24"/>
+      <c r="P220" s="24"/>
       <c r="Q220" s="9"/>
     </row>
     <row r="221" spans="15:17" x14ac:dyDescent="0.25">
@@ -9201,8 +9205,8 @@
       <c r="Q231" s="6"/>
     </row>
     <row r="232" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O232" s="11"/>
-      <c r="P232" s="11"/>
+      <c r="O232" s="24"/>
+      <c r="P232" s="24"/>
       <c r="Q232" s="9"/>
     </row>
     <row r="233" spans="15:17" x14ac:dyDescent="0.25">
@@ -9250,8 +9254,8 @@
       <c r="Q243" s="6"/>
     </row>
     <row r="244" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O244" s="11"/>
-      <c r="P244" s="11"/>
+      <c r="O244" s="24"/>
+      <c r="P244" s="24"/>
       <c r="Q244" s="9"/>
     </row>
     <row r="245" spans="15:17" x14ac:dyDescent="0.25">
@@ -9315,8 +9319,8 @@
       <c r="Q259" s="6"/>
     </row>
     <row r="260" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O260" s="11"/>
-      <c r="P260" s="11"/>
+      <c r="O260" s="24"/>
+      <c r="P260" s="24"/>
       <c r="Q260" s="9"/>
     </row>
     <row r="261" spans="15:17" x14ac:dyDescent="0.25">
@@ -9364,8 +9368,8 @@
       <c r="Q271" s="6"/>
     </row>
     <row r="272" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O272" s="11"/>
-      <c r="P272" s="11"/>
+      <c r="O272" s="24"/>
+      <c r="P272" s="24"/>
       <c r="Q272" s="9"/>
     </row>
     <row r="273" spans="15:17" x14ac:dyDescent="0.25">
@@ -9413,8 +9417,8 @@
       <c r="Q283" s="6"/>
     </row>
     <row r="284" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O284" s="11"/>
-      <c r="P284" s="11"/>
+      <c r="O284" s="24"/>
+      <c r="P284" s="24"/>
       <c r="Q284" s="9"/>
     </row>
     <row r="285" spans="15:17" x14ac:dyDescent="0.25">
@@ -9462,8 +9466,8 @@
       <c r="Q295" s="6"/>
     </row>
     <row r="296" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O296" s="11"/>
-      <c r="P296" s="11"/>
+      <c r="O296" s="24"/>
+      <c r="P296" s="24"/>
       <c r="Q296" s="9"/>
     </row>
     <row r="297" spans="15:17" x14ac:dyDescent="0.25">
@@ -9511,8 +9515,8 @@
       <c r="Q307" s="6"/>
     </row>
     <row r="308" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O308" s="11"/>
-      <c r="P308" s="11"/>
+      <c r="O308" s="24"/>
+      <c r="P308" s="24"/>
       <c r="Q308" s="9"/>
     </row>
     <row r="309" spans="15:17" x14ac:dyDescent="0.25">
@@ -9524,8 +9528,8 @@
       <c r="Q310" s="6"/>
     </row>
     <row r="311" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O311" s="11"/>
-      <c r="P311" s="11"/>
+      <c r="O311" s="24"/>
+      <c r="P311" s="24"/>
       <c r="Q311" s="9"/>
     </row>
     <row r="312" spans="15:17" x14ac:dyDescent="0.25">
@@ -9533,8 +9537,8 @@
       <c r="Q312" s="6"/>
     </row>
     <row r="313" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O313" s="11"/>
-      <c r="P313" s="11"/>
+      <c r="O313" s="24"/>
+      <c r="P313" s="24"/>
       <c r="Q313" s="9"/>
     </row>
     <row r="314" spans="15:17" x14ac:dyDescent="0.25">
@@ -9542,8 +9546,8 @@
       <c r="Q314" s="6"/>
     </row>
     <row r="315" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O315" s="11"/>
-      <c r="P315" s="11"/>
+      <c r="O315" s="24"/>
+      <c r="P315" s="24"/>
       <c r="Q315" s="9"/>
     </row>
     <row r="316" spans="15:17" x14ac:dyDescent="0.25">
@@ -9559,8 +9563,8 @@
       <c r="Q318" s="6"/>
     </row>
     <row r="319" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O319" s="11"/>
-      <c r="P319" s="11"/>
+      <c r="O319" s="24"/>
+      <c r="P319" s="24"/>
       <c r="Q319" s="9"/>
     </row>
     <row r="320" spans="15:17" x14ac:dyDescent="0.25">
@@ -9580,8 +9584,8 @@
       <c r="Q323" s="6"/>
     </row>
     <row r="324" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O324" s="11"/>
-      <c r="P324" s="11"/>
+      <c r="O324" s="24"/>
+      <c r="P324" s="24"/>
       <c r="Q324" s="9"/>
     </row>
     <row r="325" spans="15:17" x14ac:dyDescent="0.25">
@@ -9589,8 +9593,8 @@
       <c r="Q325" s="6"/>
     </row>
     <row r="326" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O326" s="11"/>
-      <c r="P326" s="11"/>
+      <c r="O326" s="24"/>
+      <c r="P326" s="24"/>
       <c r="Q326" s="9"/>
     </row>
     <row r="327" spans="15:17" x14ac:dyDescent="0.25">
@@ -9598,8 +9602,8 @@
       <c r="Q327" s="6"/>
     </row>
     <row r="328" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O328" s="11"/>
-      <c r="P328" s="11"/>
+      <c r="O328" s="24"/>
+      <c r="P328" s="24"/>
       <c r="Q328" s="9"/>
     </row>
     <row r="329" spans="15:17" x14ac:dyDescent="0.25">
@@ -9607,8 +9611,8 @@
       <c r="Q329" s="6"/>
     </row>
     <row r="330" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O330" s="11"/>
-      <c r="P330" s="11"/>
+      <c r="O330" s="24"/>
+      <c r="P330" s="24"/>
       <c r="Q330" s="9"/>
     </row>
     <row r="331" spans="15:17" x14ac:dyDescent="0.25">
@@ -9616,8 +9620,8 @@
       <c r="Q331" s="6"/>
     </row>
     <row r="332" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O332" s="11"/>
-      <c r="P332" s="11"/>
+      <c r="O332" s="24"/>
+      <c r="P332" s="24"/>
       <c r="Q332" s="9"/>
     </row>
     <row r="333" spans="15:17" x14ac:dyDescent="0.25">
@@ -9693,8 +9697,8 @@
       <c r="Q350" s="6"/>
     </row>
     <row r="351" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O351" s="11"/>
-      <c r="P351" s="11"/>
+      <c r="O351" s="24"/>
+      <c r="P351" s="24"/>
       <c r="Q351" s="9"/>
     </row>
     <row r="352" spans="15:17" x14ac:dyDescent="0.25">
@@ -9770,8 +9774,8 @@
       <c r="Q369" s="6"/>
     </row>
     <row r="370" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O370" s="11"/>
-      <c r="P370" s="11"/>
+      <c r="O370" s="24"/>
+      <c r="P370" s="24"/>
       <c r="Q370" s="9"/>
     </row>
     <row r="371" spans="15:17" x14ac:dyDescent="0.25">
@@ -9847,8 +9851,8 @@
       <c r="Q388" s="6"/>
     </row>
     <row r="389" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O389" s="11"/>
-      <c r="P389" s="11"/>
+      <c r="O389" s="24"/>
+      <c r="P389" s="24"/>
       <c r="Q389" s="9"/>
     </row>
     <row r="390" spans="15:17" x14ac:dyDescent="0.25">
@@ -9924,8 +9928,8 @@
       <c r="Q407" s="6"/>
     </row>
     <row r="408" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O408" s="11"/>
-      <c r="P408" s="11"/>
+      <c r="O408" s="24"/>
+      <c r="P408" s="24"/>
       <c r="Q408" s="9"/>
     </row>
     <row r="409" spans="15:17" x14ac:dyDescent="0.25">
@@ -10001,8 +10005,8 @@
       <c r="Q426" s="6"/>
     </row>
     <row r="427" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O427" s="11"/>
-      <c r="P427" s="11"/>
+      <c r="O427" s="24"/>
+      <c r="P427" s="24"/>
       <c r="Q427" s="9"/>
     </row>
     <row r="428" spans="15:17" x14ac:dyDescent="0.25">
@@ -10078,8 +10082,8 @@
       <c r="Q445" s="6"/>
     </row>
     <row r="446" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O446" s="11"/>
-      <c r="P446" s="11"/>
+      <c r="O446" s="24"/>
+      <c r="P446" s="24"/>
       <c r="Q446" s="9"/>
     </row>
     <row r="447" spans="15:17" x14ac:dyDescent="0.25">
@@ -10155,8 +10159,8 @@
       <c r="Q464" s="6"/>
     </row>
     <row r="465" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O465" s="11"/>
-      <c r="P465" s="11"/>
+      <c r="O465" s="24"/>
+      <c r="P465" s="24"/>
       <c r="Q465" s="9"/>
     </row>
     <row r="466" spans="15:17" x14ac:dyDescent="0.25">
@@ -10232,8 +10236,8 @@
       <c r="Q483" s="6"/>
     </row>
     <row r="484" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O484" s="11"/>
-      <c r="P484" s="11"/>
+      <c r="O484" s="24"/>
+      <c r="P484" s="24"/>
       <c r="Q484" s="9"/>
     </row>
     <row r="485" spans="15:17" x14ac:dyDescent="0.25">
@@ -10321,8 +10325,8 @@
       <c r="Q505" s="6"/>
     </row>
     <row r="506" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O506" s="11"/>
-      <c r="P506" s="11"/>
+      <c r="O506" s="24"/>
+      <c r="P506" s="24"/>
       <c r="Q506" s="9"/>
     </row>
     <row r="507" spans="15:17" x14ac:dyDescent="0.25">
@@ -10398,8 +10402,8 @@
       <c r="Q524" s="6"/>
     </row>
     <row r="525" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O525" s="11"/>
-      <c r="P525" s="11"/>
+      <c r="O525" s="24"/>
+      <c r="P525" s="24"/>
       <c r="Q525" s="9"/>
     </row>
     <row r="526" spans="15:17" x14ac:dyDescent="0.25">
@@ -10475,8 +10479,8 @@
       <c r="Q543" s="6"/>
     </row>
     <row r="544" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O544" s="11"/>
-      <c r="P544" s="11"/>
+      <c r="O544" s="24"/>
+      <c r="P544" s="24"/>
       <c r="Q544" s="9"/>
     </row>
     <row r="545" spans="15:17" x14ac:dyDescent="0.25">
@@ -10552,8 +10556,8 @@
       <c r="Q562" s="6"/>
     </row>
     <row r="563" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O563" s="11"/>
-      <c r="P563" s="11"/>
+      <c r="O563" s="24"/>
+      <c r="P563" s="24"/>
       <c r="Q563" s="9"/>
     </row>
     <row r="564" spans="15:17" x14ac:dyDescent="0.25">
@@ -10629,8 +10633,8 @@
       <c r="Q581" s="6"/>
     </row>
     <row r="582" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O582" s="11"/>
-      <c r="P582" s="11"/>
+      <c r="O582" s="24"/>
+      <c r="P582" s="24"/>
       <c r="Q582" s="9"/>
     </row>
     <row r="583" spans="15:17" x14ac:dyDescent="0.25">
@@ -10666,8 +10670,8 @@
       <c r="Q590" s="6"/>
     </row>
     <row r="591" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O591" s="11"/>
-      <c r="P591" s="11"/>
+      <c r="O591" s="24"/>
+      <c r="P591" s="24"/>
       <c r="Q591" s="9"/>
     </row>
     <row r="592" spans="15:17" x14ac:dyDescent="0.25">
@@ -10675,8 +10679,8 @@
       <c r="Q592" s="6"/>
     </row>
     <row r="593" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O593" s="11"/>
-      <c r="P593" s="11"/>
+      <c r="O593" s="24"/>
+      <c r="P593" s="24"/>
       <c r="Q593" s="9"/>
     </row>
     <row r="594" spans="15:17" x14ac:dyDescent="0.25">
@@ -10688,8 +10692,8 @@
       <c r="Q595" s="6"/>
     </row>
     <row r="596" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O596" s="11"/>
-      <c r="P596" s="11"/>
+      <c r="O596" s="24"/>
+      <c r="P596" s="24"/>
       <c r="Q596" s="9"/>
     </row>
     <row r="597" spans="15:17" x14ac:dyDescent="0.25">
@@ -10697,8 +10701,8 @@
       <c r="Q597" s="6"/>
     </row>
     <row r="598" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O598" s="11"/>
-      <c r="P598" s="11"/>
+      <c r="O598" s="24"/>
+      <c r="P598" s="24"/>
       <c r="Q598" s="9"/>
     </row>
     <row r="599" spans="15:17" x14ac:dyDescent="0.25">
@@ -10778,8 +10782,8 @@
       <c r="Q617" s="6"/>
     </row>
     <row r="618" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O618" s="11"/>
-      <c r="P618" s="11"/>
+      <c r="O618" s="24"/>
+      <c r="P618" s="24"/>
       <c r="Q618" s="9"/>
     </row>
     <row r="619" spans="15:17" x14ac:dyDescent="0.25">
@@ -10819,8 +10823,8 @@
       <c r="Q627" s="6"/>
     </row>
     <row r="628" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O628" s="11"/>
-      <c r="P628" s="11"/>
+      <c r="O628" s="24"/>
+      <c r="P628" s="24"/>
       <c r="Q628" s="9"/>
     </row>
     <row r="629" spans="15:17" x14ac:dyDescent="0.25">
@@ -10884,8 +10888,8 @@
       <c r="Q643" s="6"/>
     </row>
     <row r="644" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O644" s="11"/>
-      <c r="P644" s="11"/>
+      <c r="O644" s="24"/>
+      <c r="P644" s="24"/>
       <c r="Q644" s="9"/>
     </row>
     <row r="645" spans="15:17" x14ac:dyDescent="0.25">
@@ -10909,8 +10913,8 @@
       <c r="Q649" s="6"/>
     </row>
     <row r="650" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O650" s="11"/>
-      <c r="P650" s="11"/>
+      <c r="O650" s="24"/>
+      <c r="P650" s="24"/>
       <c r="Q650" s="9"/>
     </row>
     <row r="651" spans="15:17" x14ac:dyDescent="0.25">
@@ -10918,8 +10922,8 @@
       <c r="Q651" s="6"/>
     </row>
     <row r="652" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O652" s="11"/>
-      <c r="P652" s="11"/>
+      <c r="O652" s="24"/>
+      <c r="P652" s="24"/>
       <c r="Q652" s="9"/>
     </row>
     <row r="653" spans="15:17" x14ac:dyDescent="0.25">
@@ -10927,8 +10931,8 @@
       <c r="Q653" s="6"/>
     </row>
     <row r="654" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O654" s="11"/>
-      <c r="P654" s="11"/>
+      <c r="O654" s="24"/>
+      <c r="P654" s="24"/>
       <c r="Q654" s="9"/>
     </row>
     <row r="655" spans="15:17" x14ac:dyDescent="0.25">
@@ -10936,8 +10940,8 @@
       <c r="Q655" s="6"/>
     </row>
     <row r="656" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O656" s="11"/>
-      <c r="P656" s="11"/>
+      <c r="O656" s="24"/>
+      <c r="P656" s="24"/>
       <c r="Q656" s="9"/>
     </row>
     <row r="657" spans="15:17" x14ac:dyDescent="0.25">
@@ -10945,8 +10949,8 @@
       <c r="Q657" s="6"/>
     </row>
     <row r="658" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O658" s="11"/>
-      <c r="P658" s="11"/>
+      <c r="O658" s="24"/>
+      <c r="P658" s="24"/>
       <c r="Q658" s="9"/>
     </row>
     <row r="659" spans="15:17" x14ac:dyDescent="0.25">
@@ -10954,8 +10958,8 @@
       <c r="Q659" s="6"/>
     </row>
     <row r="660" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O660" s="11"/>
-      <c r="P660" s="11"/>
+      <c r="O660" s="24"/>
+      <c r="P660" s="24"/>
       <c r="Q660" s="9"/>
     </row>
     <row r="661" spans="15:17" x14ac:dyDescent="0.25">
@@ -10963,8 +10967,8 @@
       <c r="Q661" s="6"/>
     </row>
     <row r="662" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O662" s="11"/>
-      <c r="P662" s="11"/>
+      <c r="O662" s="24"/>
+      <c r="P662" s="24"/>
       <c r="Q662" s="9"/>
     </row>
     <row r="663" spans="15:17" x14ac:dyDescent="0.25">
@@ -10972,8 +10976,8 @@
       <c r="Q663" s="6"/>
     </row>
     <row r="664" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O664" s="11"/>
-      <c r="P664" s="11"/>
+      <c r="O664" s="24"/>
+      <c r="P664" s="24"/>
       <c r="Q664" s="9"/>
     </row>
     <row r="665" spans="15:17" x14ac:dyDescent="0.25">
@@ -10981,8 +10985,8 @@
       <c r="Q665" s="6"/>
     </row>
     <row r="666" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O666" s="11"/>
-      <c r="P666" s="11"/>
+      <c r="O666" s="24"/>
+      <c r="P666" s="24"/>
       <c r="Q666" s="9"/>
     </row>
     <row r="667" spans="15:17" x14ac:dyDescent="0.25">
@@ -10990,8 +10994,8 @@
       <c r="Q667" s="6"/>
     </row>
     <row r="668" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O668" s="11"/>
-      <c r="P668" s="11"/>
+      <c r="O668" s="24"/>
+      <c r="P668" s="24"/>
       <c r="Q668" s="9"/>
     </row>
     <row r="669" spans="15:17" x14ac:dyDescent="0.25">
@@ -10999,8 +11003,8 @@
       <c r="Q669" s="6"/>
     </row>
     <row r="670" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O670" s="11"/>
-      <c r="P670" s="11"/>
+      <c r="O670" s="24"/>
+      <c r="P670" s="24"/>
       <c r="Q670" s="9"/>
     </row>
     <row r="671" spans="15:17" x14ac:dyDescent="0.25">
@@ -11008,8 +11012,8 @@
       <c r="Q671" s="6"/>
     </row>
     <row r="672" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O672" s="11"/>
-      <c r="P672" s="11"/>
+      <c r="O672" s="24"/>
+      <c r="P672" s="24"/>
       <c r="Q672" s="9"/>
     </row>
     <row r="673" spans="15:17" x14ac:dyDescent="0.25">
@@ -11017,8 +11021,8 @@
       <c r="Q673" s="6"/>
     </row>
     <row r="674" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O674" s="11"/>
-      <c r="P674" s="11"/>
+      <c r="O674" s="24"/>
+      <c r="P674" s="24"/>
       <c r="Q674" s="9"/>
     </row>
     <row r="675" spans="15:17" x14ac:dyDescent="0.25">
@@ -11026,8 +11030,8 @@
       <c r="Q675" s="6"/>
     </row>
     <row r="676" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O676" s="11"/>
-      <c r="P676" s="11"/>
+      <c r="O676" s="24"/>
+      <c r="P676" s="24"/>
       <c r="Q676" s="9"/>
     </row>
     <row r="677" spans="15:17" x14ac:dyDescent="0.25">
@@ -11035,8 +11039,8 @@
       <c r="Q677" s="6"/>
     </row>
     <row r="678" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O678" s="11"/>
-      <c r="P678" s="11"/>
+      <c r="O678" s="24"/>
+      <c r="P678" s="24"/>
       <c r="Q678" s="9"/>
     </row>
     <row r="679" spans="15:17" x14ac:dyDescent="0.25">
@@ -11068,8 +11072,8 @@
       <c r="Q685" s="6"/>
     </row>
     <row r="686" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O686" s="11"/>
-      <c r="P686" s="11"/>
+      <c r="O686" s="24"/>
+      <c r="P686" s="24"/>
       <c r="Q686" s="9"/>
     </row>
     <row r="687" spans="15:17" x14ac:dyDescent="0.25">
@@ -11077,8 +11081,8 @@
       <c r="Q687" s="6"/>
     </row>
     <row r="688" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O688" s="11"/>
-      <c r="P688" s="11"/>
+      <c r="O688" s="24"/>
+      <c r="P688" s="24"/>
       <c r="Q688" s="9"/>
     </row>
     <row r="689" spans="15:17" x14ac:dyDescent="0.25">
@@ -11090,66 +11094,6 @@
     </row>
   </sheetData>
   <mergeCells count="76">
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="O686:P686"/>
-    <mergeCell ref="O688:P688"/>
-    <mergeCell ref="O668:P668"/>
-    <mergeCell ref="O670:P670"/>
-    <mergeCell ref="O672:P672"/>
-    <mergeCell ref="O674:P674"/>
-    <mergeCell ref="O676:P676"/>
-    <mergeCell ref="O678:P678"/>
-    <mergeCell ref="O666:P666"/>
-    <mergeCell ref="O618:P618"/>
-    <mergeCell ref="O628:P628"/>
-    <mergeCell ref="O644:P644"/>
-    <mergeCell ref="O650:P650"/>
-    <mergeCell ref="O652:P652"/>
-    <mergeCell ref="O654:P654"/>
-    <mergeCell ref="O656:P656"/>
-    <mergeCell ref="O658:P658"/>
-    <mergeCell ref="O660:P660"/>
-    <mergeCell ref="O662:P662"/>
-    <mergeCell ref="O664:P664"/>
-    <mergeCell ref="O598:P598"/>
-    <mergeCell ref="O446:P446"/>
-    <mergeCell ref="O465:P465"/>
-    <mergeCell ref="O484:P484"/>
-    <mergeCell ref="O506:P506"/>
-    <mergeCell ref="O525:P525"/>
-    <mergeCell ref="O544:P544"/>
-    <mergeCell ref="O563:P563"/>
-    <mergeCell ref="O582:P582"/>
-    <mergeCell ref="O591:P591"/>
-    <mergeCell ref="O593:P593"/>
-    <mergeCell ref="O596:P596"/>
-    <mergeCell ref="O427:P427"/>
-    <mergeCell ref="O315:P315"/>
-    <mergeCell ref="O319:P319"/>
-    <mergeCell ref="O324:P324"/>
-    <mergeCell ref="O326:P326"/>
-    <mergeCell ref="O328:P328"/>
-    <mergeCell ref="O330:P330"/>
-    <mergeCell ref="O332:P332"/>
-    <mergeCell ref="O351:P351"/>
-    <mergeCell ref="O370:P370"/>
-    <mergeCell ref="O389:P389"/>
-    <mergeCell ref="O408:P408"/>
-    <mergeCell ref="O313:P313"/>
-    <mergeCell ref="O196:P196"/>
-    <mergeCell ref="O208:P208"/>
-    <mergeCell ref="O220:P220"/>
-    <mergeCell ref="O232:P232"/>
-    <mergeCell ref="O244:P244"/>
-    <mergeCell ref="O260:P260"/>
-    <mergeCell ref="O272:P272"/>
-    <mergeCell ref="O284:P284"/>
-    <mergeCell ref="O296:P296"/>
-    <mergeCell ref="O308:P308"/>
-    <mergeCell ref="O311:P311"/>
     <mergeCell ref="O33:P33"/>
     <mergeCell ref="O27:P27"/>
     <mergeCell ref="O29:P29"/>
@@ -11166,6 +11110,66 @@
     <mergeCell ref="O147:P147"/>
     <mergeCell ref="O159:P159"/>
     <mergeCell ref="O172:P172"/>
+    <mergeCell ref="O313:P313"/>
+    <mergeCell ref="O196:P196"/>
+    <mergeCell ref="O208:P208"/>
+    <mergeCell ref="O220:P220"/>
+    <mergeCell ref="O232:P232"/>
+    <mergeCell ref="O244:P244"/>
+    <mergeCell ref="O260:P260"/>
+    <mergeCell ref="O272:P272"/>
+    <mergeCell ref="O284:P284"/>
+    <mergeCell ref="O296:P296"/>
+    <mergeCell ref="O308:P308"/>
+    <mergeCell ref="O311:P311"/>
+    <mergeCell ref="O427:P427"/>
+    <mergeCell ref="O315:P315"/>
+    <mergeCell ref="O319:P319"/>
+    <mergeCell ref="O324:P324"/>
+    <mergeCell ref="O326:P326"/>
+    <mergeCell ref="O328:P328"/>
+    <mergeCell ref="O330:P330"/>
+    <mergeCell ref="O332:P332"/>
+    <mergeCell ref="O351:P351"/>
+    <mergeCell ref="O370:P370"/>
+    <mergeCell ref="O389:P389"/>
+    <mergeCell ref="O408:P408"/>
+    <mergeCell ref="O664:P664"/>
+    <mergeCell ref="O598:P598"/>
+    <mergeCell ref="O446:P446"/>
+    <mergeCell ref="O465:P465"/>
+    <mergeCell ref="O484:P484"/>
+    <mergeCell ref="O506:P506"/>
+    <mergeCell ref="O525:P525"/>
+    <mergeCell ref="O544:P544"/>
+    <mergeCell ref="O563:P563"/>
+    <mergeCell ref="O582:P582"/>
+    <mergeCell ref="O591:P591"/>
+    <mergeCell ref="O593:P593"/>
+    <mergeCell ref="O596:P596"/>
+    <mergeCell ref="O688:P688"/>
+    <mergeCell ref="O668:P668"/>
+    <mergeCell ref="O670:P670"/>
+    <mergeCell ref="O672:P672"/>
+    <mergeCell ref="O674:P674"/>
+    <mergeCell ref="O676:P676"/>
+    <mergeCell ref="O678:P678"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="O686:P686"/>
+    <mergeCell ref="O666:P666"/>
+    <mergeCell ref="O618:P618"/>
+    <mergeCell ref="O628:P628"/>
+    <mergeCell ref="O644:P644"/>
+    <mergeCell ref="O650:P650"/>
+    <mergeCell ref="O652:P652"/>
+    <mergeCell ref="O654:P654"/>
+    <mergeCell ref="O656:P656"/>
+    <mergeCell ref="O658:P658"/>
+    <mergeCell ref="O660:P660"/>
+    <mergeCell ref="O662:P662"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/waterbudget from Historic for Maria.xlsx
+++ b/waterbudget from Historic for Maria.xlsx
@@ -449,6 +449,9 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -457,9 +460,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -898,11 +898,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="87785856"/>
-        <c:axId val="87787392"/>
+        <c:axId val="95379456"/>
+        <c:axId val="95380992"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="87785856"/>
+        <c:axId val="95379456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -911,7 +911,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87787392"/>
+        <c:crossAx val="95380992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -919,7 +919,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="87787392"/>
+        <c:axId val="95380992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -930,7 +930,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87785856"/>
+        <c:crossAx val="95379456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1372,11 +1372,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="67256320"/>
-        <c:axId val="67257856"/>
+        <c:axId val="95411584"/>
+        <c:axId val="95491200"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="67256320"/>
+        <c:axId val="95411584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1385,7 +1385,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67257856"/>
+        <c:crossAx val="95491200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1393,7 +1393,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67257856"/>
+        <c:axId val="95491200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1404,7 +1404,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67256320"/>
+        <c:crossAx val="95411584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1667,11 +1667,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="87840256"/>
-        <c:axId val="87841792"/>
+        <c:axId val="95513984"/>
+        <c:axId val="96334976"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="87840256"/>
+        <c:axId val="95513984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1680,7 +1680,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87841792"/>
+        <c:crossAx val="96334976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1688,7 +1688,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="87841792"/>
+        <c:axId val="96334976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1699,7 +1699,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87840256"/>
+        <c:crossAx val="95513984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7639,10 +7639,10 @@
   <dimension ref="A1:Q690"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="H14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="H30" sqref="H30:H31"/>
+      <selection pane="bottomRight" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7694,21 +7694,21 @@
       <c r="B5" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23" t="s">
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23" t="s">
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4" t="s">
@@ -7905,47 +7905,47 @@
       </c>
       <c r="B13" s="16">
         <f>F13-C13</f>
-        <v>47.771999999999991</v>
+        <v>35.007000000000005</v>
       </c>
       <c r="C13" s="16">
         <f>SUM(C14:C15)</f>
-        <v>24.428000000000001</v>
+        <v>15.7</v>
       </c>
       <c r="D13" s="16">
         <f>SUM(D14:D15)</f>
-        <v>52.195</v>
+        <v>37.26</v>
       </c>
       <c r="E13" s="16">
         <f>C13-D13</f>
-        <v>-27.766999999999999</v>
+        <v>-21.56</v>
       </c>
       <c r="F13" s="16">
         <f>SUM(F14:F15)</f>
-        <v>72.199999999999989</v>
+        <v>50.707000000000001</v>
       </c>
       <c r="G13" s="16">
         <f>SUM(G14:G15)</f>
-        <v>44.5</v>
+        <v>16.579999999999998</v>
       </c>
       <c r="H13" s="16">
         <f>F13-G13</f>
-        <v>27.699999999999989</v>
+        <v>34.127000000000002</v>
       </c>
       <c r="I13" s="16">
         <f>SUM(C13,F13)</f>
-        <v>96.627999999999986</v>
+        <v>66.406999999999996</v>
       </c>
       <c r="J13" s="16">
         <f t="shared" ref="J13:J15" si="0">SUM(D13,G13)</f>
-        <v>96.694999999999993</v>
+        <v>53.839999999999996</v>
       </c>
       <c r="K13" s="18">
         <f>SUM(E13,H13)</f>
-        <v>-6.7000000000010829E-2</v>
+        <v>12.567000000000004</v>
       </c>
       <c r="L13" s="17">
         <f>I13-J13-K13</f>
-        <v>3.5527136788005009E-15</v>
+        <v>0</v>
       </c>
       <c r="N13" s="4" t="s">
         <v>50</v>
@@ -7961,40 +7961,39 @@
       </c>
       <c r="B14" s="16">
         <f t="shared" ref="B14:B15" si="1">F14-C14</f>
-        <v>27.338999999999999</v>
+        <v>27.337</v>
       </c>
       <c r="C14" s="16">
-        <v>10.448</v>
+        <v>10.45</v>
       </c>
       <c r="D14" s="16">
-        <v>28.266999999999999</v>
+        <v>28.27</v>
       </c>
       <c r="E14" s="16">
         <f t="shared" ref="E14:E15" si="2">C14-D14</f>
-        <v>-17.818999999999999</v>
+        <v>-17.82</v>
       </c>
       <c r="F14" s="16">
         <v>37.786999999999999</v>
       </c>
       <c r="G14" s="16">
-        <f>F14-17.8</f>
-        <v>19.986999999999998</v>
+        <v>10.45</v>
       </c>
       <c r="H14" s="16">
         <f t="shared" ref="H14:H15" si="3">F14-G14</f>
-        <v>17.8</v>
+        <v>27.337</v>
       </c>
       <c r="I14" s="16">
         <f>SUM(C14,F14)</f>
-        <v>48.234999999999999</v>
+        <v>48.236999999999995</v>
       </c>
       <c r="J14" s="16">
         <f t="shared" si="0"/>
-        <v>48.253999999999998</v>
+        <v>38.72</v>
       </c>
       <c r="K14" s="18">
         <f>SUM(E14,H14)</f>
-        <v>-1.8999999999998352E-2</v>
+        <v>9.5169999999999995</v>
       </c>
       <c r="L14" s="17">
         <f>I14-J14-K14</f>
@@ -8012,40 +8011,39 @@
       </c>
       <c r="B15" s="16">
         <f t="shared" si="1"/>
-        <v>20.432999999999996</v>
+        <v>7.67</v>
       </c>
       <c r="C15" s="16">
-        <v>13.98</v>
+        <v>5.25</v>
       </c>
       <c r="D15" s="16">
-        <v>23.928000000000001</v>
+        <v>8.99</v>
       </c>
       <c r="E15" s="16">
         <f t="shared" si="2"/>
-        <v>-9.9480000000000004</v>
+        <v>-3.74</v>
       </c>
       <c r="F15" s="16">
-        <v>34.412999999999997</v>
+        <v>12.92</v>
       </c>
       <c r="G15" s="16">
-        <f>F15-9.9</f>
-        <v>24.512999999999998</v>
+        <v>6.13</v>
       </c>
       <c r="H15" s="16">
         <f t="shared" si="3"/>
-        <v>9.8999999999999986</v>
+        <v>6.79</v>
       </c>
       <c r="I15" s="16">
         <f>SUM(C15,F15)</f>
-        <v>48.393000000000001</v>
+        <v>18.170000000000002</v>
       </c>
       <c r="J15" s="16">
         <f t="shared" si="0"/>
-        <v>48.441000000000003</v>
+        <v>15.120000000000001</v>
       </c>
       <c r="K15" s="18">
         <f>SUM(E15,H15)</f>
-        <v>-4.8000000000001819E-2</v>
+        <v>3.05</v>
       </c>
       <c r="L15" s="17">
         <f>I15-J15-K15</f>
@@ -8058,6 +8056,7 @@
       <c r="P15" s="5"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E16" s="16"/>
       <c r="K16" s="18"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
@@ -8327,7 +8326,7 @@
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="H26" s="21" t="s">
+      <c r="H26" s="22" t="s">
         <v>78</v>
       </c>
       <c r="I26" s="11"/>
@@ -8340,7 +8339,7 @@
       <c r="M26" s="15"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="H27" s="22"/>
+      <c r="H27" s="23"/>
       <c r="I27" s="13">
         <f>SUM(I23:I25,I21,I18,I7)</f>
         <v>163.5</v>
@@ -8351,15 +8350,15 @@
       </c>
       <c r="K27" s="20">
         <f>SUM(K7,K10,K12,K13,K18,K21,K23,K24,K25)</f>
-        <v>-6.7000000000014381E-2</v>
+        <v>12.567</v>
       </c>
       <c r="L27" s="14">
         <f>I27-J27-K27</f>
-        <v>-0.93300000000001404</v>
+        <v>-13.567000000000029</v>
       </c>
       <c r="M27" s="15"/>
-      <c r="O27" s="24"/>
-      <c r="P27" s="24"/>
+      <c r="O27" s="21"/>
+      <c r="P27" s="21"/>
       <c r="Q27" s="9"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
@@ -8371,8 +8370,8 @@
         <f>4.319+1.968</f>
         <v>6.2869999999999999</v>
       </c>
-      <c r="O29" s="24"/>
-      <c r="P29" s="24"/>
+      <c r="O29" s="21"/>
+      <c r="P29" s="21"/>
       <c r="Q29" s="9"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
@@ -8380,8 +8379,8 @@
       <c r="Q30" s="6"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="O31" s="24"/>
-      <c r="P31" s="24"/>
+      <c r="O31" s="21"/>
+      <c r="P31" s="21"/>
       <c r="Q31" s="9"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
@@ -8389,8 +8388,8 @@
       <c r="Q32" s="6"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="O33" s="24"/>
-      <c r="P33" s="24"/>
+      <c r="O33" s="21"/>
+      <c r="P33" s="21"/>
       <c r="Q33" s="9"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
@@ -8398,8 +8397,8 @@
       <c r="Q34" s="6"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="O35" s="24"/>
-      <c r="P35" s="24"/>
+      <c r="O35" s="21"/>
+      <c r="P35" s="21"/>
       <c r="Q35" s="9"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
@@ -8491,8 +8490,8 @@
       <c r="Q56" s="6"/>
     </row>
     <row r="57" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O57" s="24"/>
-      <c r="P57" s="24"/>
+      <c r="O57" s="21"/>
+      <c r="P57" s="21"/>
       <c r="Q57" s="9"/>
     </row>
     <row r="58" spans="15:17" x14ac:dyDescent="0.25">
@@ -8580,8 +8579,8 @@
       <c r="Q78" s="6"/>
     </row>
     <row r="79" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O79" s="24"/>
-      <c r="P79" s="24"/>
+      <c r="O79" s="21"/>
+      <c r="P79" s="21"/>
       <c r="Q79" s="9"/>
     </row>
     <row r="80" spans="15:17" x14ac:dyDescent="0.25">
@@ -8669,8 +8668,8 @@
       <c r="Q100" s="6"/>
     </row>
     <row r="101" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O101" s="24"/>
-      <c r="P101" s="24"/>
+      <c r="O101" s="21"/>
+      <c r="P101" s="21"/>
       <c r="Q101" s="9"/>
     </row>
     <row r="102" spans="15:17" x14ac:dyDescent="0.25">
@@ -8718,8 +8717,8 @@
       <c r="Q112" s="6"/>
     </row>
     <row r="113" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O113" s="24"/>
-      <c r="P113" s="24"/>
+      <c r="O113" s="21"/>
+      <c r="P113" s="21"/>
       <c r="Q113" s="9"/>
     </row>
     <row r="114" spans="15:17" x14ac:dyDescent="0.25">
@@ -8767,8 +8766,8 @@
       <c r="Q124" s="6"/>
     </row>
     <row r="125" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O125" s="24"/>
-      <c r="P125" s="24"/>
+      <c r="O125" s="21"/>
+      <c r="P125" s="21"/>
       <c r="Q125" s="9"/>
     </row>
     <row r="126" spans="15:17" x14ac:dyDescent="0.25">
@@ -8776,8 +8775,8 @@
       <c r="Q126" s="6"/>
     </row>
     <row r="127" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O127" s="24"/>
-      <c r="P127" s="24"/>
+      <c r="O127" s="21"/>
+      <c r="P127" s="21"/>
       <c r="Q127" s="9"/>
     </row>
     <row r="128" spans="15:17" x14ac:dyDescent="0.25">
@@ -8809,8 +8808,8 @@
       <c r="Q134" s="6"/>
     </row>
     <row r="135" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O135" s="24"/>
-      <c r="P135" s="24"/>
+      <c r="O135" s="21"/>
+      <c r="P135" s="21"/>
       <c r="Q135" s="9"/>
     </row>
     <row r="136" spans="15:17" x14ac:dyDescent="0.25">
@@ -8858,8 +8857,8 @@
       <c r="Q146" s="6"/>
     </row>
     <row r="147" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O147" s="24"/>
-      <c r="P147" s="24"/>
+      <c r="O147" s="21"/>
+      <c r="P147" s="21"/>
       <c r="Q147" s="9"/>
     </row>
     <row r="148" spans="15:17" x14ac:dyDescent="0.25">
@@ -8907,8 +8906,8 @@
       <c r="Q158" s="6"/>
     </row>
     <row r="159" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O159" s="24"/>
-      <c r="P159" s="24"/>
+      <c r="O159" s="21"/>
+      <c r="P159" s="21"/>
       <c r="Q159" s="9"/>
     </row>
     <row r="160" spans="15:17" x14ac:dyDescent="0.25">
@@ -8960,8 +8959,8 @@
       <c r="Q171" s="6"/>
     </row>
     <row r="172" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O172" s="24"/>
-      <c r="P172" s="24"/>
+      <c r="O172" s="21"/>
+      <c r="P172" s="21"/>
       <c r="Q172" s="9"/>
     </row>
     <row r="173" spans="15:17" x14ac:dyDescent="0.25">
@@ -9009,8 +9008,8 @@
       <c r="Q183" s="6"/>
     </row>
     <row r="184" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O184" s="24"/>
-      <c r="P184" s="24"/>
+      <c r="O184" s="21"/>
+      <c r="P184" s="21"/>
       <c r="Q184" s="9"/>
     </row>
     <row r="185" spans="15:17" x14ac:dyDescent="0.25">
@@ -9058,8 +9057,8 @@
       <c r="Q195" s="6"/>
     </row>
     <row r="196" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O196" s="24"/>
-      <c r="P196" s="24"/>
+      <c r="O196" s="21"/>
+      <c r="P196" s="21"/>
       <c r="Q196" s="9"/>
     </row>
     <row r="197" spans="15:17" x14ac:dyDescent="0.25">
@@ -9107,8 +9106,8 @@
       <c r="Q207" s="6"/>
     </row>
     <row r="208" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O208" s="24"/>
-      <c r="P208" s="24"/>
+      <c r="O208" s="21"/>
+      <c r="P208" s="21"/>
       <c r="Q208" s="9"/>
     </row>
     <row r="209" spans="15:17" x14ac:dyDescent="0.25">
@@ -9156,8 +9155,8 @@
       <c r="Q219" s="6"/>
     </row>
     <row r="220" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O220" s="24"/>
-      <c r="P220" s="24"/>
+      <c r="O220" s="21"/>
+      <c r="P220" s="21"/>
       <c r="Q220" s="9"/>
     </row>
     <row r="221" spans="15:17" x14ac:dyDescent="0.25">
@@ -9205,8 +9204,8 @@
       <c r="Q231" s="6"/>
     </row>
     <row r="232" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O232" s="24"/>
-      <c r="P232" s="24"/>
+      <c r="O232" s="21"/>
+      <c r="P232" s="21"/>
       <c r="Q232" s="9"/>
     </row>
     <row r="233" spans="15:17" x14ac:dyDescent="0.25">
@@ -9254,8 +9253,8 @@
       <c r="Q243" s="6"/>
     </row>
     <row r="244" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O244" s="24"/>
-      <c r="P244" s="24"/>
+      <c r="O244" s="21"/>
+      <c r="P244" s="21"/>
       <c r="Q244" s="9"/>
     </row>
     <row r="245" spans="15:17" x14ac:dyDescent="0.25">
@@ -9319,8 +9318,8 @@
       <c r="Q259" s="6"/>
     </row>
     <row r="260" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O260" s="24"/>
-      <c r="P260" s="24"/>
+      <c r="O260" s="21"/>
+      <c r="P260" s="21"/>
       <c r="Q260" s="9"/>
     </row>
     <row r="261" spans="15:17" x14ac:dyDescent="0.25">
@@ -9368,8 +9367,8 @@
       <c r="Q271" s="6"/>
     </row>
     <row r="272" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O272" s="24"/>
-      <c r="P272" s="24"/>
+      <c r="O272" s="21"/>
+      <c r="P272" s="21"/>
       <c r="Q272" s="9"/>
     </row>
     <row r="273" spans="15:17" x14ac:dyDescent="0.25">
@@ -9417,8 +9416,8 @@
       <c r="Q283" s="6"/>
     </row>
     <row r="284" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O284" s="24"/>
-      <c r="P284" s="24"/>
+      <c r="O284" s="21"/>
+      <c r="P284" s="21"/>
       <c r="Q284" s="9"/>
     </row>
     <row r="285" spans="15:17" x14ac:dyDescent="0.25">
@@ -9466,8 +9465,8 @@
       <c r="Q295" s="6"/>
     </row>
     <row r="296" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O296" s="24"/>
-      <c r="P296" s="24"/>
+      <c r="O296" s="21"/>
+      <c r="P296" s="21"/>
       <c r="Q296" s="9"/>
     </row>
     <row r="297" spans="15:17" x14ac:dyDescent="0.25">
@@ -9515,8 +9514,8 @@
       <c r="Q307" s="6"/>
     </row>
     <row r="308" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O308" s="24"/>
-      <c r="P308" s="24"/>
+      <c r="O308" s="21"/>
+      <c r="P308" s="21"/>
       <c r="Q308" s="9"/>
     </row>
     <row r="309" spans="15:17" x14ac:dyDescent="0.25">
@@ -9528,8 +9527,8 @@
       <c r="Q310" s="6"/>
     </row>
     <row r="311" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O311" s="24"/>
-      <c r="P311" s="24"/>
+      <c r="O311" s="21"/>
+      <c r="P311" s="21"/>
       <c r="Q311" s="9"/>
     </row>
     <row r="312" spans="15:17" x14ac:dyDescent="0.25">
@@ -9537,8 +9536,8 @@
       <c r="Q312" s="6"/>
     </row>
     <row r="313" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O313" s="24"/>
-      <c r="P313" s="24"/>
+      <c r="O313" s="21"/>
+      <c r="P313" s="21"/>
       <c r="Q313" s="9"/>
     </row>
     <row r="314" spans="15:17" x14ac:dyDescent="0.25">
@@ -9546,8 +9545,8 @@
       <c r="Q314" s="6"/>
     </row>
     <row r="315" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O315" s="24"/>
-      <c r="P315" s="24"/>
+      <c r="O315" s="21"/>
+      <c r="P315" s="21"/>
       <c r="Q315" s="9"/>
     </row>
     <row r="316" spans="15:17" x14ac:dyDescent="0.25">
@@ -9563,8 +9562,8 @@
       <c r="Q318" s="6"/>
     </row>
     <row r="319" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O319" s="24"/>
-      <c r="P319" s="24"/>
+      <c r="O319" s="21"/>
+      <c r="P319" s="21"/>
       <c r="Q319" s="9"/>
     </row>
     <row r="320" spans="15:17" x14ac:dyDescent="0.25">
@@ -9584,8 +9583,8 @@
       <c r="Q323" s="6"/>
     </row>
     <row r="324" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O324" s="24"/>
-      <c r="P324" s="24"/>
+      <c r="O324" s="21"/>
+      <c r="P324" s="21"/>
       <c r="Q324" s="9"/>
     </row>
     <row r="325" spans="15:17" x14ac:dyDescent="0.25">
@@ -9593,8 +9592,8 @@
       <c r="Q325" s="6"/>
     </row>
     <row r="326" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O326" s="24"/>
-      <c r="P326" s="24"/>
+      <c r="O326" s="21"/>
+      <c r="P326" s="21"/>
       <c r="Q326" s="9"/>
     </row>
     <row r="327" spans="15:17" x14ac:dyDescent="0.25">
@@ -9602,8 +9601,8 @@
       <c r="Q327" s="6"/>
     </row>
     <row r="328" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O328" s="24"/>
-      <c r="P328" s="24"/>
+      <c r="O328" s="21"/>
+      <c r="P328" s="21"/>
       <c r="Q328" s="9"/>
     </row>
     <row r="329" spans="15:17" x14ac:dyDescent="0.25">
@@ -9611,8 +9610,8 @@
       <c r="Q329" s="6"/>
     </row>
     <row r="330" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O330" s="24"/>
-      <c r="P330" s="24"/>
+      <c r="O330" s="21"/>
+      <c r="P330" s="21"/>
       <c r="Q330" s="9"/>
     </row>
     <row r="331" spans="15:17" x14ac:dyDescent="0.25">
@@ -9620,8 +9619,8 @@
       <c r="Q331" s="6"/>
     </row>
     <row r="332" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O332" s="24"/>
-      <c r="P332" s="24"/>
+      <c r="O332" s="21"/>
+      <c r="P332" s="21"/>
       <c r="Q332" s="9"/>
     </row>
     <row r="333" spans="15:17" x14ac:dyDescent="0.25">
@@ -9697,8 +9696,8 @@
       <c r="Q350" s="6"/>
     </row>
     <row r="351" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O351" s="24"/>
-      <c r="P351" s="24"/>
+      <c r="O351" s="21"/>
+      <c r="P351" s="21"/>
       <c r="Q351" s="9"/>
     </row>
     <row r="352" spans="15:17" x14ac:dyDescent="0.25">
@@ -9774,8 +9773,8 @@
       <c r="Q369" s="6"/>
     </row>
     <row r="370" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O370" s="24"/>
-      <c r="P370" s="24"/>
+      <c r="O370" s="21"/>
+      <c r="P370" s="21"/>
       <c r="Q370" s="9"/>
     </row>
     <row r="371" spans="15:17" x14ac:dyDescent="0.25">
@@ -9851,8 +9850,8 @@
       <c r="Q388" s="6"/>
     </row>
     <row r="389" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O389" s="24"/>
-      <c r="P389" s="24"/>
+      <c r="O389" s="21"/>
+      <c r="P389" s="21"/>
       <c r="Q389" s="9"/>
     </row>
     <row r="390" spans="15:17" x14ac:dyDescent="0.25">
@@ -9928,8 +9927,8 @@
       <c r="Q407" s="6"/>
     </row>
     <row r="408" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O408" s="24"/>
-      <c r="P408" s="24"/>
+      <c r="O408" s="21"/>
+      <c r="P408" s="21"/>
       <c r="Q408" s="9"/>
     </row>
     <row r="409" spans="15:17" x14ac:dyDescent="0.25">
@@ -10005,8 +10004,8 @@
       <c r="Q426" s="6"/>
     </row>
     <row r="427" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O427" s="24"/>
-      <c r="P427" s="24"/>
+      <c r="O427" s="21"/>
+      <c r="P427" s="21"/>
       <c r="Q427" s="9"/>
     </row>
     <row r="428" spans="15:17" x14ac:dyDescent="0.25">
@@ -10082,8 +10081,8 @@
       <c r="Q445" s="6"/>
     </row>
     <row r="446" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O446" s="24"/>
-      <c r="P446" s="24"/>
+      <c r="O446" s="21"/>
+      <c r="P446" s="21"/>
       <c r="Q446" s="9"/>
     </row>
     <row r="447" spans="15:17" x14ac:dyDescent="0.25">
@@ -10159,8 +10158,8 @@
       <c r="Q464" s="6"/>
     </row>
     <row r="465" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O465" s="24"/>
-      <c r="P465" s="24"/>
+      <c r="O465" s="21"/>
+      <c r="P465" s="21"/>
       <c r="Q465" s="9"/>
     </row>
     <row r="466" spans="15:17" x14ac:dyDescent="0.25">
@@ -10236,8 +10235,8 @@
       <c r="Q483" s="6"/>
     </row>
     <row r="484" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O484" s="24"/>
-      <c r="P484" s="24"/>
+      <c r="O484" s="21"/>
+      <c r="P484" s="21"/>
       <c r="Q484" s="9"/>
     </row>
     <row r="485" spans="15:17" x14ac:dyDescent="0.25">
@@ -10325,8 +10324,8 @@
       <c r="Q505" s="6"/>
     </row>
     <row r="506" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O506" s="24"/>
-      <c r="P506" s="24"/>
+      <c r="O506" s="21"/>
+      <c r="P506" s="21"/>
       <c r="Q506" s="9"/>
     </row>
     <row r="507" spans="15:17" x14ac:dyDescent="0.25">
@@ -10402,8 +10401,8 @@
       <c r="Q524" s="6"/>
     </row>
     <row r="525" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O525" s="24"/>
-      <c r="P525" s="24"/>
+      <c r="O525" s="21"/>
+      <c r="P525" s="21"/>
       <c r="Q525" s="9"/>
     </row>
     <row r="526" spans="15:17" x14ac:dyDescent="0.25">
@@ -10479,8 +10478,8 @@
       <c r="Q543" s="6"/>
     </row>
     <row r="544" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O544" s="24"/>
-      <c r="P544" s="24"/>
+      <c r="O544" s="21"/>
+      <c r="P544" s="21"/>
       <c r="Q544" s="9"/>
     </row>
     <row r="545" spans="15:17" x14ac:dyDescent="0.25">
@@ -10556,8 +10555,8 @@
       <c r="Q562" s="6"/>
     </row>
     <row r="563" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O563" s="24"/>
-      <c r="P563" s="24"/>
+      <c r="O563" s="21"/>
+      <c r="P563" s="21"/>
       <c r="Q563" s="9"/>
     </row>
     <row r="564" spans="15:17" x14ac:dyDescent="0.25">
@@ -10633,8 +10632,8 @@
       <c r="Q581" s="6"/>
     </row>
     <row r="582" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O582" s="24"/>
-      <c r="P582" s="24"/>
+      <c r="O582" s="21"/>
+      <c r="P582" s="21"/>
       <c r="Q582" s="9"/>
     </row>
     <row r="583" spans="15:17" x14ac:dyDescent="0.25">
@@ -10670,8 +10669,8 @@
       <c r="Q590" s="6"/>
     </row>
     <row r="591" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O591" s="24"/>
-      <c r="P591" s="24"/>
+      <c r="O591" s="21"/>
+      <c r="P591" s="21"/>
       <c r="Q591" s="9"/>
     </row>
     <row r="592" spans="15:17" x14ac:dyDescent="0.25">
@@ -10679,8 +10678,8 @@
       <c r="Q592" s="6"/>
     </row>
     <row r="593" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O593" s="24"/>
-      <c r="P593" s="24"/>
+      <c r="O593" s="21"/>
+      <c r="P593" s="21"/>
       <c r="Q593" s="9"/>
     </row>
     <row r="594" spans="15:17" x14ac:dyDescent="0.25">
@@ -10692,8 +10691,8 @@
       <c r="Q595" s="6"/>
     </row>
     <row r="596" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O596" s="24"/>
-      <c r="P596" s="24"/>
+      <c r="O596" s="21"/>
+      <c r="P596" s="21"/>
       <c r="Q596" s="9"/>
     </row>
     <row r="597" spans="15:17" x14ac:dyDescent="0.25">
@@ -10701,8 +10700,8 @@
       <c r="Q597" s="6"/>
     </row>
     <row r="598" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O598" s="24"/>
-      <c r="P598" s="24"/>
+      <c r="O598" s="21"/>
+      <c r="P598" s="21"/>
       <c r="Q598" s="9"/>
     </row>
     <row r="599" spans="15:17" x14ac:dyDescent="0.25">
@@ -10782,8 +10781,8 @@
       <c r="Q617" s="6"/>
     </row>
     <row r="618" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O618" s="24"/>
-      <c r="P618" s="24"/>
+      <c r="O618" s="21"/>
+      <c r="P618" s="21"/>
       <c r="Q618" s="9"/>
     </row>
     <row r="619" spans="15:17" x14ac:dyDescent="0.25">
@@ -10823,8 +10822,8 @@
       <c r="Q627" s="6"/>
     </row>
     <row r="628" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O628" s="24"/>
-      <c r="P628" s="24"/>
+      <c r="O628" s="21"/>
+      <c r="P628" s="21"/>
       <c r="Q628" s="9"/>
     </row>
     <row r="629" spans="15:17" x14ac:dyDescent="0.25">
@@ -10888,8 +10887,8 @@
       <c r="Q643" s="6"/>
     </row>
     <row r="644" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O644" s="24"/>
-      <c r="P644" s="24"/>
+      <c r="O644" s="21"/>
+      <c r="P644" s="21"/>
       <c r="Q644" s="9"/>
     </row>
     <row r="645" spans="15:17" x14ac:dyDescent="0.25">
@@ -10913,8 +10912,8 @@
       <c r="Q649" s="6"/>
     </row>
     <row r="650" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O650" s="24"/>
-      <c r="P650" s="24"/>
+      <c r="O650" s="21"/>
+      <c r="P650" s="21"/>
       <c r="Q650" s="9"/>
     </row>
     <row r="651" spans="15:17" x14ac:dyDescent="0.25">
@@ -10922,8 +10921,8 @@
       <c r="Q651" s="6"/>
     </row>
     <row r="652" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O652" s="24"/>
-      <c r="P652" s="24"/>
+      <c r="O652" s="21"/>
+      <c r="P652" s="21"/>
       <c r="Q652" s="9"/>
     </row>
     <row r="653" spans="15:17" x14ac:dyDescent="0.25">
@@ -10931,8 +10930,8 @@
       <c r="Q653" s="6"/>
     </row>
     <row r="654" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O654" s="24"/>
-      <c r="P654" s="24"/>
+      <c r="O654" s="21"/>
+      <c r="P654" s="21"/>
       <c r="Q654" s="9"/>
     </row>
     <row r="655" spans="15:17" x14ac:dyDescent="0.25">
@@ -10940,8 +10939,8 @@
       <c r="Q655" s="6"/>
     </row>
     <row r="656" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O656" s="24"/>
-      <c r="P656" s="24"/>
+      <c r="O656" s="21"/>
+      <c r="P656" s="21"/>
       <c r="Q656" s="9"/>
     </row>
     <row r="657" spans="15:17" x14ac:dyDescent="0.25">
@@ -10949,8 +10948,8 @@
       <c r="Q657" s="6"/>
     </row>
     <row r="658" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O658" s="24"/>
-      <c r="P658" s="24"/>
+      <c r="O658" s="21"/>
+      <c r="P658" s="21"/>
       <c r="Q658" s="9"/>
     </row>
     <row r="659" spans="15:17" x14ac:dyDescent="0.25">
@@ -10958,8 +10957,8 @@
       <c r="Q659" s="6"/>
     </row>
     <row r="660" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O660" s="24"/>
-      <c r="P660" s="24"/>
+      <c r="O660" s="21"/>
+      <c r="P660" s="21"/>
       <c r="Q660" s="9"/>
     </row>
     <row r="661" spans="15:17" x14ac:dyDescent="0.25">
@@ -10967,8 +10966,8 @@
       <c r="Q661" s="6"/>
     </row>
     <row r="662" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O662" s="24"/>
-      <c r="P662" s="24"/>
+      <c r="O662" s="21"/>
+      <c r="P662" s="21"/>
       <c r="Q662" s="9"/>
     </row>
     <row r="663" spans="15:17" x14ac:dyDescent="0.25">
@@ -10976,8 +10975,8 @@
       <c r="Q663" s="6"/>
     </row>
     <row r="664" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O664" s="24"/>
-      <c r="P664" s="24"/>
+      <c r="O664" s="21"/>
+      <c r="P664" s="21"/>
       <c r="Q664" s="9"/>
     </row>
     <row r="665" spans="15:17" x14ac:dyDescent="0.25">
@@ -10985,8 +10984,8 @@
       <c r="Q665" s="6"/>
     </row>
     <row r="666" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O666" s="24"/>
-      <c r="P666" s="24"/>
+      <c r="O666" s="21"/>
+      <c r="P666" s="21"/>
       <c r="Q666" s="9"/>
     </row>
     <row r="667" spans="15:17" x14ac:dyDescent="0.25">
@@ -10994,8 +10993,8 @@
       <c r="Q667" s="6"/>
     </row>
     <row r="668" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O668" s="24"/>
-      <c r="P668" s="24"/>
+      <c r="O668" s="21"/>
+      <c r="P668" s="21"/>
       <c r="Q668" s="9"/>
     </row>
     <row r="669" spans="15:17" x14ac:dyDescent="0.25">
@@ -11003,8 +11002,8 @@
       <c r="Q669" s="6"/>
     </row>
     <row r="670" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O670" s="24"/>
-      <c r="P670" s="24"/>
+      <c r="O670" s="21"/>
+      <c r="P670" s="21"/>
       <c r="Q670" s="9"/>
     </row>
     <row r="671" spans="15:17" x14ac:dyDescent="0.25">
@@ -11012,8 +11011,8 @@
       <c r="Q671" s="6"/>
     </row>
     <row r="672" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O672" s="24"/>
-      <c r="P672" s="24"/>
+      <c r="O672" s="21"/>
+      <c r="P672" s="21"/>
       <c r="Q672" s="9"/>
     </row>
     <row r="673" spans="15:17" x14ac:dyDescent="0.25">
@@ -11021,8 +11020,8 @@
       <c r="Q673" s="6"/>
     </row>
     <row r="674" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O674" s="24"/>
-      <c r="P674" s="24"/>
+      <c r="O674" s="21"/>
+      <c r="P674" s="21"/>
       <c r="Q674" s="9"/>
     </row>
     <row r="675" spans="15:17" x14ac:dyDescent="0.25">
@@ -11030,8 +11029,8 @@
       <c r="Q675" s="6"/>
     </row>
     <row r="676" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O676" s="24"/>
-      <c r="P676" s="24"/>
+      <c r="O676" s="21"/>
+      <c r="P676" s="21"/>
       <c r="Q676" s="9"/>
     </row>
     <row r="677" spans="15:17" x14ac:dyDescent="0.25">
@@ -11039,8 +11038,8 @@
       <c r="Q677" s="6"/>
     </row>
     <row r="678" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O678" s="24"/>
-      <c r="P678" s="24"/>
+      <c r="O678" s="21"/>
+      <c r="P678" s="21"/>
       <c r="Q678" s="9"/>
     </row>
     <row r="679" spans="15:17" x14ac:dyDescent="0.25">
@@ -11072,8 +11071,8 @@
       <c r="Q685" s="6"/>
     </row>
     <row r="686" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O686" s="24"/>
-      <c r="P686" s="24"/>
+      <c r="O686" s="21"/>
+      <c r="P686" s="21"/>
       <c r="Q686" s="9"/>
     </row>
     <row r="687" spans="15:17" x14ac:dyDescent="0.25">
@@ -11081,8 +11080,8 @@
       <c r="Q687" s="6"/>
     </row>
     <row r="688" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O688" s="24"/>
-      <c r="P688" s="24"/>
+      <c r="O688" s="21"/>
+      <c r="P688" s="21"/>
       <c r="Q688" s="9"/>
     </row>
     <row r="689" spans="15:17" x14ac:dyDescent="0.25">
@@ -11094,6 +11093,66 @@
     </row>
   </sheetData>
   <mergeCells count="76">
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="O686:P686"/>
+    <mergeCell ref="O666:P666"/>
+    <mergeCell ref="O618:P618"/>
+    <mergeCell ref="O628:P628"/>
+    <mergeCell ref="O644:P644"/>
+    <mergeCell ref="O650:P650"/>
+    <mergeCell ref="O652:P652"/>
+    <mergeCell ref="O654:P654"/>
+    <mergeCell ref="O656:P656"/>
+    <mergeCell ref="O658:P658"/>
+    <mergeCell ref="O660:P660"/>
+    <mergeCell ref="O662:P662"/>
+    <mergeCell ref="O688:P688"/>
+    <mergeCell ref="O668:P668"/>
+    <mergeCell ref="O670:P670"/>
+    <mergeCell ref="O672:P672"/>
+    <mergeCell ref="O674:P674"/>
+    <mergeCell ref="O676:P676"/>
+    <mergeCell ref="O678:P678"/>
+    <mergeCell ref="O664:P664"/>
+    <mergeCell ref="O598:P598"/>
+    <mergeCell ref="O446:P446"/>
+    <mergeCell ref="O465:P465"/>
+    <mergeCell ref="O484:P484"/>
+    <mergeCell ref="O506:P506"/>
+    <mergeCell ref="O525:P525"/>
+    <mergeCell ref="O544:P544"/>
+    <mergeCell ref="O563:P563"/>
+    <mergeCell ref="O582:P582"/>
+    <mergeCell ref="O591:P591"/>
+    <mergeCell ref="O593:P593"/>
+    <mergeCell ref="O596:P596"/>
+    <mergeCell ref="O427:P427"/>
+    <mergeCell ref="O315:P315"/>
+    <mergeCell ref="O319:P319"/>
+    <mergeCell ref="O324:P324"/>
+    <mergeCell ref="O326:P326"/>
+    <mergeCell ref="O328:P328"/>
+    <mergeCell ref="O330:P330"/>
+    <mergeCell ref="O332:P332"/>
+    <mergeCell ref="O351:P351"/>
+    <mergeCell ref="O370:P370"/>
+    <mergeCell ref="O389:P389"/>
+    <mergeCell ref="O408:P408"/>
+    <mergeCell ref="O313:P313"/>
+    <mergeCell ref="O196:P196"/>
+    <mergeCell ref="O208:P208"/>
+    <mergeCell ref="O220:P220"/>
+    <mergeCell ref="O232:P232"/>
+    <mergeCell ref="O244:P244"/>
+    <mergeCell ref="O260:P260"/>
+    <mergeCell ref="O272:P272"/>
+    <mergeCell ref="O284:P284"/>
+    <mergeCell ref="O296:P296"/>
+    <mergeCell ref="O308:P308"/>
+    <mergeCell ref="O311:P311"/>
     <mergeCell ref="O33:P33"/>
     <mergeCell ref="O27:P27"/>
     <mergeCell ref="O29:P29"/>
@@ -11110,66 +11169,6 @@
     <mergeCell ref="O147:P147"/>
     <mergeCell ref="O159:P159"/>
     <mergeCell ref="O172:P172"/>
-    <mergeCell ref="O313:P313"/>
-    <mergeCell ref="O196:P196"/>
-    <mergeCell ref="O208:P208"/>
-    <mergeCell ref="O220:P220"/>
-    <mergeCell ref="O232:P232"/>
-    <mergeCell ref="O244:P244"/>
-    <mergeCell ref="O260:P260"/>
-    <mergeCell ref="O272:P272"/>
-    <mergeCell ref="O284:P284"/>
-    <mergeCell ref="O296:P296"/>
-    <mergeCell ref="O308:P308"/>
-    <mergeCell ref="O311:P311"/>
-    <mergeCell ref="O427:P427"/>
-    <mergeCell ref="O315:P315"/>
-    <mergeCell ref="O319:P319"/>
-    <mergeCell ref="O324:P324"/>
-    <mergeCell ref="O326:P326"/>
-    <mergeCell ref="O328:P328"/>
-    <mergeCell ref="O330:P330"/>
-    <mergeCell ref="O332:P332"/>
-    <mergeCell ref="O351:P351"/>
-    <mergeCell ref="O370:P370"/>
-    <mergeCell ref="O389:P389"/>
-    <mergeCell ref="O408:P408"/>
-    <mergeCell ref="O664:P664"/>
-    <mergeCell ref="O598:P598"/>
-    <mergeCell ref="O446:P446"/>
-    <mergeCell ref="O465:P465"/>
-    <mergeCell ref="O484:P484"/>
-    <mergeCell ref="O506:P506"/>
-    <mergeCell ref="O525:P525"/>
-    <mergeCell ref="O544:P544"/>
-    <mergeCell ref="O563:P563"/>
-    <mergeCell ref="O582:P582"/>
-    <mergeCell ref="O591:P591"/>
-    <mergeCell ref="O593:P593"/>
-    <mergeCell ref="O596:P596"/>
-    <mergeCell ref="O688:P688"/>
-    <mergeCell ref="O668:P668"/>
-    <mergeCell ref="O670:P670"/>
-    <mergeCell ref="O672:P672"/>
-    <mergeCell ref="O674:P674"/>
-    <mergeCell ref="O676:P676"/>
-    <mergeCell ref="O678:P678"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="O686:P686"/>
-    <mergeCell ref="O666:P666"/>
-    <mergeCell ref="O618:P618"/>
-    <mergeCell ref="O628:P628"/>
-    <mergeCell ref="O644:P644"/>
-    <mergeCell ref="O650:P650"/>
-    <mergeCell ref="O652:P652"/>
-    <mergeCell ref="O654:P654"/>
-    <mergeCell ref="O656:P656"/>
-    <mergeCell ref="O658:P658"/>
-    <mergeCell ref="O660:P660"/>
-    <mergeCell ref="O662:P662"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
